--- a/Project One/predictions_modelrf.xlsx
+++ b/Project One/predictions_modelrf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A703"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3517 +436,7032 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Predictions</t>
+          <t>cleaned_text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Predictions_modelrf </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>examinar contribucion universidades instituciones educacion terciaria desarrollo capital humano competencia transferencia tecnologia innovacion empresarial desarrollo social cultural medioambiental creacion capacidad regional proceso revision facilitado creacion asociación ciudad región reunir institución educacion terciaria organismo publico privado identificar objetivo estrategico trabajar junto alcanzarlo complementar revisión llevado cabo region transfronterizo mexicoestado unido importancia estrategico economica leon region paso norte recientemente sur arizonar sonora</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ultimo decado particular numero alto per capita tendido disminuir line medio ocde mencionado anteriormente ejemplo habitante zona rural representar poblacion alto hospitalaria faltar informacion complementario determinar diferenciar indicar disparidad acceso población rural caso afirmativo causar geografica cultural infraestructural recoger dato acceso atencion punto visto paciente ayudario comprender naturaleza obstaculo acceso solución general determinar dato disponible ingreso caracteristica socioeconomica paciente influir hora llegar puerta hospital ingresar acceso desigual probablemente deber incapacidad centro distinto región prestar servicio</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>país estudiante alto rendimiento sentir atraido docenciar encuesta docente servicio mostrar maestro actual motivado beneficio intrinseco ensenanzar trabajar nino ayudar él desarrollar él contribucion sociedad estudio encuestar grupo graduado opción carrera mostrar salario relativo ocupación graduado jugar papel elección salario docente alto docente potencial habriar considerado seriamente carrera ensenanza nivel pai resultado indicar salario docente estatus social profesion docente asociar positivamente expectativa estudiant trabajar docente</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>raiz preocupacion medico sistema sanitario japón capaz identificar signo sufrimiento psicologico ayudar reducir suicidio asociacion medico japonés informar empezo compartir informacion orientación depresion medico actualidad recoger indicador tasar reclusion contencion ingreso involuntario proveedor nivel prefectural informacion recopilado sistematicamente sistema atencion salud mental limitar indicador estructural instalación numero personal numero cama</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>h ar abalde ij pequeno numero estudiante docente escuela forma forma escuela utilizar tiempo docente alumno agrupar grado habilidades mulcahy iii padr preocupado hijo aprendar nino edad salon clase cornish iij investigacion sugerir ensenanza multigrado necesariamente efectivo clase edad especifico</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>continuacion proponer sintesis pais resaltar coherencia politico nacional materia dicho coherencia construir fuerza asociación nivel tabla resumir contenido recomendación especificar diploma relacionado campo uso tic educacion caso pais describir especificamente siguiente parrafo</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>diferenciar acuerdo anterior normativa estipular cantidad tiempo utilizar él distinto fin ensenanza preparacion decisión tiempo profesor lugar trabajo recaen direccion centro esperar profesor trabajar forma sistema tiempo ensenanza especifico contractualmente</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ejemplo servicio urgencia prestar asistencia cubierto cuota anual determinado servicio numero caso tipo proporcionar indicacion cuotar fijado adecuadamente origen destino paciente proporcionar indicacion capacidad distinto nivel atencion adecuado termino acceso calidad atencion medico ejercicio habitante cerca medio ocde ligero aumento medico ejercicio habitante letonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ano cerrar escuela especial destinar recurso sistema general obstante reconocer persona igual joven discapacidad sufrir discriminacion desventajas consejo creer educacion especial segregado factor importante discriminacion</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>medida implemente estructura carrero crucial proceso certificacion establecido envie senal claro rigor identificar desempeno etapa carrero desempeno docente tema importante resolver duplicidad actual proceso certificacion asociado estructura carrero sistema evaluacion desempeno docente aprovechar caracter continuo sistema evaluacion desempeno docente atender necesidad docente demuestrir continuamente idoneidad profesion nivel estructurar carrero considerar él introduccion requisito recertificacion determinado etapa carrero</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seguimiento planificacion red escolar limitado bastante escuela pequena clás pequena ofrecer rico experiencia aprendizaje estudiantes situacion surgir revision red escolar evaluar necesidad reorganizacion oferta educativo local desarrollado estrategia importante transporte escolar</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>reconocer repercusión ambiente degradado salud reduccion principal objetivo politico programa normativo proteccion medioambiental avanzado control calidad principal medio ambiental vigilancia enfermedad infeccioso reforzado capacidad profesional materia salud publicar medioambiental metodo avanzado vigilancia sanitario evaluacion riesgo</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>formulario unico recogido dato dato agregado estancia hora lesion grave lesion leve ansv trabajar ministerio salud nacion vincular registro hospitalario dato formulario narangir proyecto vinculacion inicio piloto provincia poblado argentino recopilar dato basado mais</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>principal instrumento medicion adult mental health benchmarking toolkit presentar indicador resultado formato cuadro mando combinar indicador estructural proceso resultado general entender trastorno leve moderado depresion ansiedad requerir tratamiento altamente especializado administrado psiquiatra regimar hospitalizacion mayorio caso contrario requerir solido atencion primaria comunitario atencion primario inmenso mayorio caso punto acudir persona sufrir trastorno mental medico atencion primaria disponer competencia opción tratamiento adecuado responder eficazmente necesidad</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>esfuerzo centrar él abordar desigualdad acceso servicio sanitario región ciudad zona rural geografia pais bajo densidad poblacion planificacion prestacion sanitario red instalación nivel deberiar reorganizar él forma compatible modelo prestacion servicio apoyo ajustar él tendencia demografica patrón acceso ejercicio punto partido plan maestros prestacion servicio desarrollado ultimos ano</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>país ocde considerado atencion primaria fuerte reino unido australia zelanda proporcion medico trabajar solitario israel consultorio atencion primario equivalente medico generalista enfermera auxiliar mayorio director consultar ultimos ano reino unido australia francia suizo modificado financiacion proporcionar pago adicional medico cabecerar intentar prioridad servicio exito limitado hora impulsar cambio sistema</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>alumno curso tarear proyecto obligatorio oportunidad completar presentar proyecto interdisciplinar proyecto evalua declaracion escrito basado contenido proceso trabajo presentacion trabajo evaluacion proyecto indicar certificado estudio</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>abordar desafio politico rea actuar silo conocimiento plotkin independientemente derivar diferencia institución educativo país entorno aprendizaje formal informal formal caso intercambio recurso rea valioso recurso liberar rea completo permitir reutilizar remezclar reutilizar</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>prevalenciar nino mes peso aumento peso nacer frecuente zona rural region occidental urbano ular bator gobierno aprobo listo producto quimico toxico peligroso prohibido limitado</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>educacion primario escuela informar medida alumno alcanzado objetivo aprendizaje basico esperado escuelas libertad utilizar instrumento proposito escuela utilizar prueba primario cito brinda informacion tipo escuela adecuado estudiante etapa educacion ley implementarar ano escolar obligar escuela primario administrar sistema regular monitoreo estudiante probar ano</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>telon fondo prolongado faltar fuente oficial informacion fiable produccion trafico indebido droga ilicita país region informe medio comunicacion anecdotico indebido generalizado comprimido falsificado captagon contener anfetamín parte implicado violencia armado republico arabir sirio significativo ano estudio opio afganistar disponer resumen ejecutivo senala producido disminucion superficie estimado cultivo ilicito adormiderar afganistar ascendio hectareas representar disminucion comparacion cultivo alcanzar nivel record hectarea</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tiempo informacion oficial prueba nacional repetir claramente mensaje prueba nacional medir area discreto conocimiento habilidades estudiant brindar instantaneo rendimiento estudiante objetivo aprendizaje seleccionado necesitar evaluación complementario medir completamente proceso estudiantil investigacion país indicar evaluacion objetivo principal medir progreso resultado aprendizaje efecto proceso aprendizaje somerset autor descrito influencia evaluacion ensenanza aprendizaje efecto retroceso evaluacion estudiantes alderson wall baartmar et</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>faltar prueba solida medicion seguridad paciente entornos atencion primario ambulatorio explicar él naturaleza fragmentado entorno descrito introduccion respuesta encuesta sugerir caracter fragmentado sistema atencion primaria ambulatorio faltar gobernanza general sistema principal obstaculo aplicacion medida intervención seguridad vear capitulo significar informacion rara vincular él obstaculo tecnico impedir captar precision imagen completo frecuencia magnitud dano sufrido paciente recorrido</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>estudio utilizar clase ocupacional nivel educativo lugar renta indicador socioeconomico encontrar resultado cualitativamente similar diferencia esperanza vida significativamente menor palosuo et proyecto teroka pretender desarrollar base conocimiento herramienta promover consecucion objetivo programa salud publicar salud reducir desigualdad salud an analysis of the recent hospital reform in norway andresen gronlie eds</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tratar él plan clase detallado recurso exigir presuponer autonomia capacidad accion profesorado dirigido profesor experto disenar entorno aprendizaje clás comprobado terreno recurso pedagogico suficiente mayorio profesor complementar él recurso aprendizaje</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>eficacia medir efecto agente terapeutico condición entorno controlado efectividad medir efecto tratamiento condiciones controlado entorno sanitario mundo real medir eficacia facil paciente enfermedad habitual persona multipl enfermedad cronica quedar excluido ensayo clinico aleatorizado</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>beneficio reconocimiento habilidades recaen empleadores colectivamente ejemplo sector economico sector inter grupo trabajador calificado calificado riesgo cazar furtivo asociado habilidad visible problematico sector empleador individual incluir habilidad relativamente simple involucrado tarea fisica servicio digital ingreso dato soporte administrativo habilidad nivel superior actividad programacion consultoria empresarial ocde b contexto herramienta tradicional capacitacion reconocimiento habilidad aplicar empleador recompense empleado aprender rapido salario hora alto testifique trabajador adquirido conjunto especifico habilidad</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>quedar reducir tiempo esperar consulta externo hospital zona gobierno comprometido construir bloque consulta externo aumentar capacidad atender demanda llevar cabo ejercicio mejorar eficiencia interno gestion servicio ambulatorio visto reducir tiempo esperar factor poner prueba capacidad sistema sanitario aumento inmigracion trabajador pensionista turista utilizar sistema sanitario cambio comportamiento riesgo poblacion</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ejemplo informe nacional desarrollo educacion resultado estudio seguimiento evaluacion desempeno estudiante quinto noveno grado analisis resultado evaluacion externo rendimiento estudiant noveno grado analisis resultado prueba nacional unificado esquema formal lider escolar participar apoyo par escuela ejemplo intercambiar mejor practica asesorar lider apoyar escuela aislado rendimiento concepto lider sistema liderar escuela contribuyen mejor sistema incipiente mecanismo compartir recurso escuela eficiente infraestructura fisico equipo material didactico recurso humano</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>municipio introducido politica areo codigo postal aplicacion central inscribir estudiante determinado escuela base necesidad caracteristica escuela lugar familia posibilidad elegir escuela completo ministerie onderwijs cultuur wctcnschap oi ciudad holandés nijmegir deventer gobierno local imponer integracion criterio proceso eleccion escuela objetivo estudiante nativo estudiante inmigrante ladd fiske and ruijs oj concretamente escuela primario nijmegen acordado sistema suscripcion central basado distribucion alumno categoria llegar porcentaje alumno desfavorecido escuela</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>país incluido austria belgico canado chile italia japon país bajo espana brindar incentivo fiscal explicito capacitacion deducibilidad estandar costo capacitacion salario pagado aprendiz aprendiz lección evaluación reciente mostrar efectividad incentivo fiscal depender diseno ejemplo diseno complejo reducir tasa aceptacion generar reclamo alivio laxo nivel optimo conducir alto tasa incumplimiento</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vivienda altamente segregado escuela tender segregado escuela percibir calidad ubicado areas precio propiedad alquiler alto educacion calidad precio implicito mercado vivienda estudiante inmigrante entorno socioeconomico bajo acceso field et</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ministerio planear implicar él traves proyecto implantacion guias practica clinico asistencia cubierto seguro medico publico financiado ue puesto marchar final sistema auditorio interno calidad sistema supervision seguridad paciente obligatorio ley seguir aplicar él punto auditoria traducir proceso real mejora atencion paciente</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>variación definición detallado utilizar siguiente descripción ofrecer indicacion util terminos formal formal informal aplicar comunmente educacion aprendizaje aprendizaje formal manifestación ejemplo incluiriar clase alfabetizacion adulto aldea formacion entrenador club deportivo sitio web ispot nature ofrecer ejemplo line aprendizaje colaborativo autodirigido usuario aprender identificar apreciar flora faún compartir informacion comunidad line recuadro</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sistema ingl atencion salud mental operar predominantemente servicio nacional salud salud publicar inglaterra autoridad local gubernamental componer atencion primario especializado atencion secundaria atencion terciaria atencion social probable atencion integral salud mental incluir intervencion servicios atencion social servicio financiado gestionado public health england servicio social local gestionado autoridad local servicio atencion salud mental financiado gobierno gestionado complementar servicio voluntario servicio privado pagado nhs especialmente atencion seguridad medio baja veanse seccion seccion ii</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>financiacion publicar sufrido reducción crisis economico gasto alumno medio ocde alto tasa abandono escolar desempleo juvenil requerir esfuerzo consolidar habilidad basica adaptar él necesidad mercado laboral centrar él calidad educacion provision educacion formacion profesional tiempo calidad docente liderazgo escolar mejorar trav formacion inicial continuo especificar</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>requisito actual plan introducido incluir objetivo regional especifico definir objetivo trav listo tarifa health japar establecer objetivo prevencion enfermedad asociado habito vida adulto cumplimiento directriz voluntario impacto evolucion calidad falta indicador completo procesabl apoyar mejora calidad</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>basado dato armonizado rendimiento estudiante ano recopilado nivel individual analisis empirico mostrar país nordico europa exhibir nivel relativamente bajo desigualdad europa continental caracterizar alto nivel desigualdad particular segregacion escolar nivel socioeconomico linea economica país anglosajón ocupar posicion intermedia dificultad identificar adecuadamente relacion causal analisis regresion país proporcionar informacion potencial politica explicar diferencia observado equidad educacion politica permitir mezcla social asociado menor segregacion socioeconomico escolar afectar desempeno general</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>actualidad indicador midar calidad coordinacion asistencial investigacion biomedico adecuado tratar persona multipl afección cronica dificil crear parametro calidad basado prueba senalado dificil elaborar directriz practica parametro calidad persona multipl enfermedad cronica</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>caber preguntar él alumno talento pais asistir centro estudiant desfavorecido acceso limitado clase extraescolar preparar él admision proporcion alumno mejor resultado evaluación internacional pequenar numero quedar rezagado companero país sistema educativo mejorar rapidamente pís mostrar mejora superior inferior escala rendimiento mano</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>chalmer school of entrepreneurship cse wwwentrepreneurchalmersse plataforma educativo adquirir habilidad empresarial preincubadorar desarrollar idea comercial etapa inicial iniciar empresa mayorio estudiantes iniciar empresa legal ano proyecto nucleo red reunar persona universidad empresa innovadora interesado desarrollar comercializar idea alto tecnologia etapa temprano alto potencial mercado cse practicar proceso encubacion ofrecer educacion nivel maestrio combinado incubacion empresa trav organizacion incubadora encubator operar simbiosis educacion propiedad chalmersinvest participar proveedor idea investigador universitario inventor oportunidad probar invento proyecto innovacion ano cse</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ofrecer universidad regional consejo educacion superior ort braude tel hai sakhnin western galilee sefad colleg persistir brecha socioeconomica grupo poblacion disparidad galilea centro israel israel necesitar estrategia politico continuo concertado politico garantizar infraestructura educativo ofrecer nino arab judio incluido cuestión tamano clase instalación educativo nivel estandar basico ingl matematica ciencia nivel similar</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>concluir informe pís estudiante computadora aprendizaje conexion ocde general escuelas sistema educativo efectivo aprovechar potencial tecnologia país ocde computadora estudiante escuela conectado internet tabla diferencia proporcion computadora estudiante sistema educativo</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>expreso preguntar olvidar él busquedar comparar medir justificar educador agrego esperar perder rumbo alejar comprension valor fundamental suponer lograr educacion capacitacion proceso burocratiza endeudamiento mirar trav universidad escuela sudafrico vuelto impresion lograr resultado particular haberlo lograr absoluto</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>arogya world recurrio asociacion publicoprivado financiar marcha programa socio nokia universidad emory johnson johnson aetna millón persona padecer diabetes indio diabet mata lakh indio ano nivel alto azucar sangre periodo prolongado perjudicar organismo</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>grupo historicamente desfavorecido zelanda marie fergusson bodar pauta especial ayudar maestro apoyar estudiante maories importante destacar programa integrado horario maestros equipo ofrecer apoyo maestros administracion trabajar nino inmigrante psicologo calificado ayudar nino experimentado trauma dificultad vida scholtir et apoyo vario incluir consejo maestros trabajar caso individual estudiante inmigrante taller mejorar clima clase importante destacar mit interactuan padre estudiante inmigrante integrarlo comunidad escolar felderpuig maier teutsch servir puente lingistico estudiante padr escuela profesor administrador etc</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>abuso alcohol impacto importante patron mortalidad región septentrional general impacto especialmente significativo pueblo indigena nivel consumo alcohol atipicamente alto mujer ejemplo region berezovo distrito autonomo khantymansi muertes poblacion indigenar excluido lactant tercio asociado alcohol tasar muerte relacionado alcohol poblacion indigén muerte mujer relacionado alcohol alto pueblo indigena norteno ruso distrito autonomo chukchi alcohol causo muerte mujer indigena alcohol blanco causo muerte mujer indigena acabar perdida humano consumo alcohol provocar perdida economica directo indirectamente disminuir calidad vido tás mortalidad causas externo indigena norteno doble medio ruso</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>resultado  requisito admision vuelto estricto requisito especifico termino rendimiento educacion secundaria superior entrada proceso nivel calificación alto otorgar admision directo persona desear inscribir él examen incluir entrevista calificar determinar ingreso</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>calidad servicio salud mental incluir calidad servicio especializado calidad servicio atencion primario calidad servicio prestado sector ejemplo servicio viviendo empleo evitar elegir indicador evaluacion comparativo calidad reflejen fuente dato disponible lugar medida optima calidad atencion perpetuado dependencia indicador orientado hospitalizacion lugar reflejar cambio patrón prestacion atencion crucial acordado medida optima calidad exista compromiso trabajar recopilar dato creacion registros evaluacion periodico persona smi atencion primaria ayudar reducir cargo enfermedad fisico mejorar calidad atencion holt et</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>problema salud mental leve moderado constituir caso problema aumento decada autoridad sueco reconocer enfermedad mental asunto nacional primordial suecia pais precursor desinstitucionalizacion puesto marcha programa oficial prevencion suicidio</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sugirio proyecto ocde liderazgo escolar perspectiva desarrollo profesional escalos salarial lider escolar estir separado escala salarial docente reflejen estructura liderazgo factor nivel escolar ayudar atraer lider alto rendimiento escuela pont et resultado evaluacion informar avance profesional ayudar evaluacion rendicion cuenta efectivo significativo importante investigacion efecto tal sistema vincular evaluacion avance profesional escaso requerir indicador confiable aspecto criterio valoracion claro capacitacion evaluador debido consideracion contexto desempenar lider escolar depender contexto pai referir concepto director escuela australia canado unidos director reino unido irlanda</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>medir beneficio aportado tecnologia tratario analisis costeeficaciar repercusión avanz tecnologiar medico australia principal conclusion envejecimiento poblacion cambio climatico plantear importante riesgo plazo economio sostenibilidad finanza publica sector sanitario</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>implementacion ley evaluacion estudiantes capitulo colegio examen supervisaro calidad prueba primario administrada escuela responsabilidad escuela junto escolar incluir evaluacion formativo sumativo regular estudiante evaluación desempeno maestros individual atencion calidad interno escuelar actor tradicional ministerio inspeccion escuelas serie organización intermedio influencia evaluacion evaluacion pais consejos educacion primaria secundario jugar papel clave recopilacion difusion dato desempeno escuela individual fortalecer rendicion cuenta horizontal vertical</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>conocimiento profesional estandar posgrado australiano areas pedagogica basica iniciativa politico implicar mejorar formacion docente inicial desarrollo profesional desarrollar estandar docente marco competencia vincularlo evaluacion docente introducir etapa carrero docente etc ocde ij estudio caracteristica calidad formacion docente sistema alto rendimiento darlinghammond wei and andreir p hammerness and klette j darlinghammond darlinghammond et teaching standards have examinar comparado toledo revai and guerriero kleinhenz and ingvarson evidenciar impacto formacion docente extender numero creciente contexto localizado chung and kim h tummons i page ij kriewaldt i ceuleman simons struyf ij</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>nivel lectura matematica nivel minimo competencia necesario alumno participar plenamente sociedad conocimiento vease seccion definición estonia finlandio japon alumno alcanzar nivel superior lectura matematica alumno brasil colombia costa rico pisar mostrar sistematicamente alto rendimiento equidad mutuamente excluyente figurar mejorar rendimiento estudiant independientemente origen necesario país convertir país alto rendimiento alcanzar meta ods</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>contribuir estudio desigualdad educativo evaluar forma conceptualizo medir desigualdad educativo influir clasificación país tal opción implicación conclusión politico extraer comparación internacional valor incorporado consenso global formar objetivo desarrollo sostenible explicito naciones unidas objetivo banco mundial narrativa reciente fondo monetario internacional fmi fmi clements et valor fundamental objetivo movimiento protestar reciente occupy wall street indignado</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>prioridad actual promocion prevencion salud salud medioambiental impacto migracion impuesto tabaco alcohol utilizar financiar instituto nacional luchar alcoholismo drogodependenciar conapam vear estrategia nacional enfermedad transmisibl obesidad definir objetivo reduccion prevalencia tabaquismo reduccion ingesta sal reduccion nivel obesidad infantil</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>corea pais asia oriental alto rendimiento pís bás proceso seleccion candidato docente capacitacion docente previo servicio proceso evaluacion nacional servir garantizar mejor brillante unar fila docente ocde webb et calidad docente similar evidencia disponible sugerir autonomio impacto positivo otorgar cambio rendicion cuenta</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>finlandio centro puesto salud empezado utilizar modelo enfermero especializado depresion encuesta realizado centro salud finlandés indico centro salud teniar enfermera especializado depresion psiquiatrio centro habiar adoptado practica uniforme cribado depresion partanar et enfermera salud mental desempenar papel importante prestacion servicio atencion primaria salud mental país australia introducido incentivo economico apoyar desarrollar funcion happell et</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>existiar tipo apoyo fragmentado colaboracion institución ensenanza superior region modelo fondo innovacion ensenanza superior heif reino unido servir fuente inspiracion vear capitulo estrategia hacer hincapie desarrollo endogeno industria tradicional dedico id serviria region</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>instruccion centrar estrictamente conocimiento habilidad formato pregunta especifico resultado prueba convertir medida enganós rendimiento estudiantes hout elliott problema exacerba maestros percibir prueba juego resultadir sistema incentivo causar inadvertidamente prueba actualizar frecuencia ejemplo suecio prueba estandarizado year ano consecutivo maestros dar él ensenar prueba ano generar inflacion calificación reducir validez resultado nusche proxima publicacion dinamarco ensenanza examen tomar forma enfocar areas contenido evaluada enfoque reducido habilidad creativo innovadora oral wandall citado shewbridge et</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>europe central asia knowledge brief vol ejemplo posibilidad mejorar dieta reducir riesgo enfermedad cardiovascular cancer contexto experiencia finlandés carelia norte indicar considerable beneficio potencial obtener él modificar dieta factor riesgo respecto abuso sustancia impuesto tabaco alcohol ido aumento dato internacional disponible seguir norma europeo figura prueba bajo precio producto fomentar consumo tabaco bebido espirituosa treismir limitar influencia grupo presion productor contribuirio aumentar coherencia politica reducir consumo sustancia plazo muerte trafico reducir él medida sencillo reducir velocidad vehiculo radar aumento multa infracción trafico simple badén politica rentable</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>legislacion sistema seguro medico obligatorio reforzar papel sistema seguro contribuir reciente descenso mortalidad alargamiento vida medio tiempo transcurrido introduccion programa probablemente juzgar resultado encuesta realizado centro levado mostrar proporcion poblacion indicar calidad atencion sanitaria mejorado ano paso tablar</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>buscar perfilar politica clave calidad atencion comparar medida emplear politica monitorear mejorar calidad sistema salud turco describir estructura gobernanza calidad papel ministerio salud organización afiliada capitulo destacar turquia continuar paso gobernanza descentralizado trabajar alinear gobernanza hospital publico sistema salud publicar abordar calidad insumos sistema salud capitulo recomendar turquia continue impresionante trabajo iniciado estandar calidad acreditacion trabajar construir sistema garantiar calidad seguridad paciente capitulo concluir recomendacion turquia desarrolle politico coherente fortalecer infraestructura informacion turco facilitar indicador calidad</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>subrepresentacion mujer puesto alto responsabilidad relacionar importante tasa abandono fuerza laboral femenino edad temprano puesto accesibl experiencia laboral considerable dificultad acceder alto cargo factor adicional disuado mujer ingresar permanecer mercado laboral tasa desempleo mujer joven oscilar marrueco libiar cifrar considerablemente alto comparacion medio país ocde grafico</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>plantear cuestion acceso proporcional necesidad dato diagnostico alto basado codigo icd diagnostico quirurgico basado codigo icd sugerir mayorio hospital continuan enfocado brindar servicio basico complejidad limitado proporcion significativo probablemente brindar instalación nivel inferior país ocde servicio obstetrico dominar medida panoramar actividad hospitalario kazajstar mayorio servicio deberiar basado hospital prominencia sugerir actividad hospital kazajo complejo diverso</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>importar version generico medicamento patente vencido licencia voluntario importar fabricante gobierno emitido licencia obligatorio caso produccion predominantemente abastecimiento mercado interno restriccion facto exportación</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>encuestado enumerar ocasionalmente interés comercial impulsor medicina estratificado finlandio israel parecio preocupacion importante encuestado chino anticipo beneficio forma movimiento introduccion elemento economio mercado atencion medicar encuestado poder citar ejemplo ocasional estratificacion exitoso intervención medica cancer hematologico finlandia cancer pulmon luxemburgo ejemplo ejemplo predominantemente local geograficamente termi yo limitado especifico condición opinion general encuestado buscar mejora significativo cuidado salud atribuible medicina estratificado</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>discriminacion genero impedir nina mujer joven especialmente población dominada youdi nina mujer joven enfrentar mayor brecha matriculacion escuela secundario puerta entrada fundamental participacion sociedad economiar enfrentar discriminacion general inhibir compromiso contribución familia comunidad sociedad general ilustrar comparar porcentaje joven población país clasificación país indecir discriminacion genero programa naciones unidas desarrollo especialmente danino salud allán camino oportunidad economica largo vida bienestar general mayorio país numero complicar desafio escapar violencia encontrar trabajo digno acceder educacion decente servicio salud amigabl joven incluido servicio salud reproductivo planificacion familiar estrategia prometedor estimular desarrollo nacional mejorar perspectiva joven encontrar inversión energica oportuna educacion salud incluido salud sexual reproductiva condicion mujer</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>cerdo bufalo vaca animal granjar común hogar agricola hogar encabezado mujer encabezado hombre criar ganado vacuno hogar encabezado mujer encabezado hombre criar cerdo hogar encabezado mujer manteniar proporcion bufalo cabra caso camboya precio medio ganado ave corral vendido alto hogar encabezado hombre encabezado mujer alto pavo pato resultadir diferencia tipo mercado comprador acceso hogar encabezado mujer hombr faosidar b</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>hospital privado recibir tarifa plano institucion seguridad social paciente atender libre cobrar costo adicional paciente tope fijado precio hospital publico ver empanado proveedor incentivo ofrecer gama completo atencion secundario particularmente paquete atencion complejo paciente necesidad conjunto actual codigo reembolso reflejar gravedad caso incentivo hospital publico contener costo gasto excesivo actividad presupuestado caso compensar fondo excedente hospital publico precio pagado institucion seguridad social controlado mostrar evidencia inflacion</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>dar evidencia estudiantes costa rico comenzar escuela escaso competencia basica especialmente lectura pais considerar adelantar evaluacion primario curso anadir evaluacion adicional ano primario comprender alumno empezar quedar él permitirio desarrollar ayuda eficaz profesor escuela reconocer importancia consolidar habilidad basica grado aprendizaje posterior país ocde introducido evaluacion nacional ejemplo francia italia tercer ejemplo alemania suecia cuarto grado ejemplo chile corea escuela primaria ocde mejora esencial grado costa rico informacion equidad resultado</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>informe pís bienestar estudiantes ocde estudiantes informar esperar completar educacion terciaria promedio país ocde estudiante cuartil inferior indecir escs pís informar esperar completar universidad comparacion estudiantes indecir escs superior promedio país ocde alemania país bajo eslovenia estudiant informar esperar obtener titulo universitario</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>evidenciar presentado capitulo more él escuela ubicado ciudad pequena encontrar periferia areas metropolitano parecer concentrar peor desempeno estudiante requerir atencion aumento calidad ensenanza aprendizaje beneficiar nino educacion basica afectar directamente resto trayectoria escolar existencia programa beca destinado incentivar asistencia mejorar transicion educacion basica educacion medio superior morelo batalla costar relacion recurso educativo escuela puntuación matematica pisa significativo evidenciar mostrar promedio país ocde estudiantes rendimiento generalmente asistir escuela mejor recurso educativo ocde ocde recurso educativo tender referir él equipo laboratorio ciencia material didacticoscomputadora maestro calificado areas clave infraestructura fisico tender referir él edificio escolar sistema calefaccion refrigeracion espacio educativo</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>llevar él cabo reforma aumentar flexibilidad oferta escuela financiada gobierno disfrutar libertad atraer establecer salario nivelar campo juego tipo escuela medir progreso informar responsable formulacion politica escuela padr resultado educativo desarrollar medida rendimiento adicional tomar medida reducir dependencia calificación gestion rendimiento</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>destacar exploro relación rol jerarquico desigual hombre mujer valor desigual trabajo mujer acceso desigual mujer tomar decisión propiedad recurso incorporacion integracion genero ayudar evaluar impacto ley politica programa grupo hombre mujeres explicar recuadro continuacion estrategia preocupación experiencia mujer hombr dimension integral diseno implementacion monitoreo evaluacion politica programa esfera politica economica social mujer hombr beneficien perpetue desigualdad objetivo lograr igualdad hombre mujer</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>cantidad material encuesta probar campo talis implemento diseno cuestionario rotativo requerio tamano mostrar pais docente director escuela muestreada nivel basico cine opcion internacional participante debio prueba campo incluido administracion versión idioma acordado procedimiento estandarizado implementar estandar tecnico correspondiente medida control calidad basado implementada talis garantizar implementacion estudio produzca dato comparable dato</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>distribucion desigual responsabilidad familiar domestica significar servicio publico salud cuidado nino agua saneamiento recortar volver asequible general mujer nina llenar vacio resultante dedicar tiempo cuidado remunerado trabajo domestico trabajo capitulo finalmente mujer probabilidad emplear sector publico ver particularmente afectado recorte personal salario sector reino unido womens budget group denunciado repetidamente naturaleza regresivo consolidacion fiscal basa recorte gasto lugar aumento impuesto cuantifico costo recorte presupuestario mujer nina desfavorecido pai</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>dinamarca prevar coherencia formacion educacion inicial docente personal eapi enfoque comun garantizar coherencia mejor oportunidad cooperacion eapi escuela vear capitulo equipo trabajar garantizar cooperacion senala informe inspeccion escolar sueco inspeccion escolar sueco celo profesional faltar comprension descrito anteriormente obstruir cooperacion equipo trabajar</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vendedor calificar yo comprador confiable docente juicioso selectivos tecnologia aula adoptar tecnologia mejorar compartir practica profesional visite shanghai ver maestros usar plataforma digital compartir plan lección inusual lugar plataforma combino metrica reputacion lección descargar criticar mejorar profesor serio reputacion profesor compartido</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>probable padre abusar droga vivar hogar familiar amigo extrano consumir droga exponer nino posible dano emocional fisico nino retirar tal entorno probabilidad participar delito consumo droga delincuenciir indebido droga motivo especial preocupacion ninos calle mundo</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ue comprendiar siguiente país austria belgico dinamarca finlandia francia alemania grecia irlanda italia luxemburgo país bajo portugal espana suecia reino unido fuente oecd health data rosstat tomado individualmente categoria ent lesión constituir principal causa muerte federacion ruso representar muerte poblacion ruso conjunto rosstat tasa mortalidad estandarizado smr sigla ingl enfermedad cerebrovascular cardiopatia isquemica doble promedio ocde mayor país ocde desempeno figurar</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>persona sufrir burnout lograr superar evento estresant cotidiano experimentar fatiga emocional dificil estimar prevalencia agotamiento poblacion ejemplo dificil distinguir él depresion trastorno deficit atencion hiperactividad ocurrir nino edad escolar nino padecer nina</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>concepto importante utilizar ampliamente organo creado virtud tratado ejemplo ver hincapie importancia igualdad remuneracion trabajo valor mujer hombr rara explicito remuneracion mujer aumentar hombre ultima decada fuerte oposicion tal restricción considerar violar principio igualdad llevado respuesta contradictoria cometer cedaw alentado austria garantizar incluir medida nivelacion legislacion discriminacion comite cedaw austria op</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>tiempo prehistorico residente artico desarrollado habilidad conocimiento permitir sobrevivir prosperar condición adverso observado norteno conocimiento asunto importante sustento poseer conocimiento unico diversificado garantizar bienestar megatrends tiempo capacidad sociedad artica beneficiar él conocimiento codificado estandarizado educacion formal limitado</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>producir salto inscripciones grupo edad ano instituciones educacion superior tabla noveno plan malasia esperar millón estudiante cohorte edad relevante educacion terciaria inscriba educacion terciaria estudie institución privado numero ano ministerio salud disponible dato electronico aumento</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>disponibilidad resultado evaluación nacional dinamarco acceso resultado consecuenciar estudiante padre maestros resultado evaluacion seguir adquisicion conocimiento habilidades estudiante individual municipalidad escuela resultado comparar él promedio nacional ayudar tomar decisión resultado utilizar base evaluacion comparativo sistematico intercambio mejor practica escuela municipio clasificar municipio escuela houlberg et evaluación nacional concebido i proporcionar herramienta pedagogico maestros areas comprobabl objetivo común ii proporcionar herramienta monitorear progreso nacional tiempo traves perfil desempeno nacional mostrar resultado promedio prueba nacional permitir municipio monitoreir escuela perfil nacional</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>abandono escolar reducir punto porcentual escuela formar programa tasa abandono programa bajo medio nacional graduado escuela brac pasar sistema formal nath desventaja reflejar escaso impacto supresion tasa escolar matriculacion estimacion nino keniata discapacitado asistia escuelo supresion tasas mulamar</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>capitulo sugerir serie recomendación politico mejorar gobernanza recurso escolar dicho dato ocde perjuicio alto golar jerusalir asentamiento israelies cisjordania termino derecho internacional nivel central gobernar distancia establecer condición lineamiento central municipio escuela ejercer autonomia</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ningun pais region identificado mujer empresaria grupo objetivo especifico factor explicativo politica pyme centrar inicialmente sector industrial mujer medida ausente ultimo decado politica pyme aplicado general sector actividad economico</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>unidad genero desempenar papel importante capacitacion sensibilizacion genero capacitacion evitar sesgo genero recopilacion dato trav contacto mecanismo nacional mujer organización gubernamental unidad genero punto focal genero facilitar comunicacion productor usuario final estadistica genero naciones unidas unidad brindar informacion usuario ayudar él comprender uso estadistica existente desarrollo material metodologico estadistica genero historia corto</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>censo abarco unicamente docente trabajar institución publica mantenido administracion nacional educacion publicar anep dato educacion inicial preprimario incluir docente escuela administrado ministerio educacion cultura mec instituto ninez adolescencia uruguay inau dato programa tecnicoprofesional incluir docente programa nivel terciario proporcion menor programa supervisado cetp educacion primaria publicar tamano promedio clás disminuido ultimo decado estudiante</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>desempeno estudiante comenzo caer decado probable amplio reforma emprendido decado contribuir declivir holmlund et decentralization from box delego responsabilidad escuela primario secundario gobierno central municipio mala organizacion falto experiencia responsabilidad claro seguir problema importante nivel municipal decada reforma snae asignacion suboptimo recurso significar escuela debil recibir suficiente apoyo</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>contrario mujer sector informal experimentar penalizacion salarial maternidad estadisticamente significativo especificación encontrar penalizacion salarial madre hijo aumentar penalizacion estimado hijo hijo hijo estimaciones coeficiente penalizacion salarial maternidad informar cuadro parecer relativamente estable tiempo mostrar penalizacion alto periodo shock frente hijo frente hijo versus hijo coeficient estimado asociado maternidad hijo significativo regresión sector formal resultado ols trabajadora sector formal experimentar penalización salarial maternidad estadisticamente significativo periodo tiempo completo dato especificación maternidad numero hijo edad mostrar sanción salarial significativo madre trabajar sector formal</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mujer representar ingresant programa informatico nivel terciario país ocde ingresant ingenierio nina desear profesional tic nino desear consejo ocde adopto recomendacion genero ocde país tomado medida reforzado existente aumentar participacion grupo subrepresentado incluir mujer nina estudio ocupaciones stem</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>país adaptado pregunta contexto local incluir circunstancia gastar dinero desobedecer infiel insultar descuido tarea hogar faltar respetar suegro necesidad proteger él vihsido encuesta multipai oms salud mujer violencia domestico midio actitud mujer violencia domestico preguntandol situación creer hombre razon golpear esposa incluido situación completo tarea hogar desobedecer marido negar relación sexual conjunto pregunta abordo situación mujer creer mujer derecho negar él relación sexual esposo incluido situación borracho enferma maltratar garciamoreno</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mayorio país politica monetario enfocar exclusivamente cumplir meta inflacion bajo lograr elevar tasa inter evitar precio aumentar rapidamente tasa inter alto ralentizar actividad economico encarecer accesible credito reducir compra consumidor elevar costo financiar inversión productivo factor reducir demanda mano obra investigación reciente demostrado empleo mujer disminuido rapido hombre variedad país desarrollo incluido brasil colombia costa rico filipino republico corea experimentar reducción inflacion asociado politica monetario restrictivo país mantener entorno monetario restrictivo tal desigualdad genero evidente</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>equipo revision ocde quedo impresionado compromiso profesional docente escuela visito parte interesado informar suficiente recurso garantizar docente recibir apoyo capacitacion necesario contexto cambiar rapidamente escuela grupo creciente cambiant estudiante origen inmigrante preparado abordar necesidad poblacion diverso suponer contratacion estudiantes magisterio origen inmigrante cualificacion formal profesor cualificacion profesor extranjero brindar oportunidad trav plar beca obtener cualificacion formal noruego</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>nuevamente debate abierto caber mencionar implicación propuesta instituir salario familiar extremo exigir implementacion salario amar casa debate amplio controvertido continuo recientemente consecuencio impulso ir cobrar tema debate politica publica país incorporado componente reforma seguridad social buscar necesariamente remunerar trabajo cuidado remunerado compensar mujer ingreso perder tiempo ciclo vido asumir responsabilidad</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>estudio eppe concluyo padre importante desarrollo nino terminos estatus socioeconomico nivel educacion antecedente racial lingistico desarrollo nino progresado ano inicial eapi eficaz ayudar nino retomar rumbo desarrollo especialmente areas clave lenguaje eapi ayudar nino desarrollar habilidad clave autorregulacion empatiar confianza dema habilidad prosocial habilidad motora grueso fina aritmetico temprano ocde proxima publicacion</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ejemplo polonia mando intermedio mujer proporcion mujer puesto alto direccion servicio publico superar canado representacion mujer nivel gerencial intermedio ex ex aumentar gradualmente mujer constituir nivel ex nivel ex treasury board of secretario canado australia parlamentario federal estatal hombre cambiado ultimos ano situacion servicio publico mejorar aumentado proporcion mujer puesto direccion medio alto oficina estadistico australia enero</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>medico seleccionado tratante medico recibir pago anual adicional paciente diagnosticado ald pago cubre coordinacion asistencial necesario implementar protocolo asistencial especifico protocolo atencion paciente enumero servicio medico paramedico necesario tratamiento integral identificar automaticamente servicio paciente exento copago caso funcion coordinacion cumplir medico cabecerar</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>general mujer dedicar hora trabajo remunerado remunerado hombre doble carga dejar tiempo cuidado personal incluido sueno ocio paises ocde mujeres minuto tiempo libre hombre país excepcion bangladesh medido aumentar pib disminuir tiempo mujer hombr dedicar trabajo cuidado remunerado</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>diferencia definición fuente metodo desdibujar comparación internacional faltar dato indicador tercio país ocde ilustracion dato tasa supervivencio cancer seleccionado disponible ano caso país</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>foco diversidad presente permitir docente reflexionar examinar criticamente campo tension dimension intercultural profesion docente fuerte enfasis democraciar valor creacion norma tema ensenar él aula heterogenea universidad sodertorn nd issi investigacion encontrado falta multilingismo formacion docente carlson informe nacional senalado importancia conocimiento lingistico docente integral ensenanza contenido basico skolinspektionir ooi skolverket oi formacion profesorado sueco futuro profesor estudiar contenido materia teoria correspondiente amn och amnesdidaktiska studier requisito basico educativo</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>mujer representar millón persona commonwealth formar numero votante eleccion representado proceso politico gobierno legado politico creado cultura aferrar él oportunidad preparar lider nepotismo abundar transferencia visto devolucion familiar formar monarquia politico resultado mujer seguir desafiar factor limitant obstaculizar persistentemente participacion país commonwealth incorporado mujer tomar decisión reconocer abrumador contribucion lucha liberacion guerra civil politica protestar mozambique namibio ruando sierra leonar sudafrico dejar excelencia academico criterio garantiar participar gobernanza</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>consciente persona sufrir significar suficiente alimentar yo vivir vido proposito cultura cambiado mujer trabajar cuidar necesitar depender marido anticonceptivo disponible practicamente tienda esquín</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>dato recopilado organizacion mundial salud oms anualmente mostrar crecimiento solido lineal periodo crecimiento numero institución conectado crecido impresionante ciento line base original institución conectado final seguimiento adopcion estrategia esalud proponer fuente dato estrategiar esalud indicador opinion gobierno importancia esalud papel desempenar fortalecimiento sector salud incluido creacion conectividad observatorio mundial esalud oms informar numero país estrategia esalud mostrar aumento constante país indicar teniar estrategia esalud numero aumento</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>gobierno apoyo patrocinar cuota estudiant realizar taller capacitacion concientizacion pais informar educador comunidad importancia educacion inclusivo fin ano aprendiz graduar facultad educacion especializacion educacion especial mayoria arregla lograr satisfacer diverso necesidad nino comunidad</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>indice construido comparable internacionalmente informe tecnico pís ocde estudiante ventaja socioeconomica encontrar estudiante escs alto pais economia estudiante desventaja socioeconomica encontrar estudiante escs escuela definir aventajada desfavorecido socioeconomicamente escs promedio estudiantes escuelar estadisticamente significativamente superior inferior escuela promedio patrón reflejar ventaja inherente recurso proporcionar estatus socioeconomico relativamente alto</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>marco establecer enfoque nacional acordado integracion educacion financiero ano obligatorio escolaridad fundacion ano brindo orientacion estructurar tema apoyar progresión aprendizaje capacidad influir politica publica vinculo gobierno educacion esencial desarrollo marco original consulta clave informar enfoque nacional grupo trabajo mceetya desarrollo marco incluia equipo altamente especializado experto educacion jurisdicción sector educativo conociar panorama educativo nacional jurisdiccional teniar excelente red parte interesado formar relación productivo respetuoso</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>mo responsable desarrollo politica educativo plan estrategico aprobado gobierno coordín departamento educacion municipal implementacion politico educativo estatal coordina distribucion financiacion escolar presupuesto estatal asignacion fondo estructural ue ministerio responsable garantiar calidad acreditacion plan estudios educacion general examen final ministerio oficina nacional auditorio lituania desempenar papel clave realizar periodicamente auditoria financiero institución presupuestaria campo educacion revisar actividad mo trav auditoria desempeno planificado</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>politica desarrollo basar él principio promover difusion practica red profesional mujer agricultora comerciant region modificar arquitectura relación social objetivo incrementar capital social individuo resultante combinacion vinculo interno comunidad vinculo externo grupo social diverso punto vista geografico etnico religioso identitario visto walther incorporacion actor especialmente adecuado caso sector agricola arroz mujer subrepresentada</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>nivel habilidades general alfabetizacion funcional alcanzar tipicamente nivel educacion primario habilidad especifico adquirir educacion secundario conocimiento cientifico tecnico avanzado obtener trav educacion superior educacion formal unico fuente capital humano estudio reciente sugerir artico capital humano relacionado nivel formal escolaridad sur petrov petrov cavin</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>personal docente lituania formacion grado mostrar habilidad numerica bajo graduado educacion terciaria bajo nivel promedio docente país miembro ocde participar encuesto habilidades adulto figurar puntaj competitivo utilizado admisión educacion superior basar puntaj examén maturo mostrar puntaje minimo requerido ingresar programa formacion docente consistentemente requerido campo popular selectivo medicina tabla principal proveedor programa formacion docente universidad pedagogico pais recibido aprobacion institucional limitado organismo garantiar calidad educacion superior pais debate curso formar programa institución desempenar función inicial formacion docente</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>suponer existir brecha salarial mujer ganar salario bajo hipotesis entrado mujer fuerza laboral reducir salario promedio costo produccion implicar feminizacion contribuir crecimiento efecto positivo ver él acentuado existencia desigualdad genero permanecer ahorro permitir resultado combinacion efecto factor hallazgo discutido anteriormente indicar periodo estudio efecto supero caso brasil efecto negativo seleccion oferta laboral generado exclusion mercado trabajo persona participar caso mujer mantener practicamente invariable periodo tender aumentar</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>mujer divorciada abandonado marido duda enfrentar problema vido mujer estir dispuesto revelar marido abandonado impedir acudir organismo estatal buscar asistencia conducir perdido estatus comunidad incapacidad proporcionar documento oficial autoridad matrimonio religioso representar alto proporcion numero matrimonio oim</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>país economia hombre mujer poder responder correctamente pregunta indicar barra azul diferencia genero conocimiento financiero registrado encuesta indicar rombo gris generalmente favorecer hombre país disponer dato comparable tiempo albania polonia informar reduccion estadisticamente significativo diferencia genero conocimiento financiero dema país diferencia genero cambiado significativamente tablar anexo line pregunto calificariar conocimiento asuntos financieros comparacion adulto pai hombre propenso mujer reportar conocimiento superior promedio paiseseconomia comparar hombre mujer nivel similar conocimiento financiero basado prueba</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>demostrar suscripcion excesivo fondo trapezia reino unido oportunidad comercial margen financiador capital satisfagar necesidad mujer empresaria estudio caso viii probable tiempo transacción financiero demanda tiempo responsabilidad familiar cuidado institución dfcu group ugando reconocido desafio acceso posicionado sucursal amigabl mujer lugar cercano grupo mujer empresaria alinear horario operacion sucursal corresponder requisito grupo cliente numero significativo mujer utilizar banca internet ciento reino unido ciento malto ejemplo eurostat</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>plar estudio suficientemente flexible frente diferencia nivel local escuela individual nivel escolar estudio curso complementar él colaboracion institución regional local empresa asociación civica edificio disenar construir seguir principio sostenibilidad estandar eficiencia energetico</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>atencion primaria enfocar principalmente estructura fisico edificio disponibilidad equipo clinico medicamento emergencia numero limitado estandar relacionado actividad turquia embarcado ambicioso programa traducir extenso conjunto guia clinica escrito sociedad medico finlandés dificultad incorporar numero directriz particular cambiar practica trav directriz propiedad local participacion desarrollo</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>reciente crisis ebola africa occidental subrayar imperativo abordar colectivamente problema acceso innovacion vear recuadro tal razón objetivo desarrollo milenio odm incluyo enfocar mejorar acceso medicamento esencial asequible país desarrollo banco mundial ejemplo estimo perdido ciento producto interno bruto país afectado b crisis ebola subrayado necesidad urgente intensificar accion internacional nacional mejorar acceso atencion medica medicina</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ejemplo mitad nino edad asistir escuela primario sudar sur asistiar escuela tercio nina asistiar escuela observan nivel igualmente bajo matriculacion escuela primario país republico democratico congo liberio coeficiente gini medida distribucion ingreso pais medida utilizado desigualdad ingreso grafico sugerir país estructura edad joven generalmente desigual termino ingreso</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>defensor teorio desencanto empleo argumentar mujer infeliz avance profesional bloqueado teorico movilidad bloqueado ilustrar factor techo cristal still wirth puerta cristal suelo pegajoso still investigador emprendimiento etnico agregar techo acento collins et techo cristal referir barrera avance profesional mujer piso pegajoso referir ausencio movimiento profesional allo trabajo entrada inicial techo acento referir discriminacion racial bloqueo mujer inmigrante mercado laboralir lugar vida empresarial atraer joven soltera</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>arrojar luz detall imagen ayudar diseno focalizacion politica abordar dano asociados consumo alcohol resultado analisis consumo alcohol país ocde presentar sección anterior documento analisis realizar base dato consumo alcohol nivel individual oleada encuesta nacional salud estilo vido incluir identificacion tendencia tiempo consumo general alcohol medida consumo alcohol peligroso episodico intenso regresion analisis basado disparidad social patrón consumo alcohol calculo indiz concentracion país individual</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>pme contener iniciativa apoyo tecnico pedagogico responder especificamente necesidad prioritario estudiant implementar estrategia pedagogica estudiante rendimiento academico capitulo rol sep sistema financiamiento capitulo programa mejoramiento escolar plan escuela complemento sep condicionado participacion sep proveedor escolar recibir subvencion concentracion alumno prioritario subvencion proporcionar cantidad adicional estudiante depender proporcion estudiante desfavorecido escuela proveedor escolar escuela matricular estudiantes extremo pobreza beneficiar él subvencion retencion subuencion educacional proretencion beca otorgar estudiante desfavorecido perteneciente familia participar programa chile solidario sistema proteccion social chile disenado atender necesidad familia persona areas geografica vulnerable capitulo mineduc acir docente condición trabajo dificil recibir subsidio condiciones trabajar dificil asignacion desempeno condición dificil</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>sierra leonar ejemplo proyecto comenzar evaluacion actitud relacionado estereotipo genero torno saneamiento informacion recabado organizar jornada sensibilizacion abordar actitud frente trabajo considerado mujer nina limpiar letrina lavar ropa plato barrer buscar agua asear vestir nino provision servicio social adecuado asequiblesen particular salud aguo saneamiento atención esencial reducir demanda mujer trabajo domestico cuidado remunerado aumentar probabilidad obtener acceso educacion ingreso bolsillo crecimiento institucionalizacion programa transferencia monetario escala pensión contributiva especialmente país ingreso medio avance alentador mujer</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>sugerir necesidad institución nivel local global incluir cuestión relacionado igualdad genero representacion interés mujer accion presion movimiento social fundamental desafiar reelaborar cultura practica sesgo estereotipo discriminatorio evidente institución organización politica país región trabajador productor consumidor economia informal organizar colectivamente impugnar modelo desarrollo dominante defender demostrar alternativa incluir via campesino decado convertido movimiento red mundial defender derecho pequeno agricultor frente presión agriculturo corporativo escala</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>retraimiento forma encubierta resistencia respuesta natural lección podiar seguir teniar control comportamiento poner estudiante riesgo reprobar examen consecuenciar abandonar etiquetar reprobado forma duradero estudiante hogar pobre teniar mecanismo apoyo ir diferenciar estudiante clase medio podiar sentado aprobariar ssc forma</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>marco tiempo superarar obstaculo aprovechar mayorio organismo superior incluido mamifero humano mosquito microbioma significativo bacteria simbiotica intestino pumpuni et idea disenar bacteria simbiotica producir interferencia producto molecula efectora detener desarrollo parasito</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>disenado escociar registro nacional calidad auditoria clinica surgido proceso abajo dirigido clinico escocia dirigido medico pionero escocia participar programa auditoria clinica nacional reino unido dirigido programa mejor calidad atencion medico hqip escocia realizar medida informes progreso logro resultado marco nacional desempeno</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sistema nivelacion ambicion nivelar completamente situacion economico municipio condicionado nivel socioeconomico reducir diferencia importante evidenciar indicar tarea mejorar rendimiento estudiantes falch ronning tarea efecto distributivo estudiante nivel socioeconomico alto soler recibir ayuda tarea estudiant nivel socioeconomico particularmente dificil padre inmigrante apoyar hijo tareo</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>sistema educativo serie caracteristica promover equidad incluido alto proporcion estudiante matriculado educacion infancia bajo repeticion grado escolarizacion integral ano tasas graduacion secundaria superior alto tasa matriculacion educacion formacion profesional fp abandono fp alto educacion terciaria accesible trav politica plar subvención prestamo financiado fondo publico encuesta habilidadser adulto ocde adulto dinamarca demostrar habilidad alfabetizacion promedio habilidades aritmetico promedio comparacion promedio país participant adulto joven obtener puntaj promedio</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>region estudio mostrar deficiencia coberturo pensión jubilación impactar mujer percibir promedio hombre marco cepal ultimos ano tiempo convertido objeto estudio medido bienestar analizado problema pobrecer perspectiva convencional puesto manifiesto circulo vicioso pobrezar tiempo dedicado trabajo remunerado vacatrigo cepal lograr desarrollo sostenible importante considerar dimension diseno politica publica mostrar grafico iv mujer pobre recibir transferencia país dedicar hora semana trabajo domestico cuidado remunerado</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>necesario identificar medio rentable rastrear mantener publicamente viva duradero promocion compromiso civico defensa investigacion politica vanguardia llevar él cabo constante movilizacion civicar torno deberio empoderar joven aspirante</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>proceso evaluacion avance profesional rol descrito anteriormente serio forma justo equitativo brindar maestro incentivo desarrollar competencia area asociado ensenanza efectivo docente rumania informar equipo revision ocde actualmente necesitar bonificacion salarial grado merito complementar bajo salario formulador politica deberiar considerar instituir aumento general salario docente particularmente docente mejor candidato sentar atraido profesion trabajo revisar evaluar proceso evaluacion involucrar parte interesado incluido sindicato docente docente cambio comunicar él claramente sector educativo aumentar probabilidad proceso aceptado valido confiable</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>proporcion general persona reportar malo salud menor país nordico gradiente nivel educativo pronunciado figura mujer reportar salud nivel educacion persona nivel educacion bajo formacion formacion corta probabilidad enfermedad plazo encuestado formacion comparacion encuestado ano educacion molesto dolor incomodidad educacion formacion corta comparacion encuestado ano educacion persona ano educacion</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>hora trabajada profesor ratio alumnoprofesor sector municipal privado concertado privado concertado administracion delegado respectivamente curiosamente sector municipal ratio alumnoprofesor aumento disminuyo significativamente sector privado subvencionado ano ministerio educacion proxima publicacion centro formacion profesorado dedicado principalmente formacion maestros primario dejar existir</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>gobierno escoz isd scotland health boards implementar proceso producir informacion adicional gestion listas esperar ejemplo identificar paciente registrar disponible motivo eleccion paciente ayudado agregar transparencia proceso programa desarrollado serie indicador atencion primaria identificar problema relacionado variacion evitable desperdicio sistema salud indicador incluir derivación ingreso hospitalario prescripcion experiencia paciente</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>reviso normativa acreditacion programa incluir criterio pertinencia academico disciplinar kantardjiev haakstad seccion normativo exigir instituciones educacion superior descrir pertinencia programa vida laboral continuacion estudio descripcion competencia desarrollado programa dicho competencia ajustar mercado laboral nord university evaluacion pertinencio programa mercado laboral soler realizar él dialogo empleador duda solidez validez proceso consulta kantardjiev haakstad programa profesionalmente actualizado claramente pertinente estudio posterior vida laboral ministerio educacion investigacion noruega b</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>formacion apoyo asistente juridico forma eficaz llegar hombre mujer vulnerable especialmente zona rural medida incluir apoyo tribunal itinerant prestacion asistencia juridico apoyo osc brindar asistencia orientacion juridicar politica revisar él garantizar apropiado discriminatorio especialmente areas prision preventivo sentencia sanción privativa libertad ejemplo responsabilidad familiar tener él mujer hombre necesario apoyar politica reducir nivel inapropiado seguridad mujer detenido clasificación seguridad estricto necesario pequeno numero prisión mujer</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>efecto agregado busquedar objetivo secundario politico sistema contratacion publicar evaluar él periodicamente abordar sobrecargo objetivo siguiente ejemplo proporcionar lista exhaustivo medida empleado país enfocar encargar proveedor demuestrir cumplimiento ley requisito relacionado igualdad genero</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>esfuerzo posible incluir cuestión clave genero informe resumir considerar probable informe servir base acción seguimiento analisis especifico genero fundamental apoyar esfuerzo iniciativo adaptado destinado promover acceso victima justicia recurso efectivo incluirio establecimiento unidad proteccion especial oficina genero comisaria etc vear guia noleof ttasecteiarygeneral reparations conflictrelated sexual violence junio</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>estudiante asistiar escuela operativo astán aktobe atyrau karaganda kokshetau kyzylorda pavlodar semey shymkent taraz ustkamenogorsk uralsk nei atender estudiante zona rural regimar internado proceso seleccion incluir prueba matematica idiomas kazajo ruso ingl capacidad estudiar matematica ciencia razonamiento cuantitativo pensamiento espacial</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>medio nino ano matriculado programa desarrollo educativo infancia educacion preescolar país ue comparacion medio ocde matriculo ninos ano educacion preescolar aumento matricular nino ano aumento promedio país dato ano belgico dinamarca francia alemania italia luxemburgo país bajo espana reino unido nino ano matriculado educacion infantil</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>brasil gobierno federal establecer norma general escuela responsabilidad directo excepción escuela primario secundaria principalmente local municipio regional nivel alto grado autonomia determinacion plan estudios grupo objetivo brindar asesoria tecnico necesario forma programa metodologia educativo oficial facilitar inclusion concepto financiero curriculo normal escuela primario secundaria</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>epidemia sarampion poliomielitis limitado respuesta sistema salud empeorar situacion indicador salud mejorar decado mortalidad infantil disminuyo nacido vivo tasar mortalidad menor ano reducir nacido vivo sanción internacional impuesto decado consiguiente retroceso desarrollo economico afecto sistema salud resultado sanitario esperanza vida nacer esperanza vida ajustado salud mejorar joven</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>salud ndoh presentar plan negocio incluido oferta tesoro nacional departamento salud provincial presentar plan negocio correspondiente tesoreria provincial lugar negociación inicial salud llevar cabo reunión bilateral tesorerio nacional alto funcionario salud reunión equivalente tesorerio provincial departamento salud provincial discutir programa adecuadamente financiado</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>sector privado generalmente apoyar prestacion servicio recaudacion fondo país sector privado primero etapa desarrollo expandido considerablemente cerconir revertir tendencia implementar mecanismo necesario contener crecient costo sistema principal desafio enfrentar país caribir termino equidad acceso servicio salud</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>norte circumpolar pueblo indigena teniar experiencia común sistema educativo basado forma occidental ensenanza aprendizaje conocimiento operar intencion asimilacion nortar lugar zelanda hawai pueblo indigena trabajar crear sistema educativo controlado indigena basado forma occidental escolarizacion imponer siglo basado educacion indigenar epistemologia cosmovisión región circumpolar esfuerzo ocurrir sistema educativo occidental dominante sistema occidental reemplazar completo</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>vision establecer expectativa actitud comportamientir hombre mujer plan estrategico estructurar plan nacional igualdad genero guiar puesto marchar reforma institucional necesario cumplir objetivo nacional alinear él estandar internacional igualdad genero junto vision inspiradoro plan estrategico cuidadosamente elaborado trazar curso reforma facilitar enfoque comunicacion efectivo involucre amplio gama parte interesado ejemplo organización mujer tomador decisión clave nivel gobierno organización fines lucro actor ciudadano ciudadano socio desigualdad genero</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>unido oferta cannabis extenso produccion ilegal pais contrabar escala mexico produccion escala desvio unido permitir produccion cannabi fin medico fin medicinal programa autoridad quejado efecto indirecto creado territorio desvio fin trafico cannabi vecino legalizado drogar fin medico autoridad unido informado aumento numero visita servicio urgencia relacionado cannabis</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ejemplo nepal pnud apoyo caucus mujer partido construyo exito agenda comun torno derechos mujer asamblear constituyente exito duradero asamblea constituyente elegido abolio caucus ojo mujer involucrado caucu debio habiar construido bar solido solidaridad voz fuerte trav line partidista amenazar liderazgo statu quo union sovietico participacion mujer mercado laboral politico participacion hombre</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>encuestado problema principalmente desarrollo economico desigual centro urbano rural valer pena senalar encuestado chino ver beneficio colaboracion torno control enfermedad infeccioso ambos dirección china resto mundo encuestado senalar control enfermedad infeccioso simplemente preocupacion nacional implicación internacional global consecuencia expreso encuestado necesario enfocar global integrado comprender transmision evolucion agent enfermedad infeccioso cooperacion intercambio internacional beneficiariar chino contribuiriar trabajo control enfermedad infeccioso contexto internacional caso sudafrico patron invirtio respuesta sudafricano sección cuestionario preguntar medicina estratificado breve comparacion relacionado control enfermedad infeccioso</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>nivel mundial dato tiempo seguir limitar particular país desarrollo importante costo capacidad necesario encuesta tiempo presentacion informe meta ods requerir dato recopilado regularmente tiempo desglosado sexo grupo edad ubicacion fecha país encuesta tiempo realizar onu mujer país adelantado recopilado dato tiempo</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>participacion profesional trav programa facil flexibl tiempo interactivo responder necesidad profesional maximizar impacto programa cpd país ocde incentivo cpd austria formacion basica salud mental medicos atencion primaria limitado medicos atencion primaria recibido formacion adicional medicina psicoterapeutico intensidad formacion resultado acreditacion diploma psy psy psy permitir medico atencion primario administrar determinado tratamiento medico general austriar diploma</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>hungrio ley educacion publica legislo expresamente enfocar escuela integral encargar ministro responsable educacion ambiente desarrollar programa green kindergarten ecoschool pais base promocion pareceria numero jardín infancia verde aumentado jardines infanciar escuela formar programa ecoschools escuela hungrio informe informal finlandio incluido plan eds estrategia general eds proporcionar escuela modelo ejemplo apoyo practico elaborar plan ds hallazgo consistente comentario proporcionado miembro trav nir informe nacional informal</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>comunidad flamenco indicio distribucion desigual docente escuela docente experimentado soler emplear él escuela desafiant dato tali docente secundaria inferior trabajar escuela estudiante proveniente entorno familiar desfavorecido caso docente principiant docente ano experiencia docente país economia encontrar superior figurar diferencia positivo probable docente experimentado trabajar escuela alta proporcion estudiantes entornos socioeconomicamente desfavorecido figura muestra mayorio país ocurrir contrario</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>nivel educativo serio inferior anos comparacion nivel educativo promedio esposo punto referencia alfabetizacion funcional establecer rango anos educacion unesco adoptado punto referencia ano encuestas tema significar mujer promedio momento tendrio alfabetizacion limitado gray cincuenta ano mujer equivalente tendrio doble nivel educativo hermana decado promedio ano escuelar</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>area rural grupo distrito involucrar persona discapacitada padre maestro nino identificar persona discapacitada asegurar suficiente material ensenanzar aprendizaje maestros auxiliares ambiente aprendizaje acogedor organizar evento crear conciencia recolectar fondo educacion fisico mejora acceso trabajo familia fundamental alentarla escolarizar hijo discapacitado convertir él aliado lucha derechos educacion estudio caso utilizar promocion nacional internacional cambio ley politica programa desarrollo relevante educacion inclusivo</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>sociedad multicultural gobierno querer crear fuerza laboral capacitado informado priorizar valor compartido construir comunidad persona preocupar transmitir idioma costumbre especifico nino respetar creencia especifico criancer nino contexto zelanda consideración recibir peso forma especifico relacion corona maories definido tratado waitangi estatu unico maories tangato whenuo indigenar plan estudio contribuir equilibrar expectativa desarrollo infancia plar estudios garantizar cumplir expectativa necesidad parte interesado bennett sirajblatchford woodhead vandenbroeck curriculo enfocado meta claro ayuda asegurar personal ece cubra areas critica aprendizaje desarrollo</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>decisión politica aparentemente neutro genero efecto intencional posibilidad mujer convertir él participante equitativo sociedad resulte dificil encontrar empleo asegurar educacion iniciar negocio satisfacer necesidad familia garantizar derechos humanos ue definir gia proceso comparar evaluar criterio relevante genero situacion actual tendencia desarrollo esperado resultante introduccion politico propuesto comision europeo nd</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>tabla contraste heterogeneidad real especificar pais principalmente valor didactico sector privado atencion salud mental psicologo psiquiatra practicar privado pai abierto persona trastorno leve condición umbral mayorio enfermo mental necesitado trastorno mental leve parcialmente aislado vida social laboral encontrar ayuda adecuado consultorio atencion primario lugar presentar mayorio persona problema salud mental especialmente</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>país ocde estudiante ventaja socioeconomica obtener punto matematica equivalente ano escolaridad estudiante ventaja portugal diferenciar rendimiento matematica punto chile hungrio luxemburgo republica eslovaco relacion portugal desempeno estatus socioeconomico significativamente promedio ocde ocde posicion portugal contrastar italia ejemplo mostro nivel desempeno mejora resultado pisar similar portugal figura</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>flujo ayuda restante comparar marcador atribuir principalmente informe unido miembro dac combinar ayuda canado destacar excepcion ayuda dirigido igualdad genero objetivo principal</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>resultado resultado salud seguir inferior ocde desigualdades significativo general reforma ido direccion correcto razón progreso limitado profundo dificil captar especialmente entorno sistema informacion orientado objetivo lento progreso atribuir él magnitud tarea cuestion prestar suficiente atencion medicion progreso real implementacion efectivo</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>basado actitud culpar victimo prestar atencion enfocar considerable mejorar comportamiento humano politica seguridad vial careciar enfoque holistico necesario lograr reduccion significativo lesión sistema seguro ver muerte lesión carretero precio inevitable pagar sociedad altamente motorizado muerte carreterar fallo inaceptable sistema contrarresta riesgo planificador transporte poder adoptar medida eficiencia transporte tolerar muerte prevenir asequible</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>densidad cama marcadamente bajo cama habitante comparacion cama ocde nuevamente bajo país ocde gasto per capita similar persona seguridad social mxn per capita persona seguridad social comparacion imss afiliado issstir diferencia derechos persistir involucrar enfermedad común devastador infarto miocardio mayor ano accident cerebrovascular dialisi insuficiencia renal esclerosis multiple cancer pulmon ejemplo cubierto sp diferencia acceso evidente</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>escuela maestro establecer objetivo educativo alumno evaluan desempeno medida red sip organización asociado brindar desarrollo profesional clases recuperacion apoyo psicosocial nino sociedad instruccion primario cont ensenanza estructurado objetivo formulado departamento pedagogico incentivo economico maestros ligado logro</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>mujer vivir hombre enferman frecuencia nina nino escuela seguir insuficientemente representado campo clave educacion brindar mayor oportunidad laboral mujer presente mercado laboral ganar hombre dedicar hora trabajo remunerado resultar dificil llegar cimo carrera profesional iniciar negocio hombre frecuencia victima homicidio agresión mujer objetivo principal violencia parejo</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>particular caida significativo numero estudiante matriculado programa vocacional corto provocar escasez ocupación numero reducir estudiante programa formacion profesional media experimentar descenso matriculo estudiante estudiant</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>particular objetivo establecido ley i evaluar aprendizaje estudiantes ii trabajar innovación pedagogica necesario mejorar aprendizaje estudiantes iii intercambiar experiencia pedagogica iv disenar estrategia ensenanza estudiante v establecer criterio plán mejor ver recibir asistencia tecnico asesoria tecnicopedagogica ministerio educacion asesor tecnicopedagogico atp asesoria independiente asesor tecnicopedagogico ate canal llegado escuela escuela latinoamerico httpsescueapuscom programa introducir estrategia expandir programa conexión enlaz areas rural incluyo provision computadora aula multigrado capacitacion maestros</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>decado país nordico implementado variedad tipo medida destinado mejorar equilibrio genero mundo academico implementado medida igualdad genero sector educacion investigacion consejo nacional investigacion universidades colegio universitario instituto investigacion independiente medida centrado mejorar equilibrio genero areas tematica especifico categoria puesto institución academia sector investigacion general estadistica educacion investigacion region nordico desglosado genero decado país crucial desarrollar dato adecuado medida igualdad genero mundo academico</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>programa exitosos maestros mentores brindar orientacion supervision maestros principiant estrecha colaboracion institucion formacion inicial maestros mentores brindar apoyo trabajo identificar deficiencia conocimiento materia estrategia gestion aular proceso pedagogico escuela necesitariar brindar apoyo maestros principiant capaz ofrecer programa induccion alto calidad</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>promedio país ocde perfil socioeconomico escuela identificar asociacion porcentaje estudiantes inmigrante asistir escuela probabilidad estudiantes asistir escuela alcanzar nivel basico competencia academico perfil socioeconomico escuela alto concentracion estudiante inmigrante asocio desempeno alemania eslovenia espana suiza eslovenia unico pai estudiantes asistir escuela estudiante origen inmigrante probabilidad alcanzar nivel basico competencia perfil socioeconomico escuela</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>implicar suficiente recurso caso dificil conservar recurso caso serio suboptimo cambio sistema pago consecuencia plazo tecnologiar practica medica costo tiempo mcclellar efectivo evitar derivación innecesario ofrecer atencion definitivo numero derivación diagnostica atencion especializado ambulatorio aumentar numero paciente derivado atencion hospitalaria medico aumento gaal et</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>promedio diferenciar punto dominio alfabetizacion separar adulto padr alto nivel educativo cuyo padre nivel bajo educacion promedio probabilidad desempeno punto porcentual menor adulto padre educacion terciaria comparacion adulto cuyo padre educacion secundaria superior adulto cuyo alfabetizacion clasificado nivel inferior predominantemente padre educacion promedio mitad adulto line base dominio lectura teniar padre habiar completado educacion secundaria superior</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>progreso permitido colombia convertir lider regional actividad clave agencia evaluacion tecnologia salud instituto evaluacion tecnologico salud avanzado americo latino ejemplo conflicto provocado desplazamiento toma forzoso tierra reclutamiento forzado secuestro homicidio lesión violencia sexual estimar millón victimas conflicto armado mayoria colombiano pobre rural</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>reducir produccion economico mundial nacional ejercer presion gobiernos sistema salud nacional sobrecarguir hogar vulnerable poner riesgo derechos humanos socavar gravemente progreso desarrollo pnud b banco mundial perdido productividad enfermedad discapacidad muerte ent impedir crecimiento macroeconomico desviar presupuesto publico objetivo importante salud desarrollo oms bloom et contraste muert enfermedad transmisibl periodo reducir ciento millón persona millón muerte diverso forma lesión aumentar ciento millón persona millón gbd</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>lugar ensenanza examen enfatiza memorizacion enfocar pasivo aprendizaje maestros pasar tiempo desarrollar estrategia tomar examen lugar cultivar habilidad resolucion problema estudiant kellaghan et involucrar maestros desarrollo implementacion pruebas estandarizado capacitar maestros analizar efectivo resultado prueba riesgo ensenar prueba incentivo adjunto resultado prueba construir él cuidadosamente evitar motivar comportamiento estrategico ensenar prueba investigacion mezclado promover efectivo comportamiento positivo resultado incentivo reducir comportamiento negativo</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>reforma reciente permitido padre nino nacido junio flexible provision proteccion laboral consentimiento empleador mes periodo proteccion laboral mes momento tercer octavo cumpleano nino allo disposición licencia parental elternzeit licencia cuidado familia pflegezeit familienpflegezeit empleado alemania derecho legal reanudar trabajo tiempo completo empleador aprobado reduccion jornada laboral consultar capitulo obtener informacion comparacion internacional disposición legal promedio madre trabajar tiempo completo alemania dedicar hora semana superado madre suiza austriaco hora semana figurar</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>plan especializacion abordar preocupacion cirujano responsable politico dinamarca servicio especializado prestar circunstancia potencialmente insegura evaluar sistematicamente impacto reforma importante formulador politica utilizar cambio ofertar servicio hospitalario impulsar mejora calidad atencion ayudar evaluar exito plan monitorear calidad continuo dhma buscar hospital monitoreir internamente dato desempeno medico individual esfuerzo sistema realizar evaluar desempeno hospital especializado</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>lugar alto retornos educacion superior gobierno sugerir retornos educacion superior gravar portugal ocde tercer lugar parte interesado mencionar razón economica disminuido interes seguir educacion superior crisis costo participacion periodo recuperacion país matriculo programa educacion adulto formacion basica aplicar persona demostrar necesidad economico general elegibl beneficio social continuacion incluir ejemplo enfoque</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>aucune intervencion isoleir ne meme garantir lespatient font deivrer medicaments presents et quils prennent correctement mesures mís lumierir doivent etre appliquees ensemble medida reglamentario indicador calidad rendimiento encontrar dominio estimulo sistema sanidad eficaz eficiente</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>kazajstar promulgo estrategia nacional igualdad genero seguido plan accion especificos implementacion recientemente reunion lider global onu igualdad genero empoderamiento mujer kazajstar comprometio defender implementar plenamente plataforma accion beijing compromiso acelerado profundo visto implementacion objetivo desarrollo sostenible especificamente objetivo igualdad genero kazajstar comprometio financiar adecuadamente iniciativo igualdad genero establecer rendicion cuenta fuerte transparente abierto mecanismo gubernamental utilizar dato genero comparabl alto nivel aspecto igualdad genero onu mujeres</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>suecia estudiante nativo herencia mixto hablant nativo teniar punto porcentual probabilidad academicamente resilient comparacion hablant nativo diferenciar punto porcentual país europeo aprendizaje pares canado estudiante nativo nativo origen inmigrante teniar probabilidad alcanzar competencia academico basico</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>esfuerzo generalmente llevar cabo trav ministerio asunto mujer conexión limitado ministerio economico surgir evidenciar ministerio economico reconocer necesidad mujer empresaria requerir consideracion especial evidenciar politica apoyar mujer empresa orientado crecimiento empresaria orientado crecimiento ciertamente region invisible</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>encuestado cosa depender hombre nombre esposo suegrar tabu social restriccion programa nepal helvetas banco asiatico desarrollo adb mostrar programa infraestructuro reducir trabajo cuidado remunerado mujer desafiar norma genero discriminatorio existente trav representacion mujer considerado cuarta r marco r oit fase diseno programa proceso tomar decisión cuadro</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>teoria docente estatus permanente despedir ejemplo resultado medido disciplinario recibir evaluación insuficiente consecutivo practicar despedir docente permanente resultar dificil rara ocurrir carrera docente prevar etapa diferenciado asociado nivel competencia rol responsabilidad determinado escuela</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>especificamente mujer fundadora tender preparado terminos educacion experiencia profesional controlar sector actividad puesto marcha brecha genero atribuir él brecha genero educacion campo inter carrera ejemplo stem politico cerrar brecha genero financiacion tendrio abordar factor anterior relacionado educacion formacion</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>región desarrollado gobierno habiar adoptado medida legal politica prevenir violencia domestico comparacion medida legal politica ambos gobierno región desarrollado proporcion relativamente bajo africo ciento asia ciento gobierno africo gobierno asia contar disposición legal politica prevenir violencia domestico cuadro iii</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>convencion eliminacion forma discriminacion mujer exigir parte adoptar medida apropiado eliminar discriminacion mujer asunto relacionado matrimonio relación familiar art incluir garantizar derecho contraer matrimonio libre pleno consentimiento elegir libremente conyuge derecho responsabilidad matrimonio disolucion hijo derecho personal marido mujer tal derecho elegir apellido profesion ocupacion derecho relacionado acceso propiedad salud sexual reproductivo examinarar separado capitulo cubierto disposicion</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>estrategia incorporar elemento importante reforma legal regulatoria institucional integral coherente garantizar eliminir obstaculo desarrollo equitativo sostenible estrategia incorporar participacion mujer areas estrategica posición facilitar apoyo analisis impacto genero recopilacion dato desagregado genero ministerio interesado asociación organización mujer espana participar preparacion plan estrategico incorporar punto visto proceso colaborativo elaboracion politica</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>trabajo pedagogo enfocar importancia juego desarrollo integral nino joven incluir desarrollo intelectual social emocional neuromuscular etico moral estetico bupl profesor especialista centrar proceso social escuela constituir recurso central areas relacionado comportamiento psicologia bienestar apoyar estudiante individual aula trabajar maestro aula ayudar ofrecer ensenanza diferenciado necesidad estudiant</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>procedimiento iv permitir depurar variable salud correlacion termino error eit fuente endogeneidad encontrar instrumento solido valido soler dificil caso ejemplo observar relacion obesidad salario cawley utilizo peso hermano instrumento peso individual</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>territorio australiir belgico comunidad francés provincia territorio canado chile evaluacion desempeno zelanda ejemplo quedar discrecion lider evaluador escolar seleccionar instrumento herramienta recabar informacion depender aspecto criterio evaluacion elegido objetivo desempeno definido individualmente instrumento fuente informacion utilizado reunir prueba desempeno lider escolar diferir puesto liderazgo director escolar subdirector escolar costo esfuerzo requerido sopesar él beneficio multipl fuente informacion esencial reunir cantidad factible informacion preciso valido confiable util glasman glasman reunión evaluador evaluado basar él simplemente listo comprobacion examine demostrado aspecto evaluacion lashway</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>enfatizo centralidad conocimiento aprendizaje objetivo promover inclusion coherencia flexibilidad practico educativo destacar importancia adaptabilidad audacia concienciacion cuestión sostenibilidad medioambiental aspecto fundamental enfocar educativo siglo xxi incluir expectativo ciudadano desarrollar pensamiento critico autoconciencia autonomio responsabilidad persona frente incertidumbre mundo cambiar rapidamente utilizar habilidad desarrollado continuar aprender vida respetar principio fundamental sociedad democratico derecho garantias libertad basar incluir responsabilidad integridad excelencia alto estandar curiosidad reflexion innovacion ciudadania participacion libertad incluir lenguaje texto informacion comunicacion razonamiento resolucion problema pensamiento critico creativo relación interpersonal autonomiar desarrollo personal bienestar salud ambiente sensibilidadconciencia estetico artistico cientifico tecnico conocimiento tecnologico concienciar dominio cuerpo</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>causa estructural amplio emigracion parecer neutro punto visto genero papel desigualdad genero institución social determinante estandar institución social discriminatorio influir patrón migracion femenino fundamental comprender papel institución social tomar decisión mujer</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>acción considerar él transformadora provocar cambio genero renegociar espacio contexto politico inestable centrar él cuestión politica relacionado conflicto opcion estrategico organización rompar barrera identidad etnico promover iniciativa reconciliacion bicomunal articulación derechos humanos fuertemente inclusiva coso general impacto titulizacionretencion impacto desecuritizacionconsolidacion paz</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>maestro enfoque facil simplemente esperar par intento reforma importante brecha sustancial momento incurrir costo inicial reforma momento evidente beneficio reformar realmente materializar tiempo complicar politico reforma dominio impacto reforma educativo retraso soler implicar ano camino implementacion exitoso reforma fracaso pequeno paso distanciar resultado ciclo politico impacto directo momento alcanzar contenido reforma educativo reforma educativo convertir tarea ingrato realizar elección realizar beneficio reformo</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>cosa distribuir responsabilidad organizacion funcionamiento escuela estructurar desarrollo garantiar calidad escuela ejemplo autoevaluacion escolar externalidad garantiar calidad organizar distribuye preparar liderazgo escolar organizar distribuir preparar recurso escuela organizado crear entorno propicio ensenanzar aprendizaje efectivo p ej organizacion aprendizaje alcance padre comunidad utilizar instalación material escolar apoyar dicho entorno p ej instalación escolar horario instruccion uruguay joven ano tomar evaluacion pisa matriculado educacion secundario basica educacion secundaria superior estudiante realizar evaluacion pís seguir programa general ocde tablas iv iv</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>importante organizacion red escolar objetivo garantizar educacion calidad nino acceso estudiantes educacion alto calidad deberio ver él afectado negativamente lugar residencia caso cerrar escuela solucion distanciar recorrer simplemente practicable</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>eslovenia proporción alto poblacion ano completado educacion secundaria superior ocupar lugar destacado prueba internacional rendimiento educativo areas reforma mejorar significativamente desempeno equipar fuerza laboral habilidad demandado economio cambiar rapidamente particular bajo proporción alumno maestro tamano reducido clase alto proporcion personal docente sugerir espacio mejorar eficiencia gasto racionalizacion personal docente docente liberario valioso recurso publico redirigir él aspecto sistema educativo carecer fondo suficiente</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>probable fundadora deseir mantener control empresa continuar crecer negocio formar independiente argumento plausible general mujer hombr empresario declarar motivación hombr iniciar negocio figurar validacion rechazo hipotesis conllevar importante implicación politico</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>mundo emergente persistir brecha genero severo mejorar logro educativo mujer deberio seguir preocupacion principal formulador politica circulo vicioso bajo productividad acceso limitado capital reforzar él fomentar trampa pobreza suceder restricción crediticio general enfrentar empresaria reprimen inversion negocio productividad permanezca bajo reducir solvencia crediticia</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>incluir respetar paciente involucrarlo priorizacion planificacion sistema atencion medica promover voz eleccion traves alfabetizacion salud recopilacion medida experiencia paciente fundamental brindar servicio salud realmente responder necesidad paciente complementario papel profesional salud modernizar él brindar atencion centrado paciente</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>diferencia vario significativamente grupo socioeconomico estudiante pie nivel socioeconomico diagnosticado necesidad especial permanente estudiante pie nivel socioeconomico alto diagnosticado dicho necesidad figura diferencia proveedor escuelar escuela municipal probabilidad matricular estudiante discapacidad permanente escuela privado subvencionado</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>tarea facil tamano clase vario existencia escuela rural remoto surgen dificultad consideracion necesidad estudiant escuela formulir ejemplo requisito curricular equipamiento escolar ritmo aprendizaje estudiante necesario lograr equilibrio formular simple capturar él formula sofisticado dificil entender cuyo ajuste generar resultado inesperado desagradable</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>necesario disenar politica provoquir cambio estructura productivo orientacion factores demando abran camino tipo crecimiento solidamente basado equidad equidad objetivo politico derecho lugar ver complemento requerirar derribar principal barrera entrado mercado laboral proteccion social combinar él politica laboral economica proporcionar financiamiento confiable continuo sistema servicio integrado politico laboral enfocar él asegurar regimen laboral incorporar necesidad asociado ciclo vida familiar norma laboral disenada brindar proteccion social aplicar hombre mujer mujer visto trabajador costoso posible empleador hora mujer trabajar mercado laboral correspondar impacto positivo demanda agregado productividad crecimiento</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>normalmente brindar atencion consentimiento persona tratamiento obligatorio ordenar paciente oponer atencion padecer trastorno psiquiatrico grave excluido discapacidad desarrollo atencion brindar él caso condicion psiquiatrico circunstancia personal persona necesitar tratamiento psiquiatrico efectivo paciente admitido centro atencion psiquiatrico paciente internado bolling et tratamiento ambulatorio involuntario condición especial comenzar periodo tratamiento ambulatorio involuntario</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>establecido curso soliar ofrecer institución incluido escuela centro formacion politecnico reclutar participant politecnico autorizado ofrecer curso numero estudiante disminuyo ano</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>habilidad describir ocde llamado teaming to learn estrategia practica motivación asociado alto rendimiento ocde modelo capa aprendizaje autorregulado boekaerts pintrich zeidner marco captura tipo mentalidad disposición habilidad desarrollar él estudiante capaz aprender capaz aprender productivamente capa interno regulacion cognitivo abarca practica estudiante necesitar dominar cabo procesamiento informacion capa intermedio regulacion metacognitivo describir conocimiento habilidades estudiant permitir tomar decisión efectivo estudiar capa externo regulacion motivacional representar meta necesidad expectativa alumno</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>hombre contribuyen seguridad social tiempo mujer mexico trabajador mayor ano mujer cotizar seguridad social comparacion trabajador hombre estimaciones enigh ocde cobertura grupo marginado trabajador domestico inmenso mayorio mujeres</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>dato asociacion chino mujer empresaria mostrar mujer empresaria representar empresario educacion hombre optimista futuro propenso buscar informacion comercial internet llegar mercado internacional prestado especial atencion programa mejorar inclusion financiero mujer empresaria incluir tasa inter preferencial esquema garantio credito</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>dato referir duracion promedio estadia atencion curativo agudo resultar subestimacion fuente estadistica salud ocde httpdxdoiorghealthdataen comparacion sector hospitalario deficit importante informacion patrones atencion resultado atencion primaria</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>medida especifico incluir auditoria genero ministerio sectorial evaluación genero sensibilizacion establecimiento comite presupuesto perspectivo genero ministerio hacienda desarrollo sistema seguimiento presupuestario medir sensibilidad genero gasto publico ayuda donant resultado cambio asignación presupuestaria perspectiva genero nepal aumentar constantemente</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>experiencia país ocde demostrado provision nivel atencion primaria trastorno leve moderado eficaz respaldado formacion formacion medico educacion medica continuo apoyo especialista salud mental profesional salud red apoyo opción derivacion caso paciente necesite acceder nivel atencion especializado ejemplo psicologo servicio centro comunitario especializado salud mental competencia tratamiento diagnostico trastorno leve moderado integrar él formacion especialidad atencion primario japon principio recomendar japon considere expansion tratamiento basado evidenciar trastorno leve moderado particular aumentar disponibilidad terapia psicologica</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>accidente nuclear fukushima noto ningun impacto valor medido nfar registrar plaguicida agroquimico medicamento veterinario nfar responsable controlar tipo establecimiento productor alimentospienso ley calidad inocuidad alimento</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>categorizacion etapa proceso seleccion proporciona marco identificacion acción concreto etapa ciclo electoral regla practica asegurar mujer hombr igualdad oportunidad apoyo proceso electoral periodo preelectoral electoral postelectoral tabla resumir responsabilidad estatal clave relacion elección dimensión genero</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>invertir corazon nina ver comunidad familia fuerte economia sostenible tasa bajo mortalidad morbilidad maternar tasa bajo vih sida pobreza innovacion tasa reducido desempleo prosperidad equitativo apoyo fundacion naciones unidas grupo trabajo objetivo fortalecer colaboracion interinstitucional nivel mundial nacional facilitar desarrollo programa efectivo abordar derecho necesidad adolescente apoyar impulso lograr odm eliminar forma violencia discriminacion nina mujer joven agencia comprometer aumentar apoyo gobierno sociedad civil proximos ano promover politica programa empoderar adolescente dificil alcanzar fondo cbiwrar nación unidas</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>acceso universal significar contenido educativo televisado posibilidad llegar mayorio estudiantes zona rural desfavorecido diciembre tailandio tenia millón suscriptor movil leesanguansuk actualmente tasa penetracion banda ancho movil alto país asociacion naciones sudestir asiatico aseir millón usuario convertirar suscriptor banda ancho movil sudestir asiatico singapur lanzamiento cuarta banda ancho alto velocidad red generacion g completo tailandia deberio continuar inversión digital asegurar él equilibrar gasto gasto dispositivo acceso internet gasto costo mantenimiento tecnico escuela</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>capitulo comenzar descripcion general reforma tailandio relacionado tic educacion proporcionar analisis problema politico relacionado area presentar recomendación mejorar apoyar tic mejorar calidad equidad educacion sistema educativo conjunto objetivo estrategia utilizar tic crear tailandia inteligente sociedad inteligente alfabetizada informacion conocimiento beneficie ciudadano sociedad conjunto ministerio tic educacion pilar clave esfuerzo</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>capitulo describir demografia economio gobierno particular sistema educativo incluir reciente esfuerzo desafio reforma gratuito tasa participacion alto educacion preescolar primaria universal esfuerzo reformo descentralizar administracion aumentar calidad educacion cumplir objetivo desarrollo amplio impacto quedar desafio resolver eficacia eficiencia equidad</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>enfocar dirigido sector mejora escolar beneficioso escuela beneficiario escuela origen relaciones asociacion crear entorno mejorado reflexion eficacia escolar baars et particular lider educativo local nacional lider consultor necesitar seleccion capacitacion garantiar calidad cuidadoso garantiar director lider consultor</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>caso programa educacion secundaria inferior noruego programa educacion secundaria superior finlandio tipo programa reino unido canado estudiante secundario inferior superior generalmente repetir curso reprobado grado completo estudiante primario generalmente repetir grado alcanzar programa general secundario inferior excluir estudiante adulto aumentar nivel educativo alto repeticion grado relativamente comun programa general secundario inferior mayorio país</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>alcance segregacion genero mercado laboral general industria particular mujer constituir ciento fuerza laboral mundial riesgo esfuerzo industrio ecologicar par alto mujer marginir sector dirigir expansion empleo verde energia construccion industria basica dominado hombre tendencia reciente indicar segregacion sectorial aumentar lugar disminuir empleo verde mujer tender bajo representacion ocupar peldano menor valor agregado economia desarrollo mujer concentrar medida extremo valor agregado empleo verde existente ejemplo trabajador informal recoleccion reciclaje desecho strietskallín</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>dado diversidad interregional financiamiento provision atencion medica informacion desempeno sistema salud regional deseable permitir evaluacion comparativo desempeno región decision autoridad federal identificar recopilar conjunto indicador definido comunmente relacionado salud avance positivo enfatizar dato seriar util definierar recopilarar estandar internacional permitirio evaluacion comparativo internacional interregional</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>nivel micro variacion considerable implementacion persistencia esquema seguro salud antiguo permitir sacar conclusión participacion esquema seguro mejorar salud autoinformado estudio gao meng estudio presentar resultado claro tasa reembolso enfermedad catastrofica bajo</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>abordir desafio area clave ods serar monitoreada perspectivo igualdad genero estadistica genero incluir dato recopilado analizado presentado sexo caracteristica dato desglosado sexo reflejar necesidad oportunidad contribución especifico mujer nina sociedad dato violencia mujer asistencia partera capacitado parto ejemplo ultimos</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>hallazgo logico practica activo considerar él riesgosa metodo ensenanza directo desafio tic ensenanzar estudiante trabajar grupo seguro habilidad necesario pedagogiar contenido gestion aular dato indicar profesor dirigen aprendizaje alumno probabilidad resolver exito problema matematico sencillo pís</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>sistema apoyo mejora escolar buscar desarrollar capacidad escuela proveedor escolar autosuperacion pei pme buscar establecer pme herramienta independiente sep requisito rendicion cuenta relacionado desarrollo positivo gracias programa financiamiento focalizado formar sep programa integracion escolar pie escuela recurso adicional contratar personal apoyo aprendizaje apoyar maestros trabajo brinde apoyo estudiant escuela</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>brindar atencion integral incluir tratamiento medico evaluacion psiquiatrico asistencia psicologico social europa occidental central cannabis droga comunmente incautado representar incautación cocaín ocupar lugar general representar doble numero incautación notificada anfetamina heroín</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>general mujer parecer representar proporcion pequenar sde orientado individualmente consultorio sde sofisticado formacion gestion empresarial programa formacion empresarial basado grupo programa formacion empresarial apoyado anpme marrueco dirigir especificamente mujer empresaria anpme normalmente brindo capacitacion empresarial oferto programa pequena mediano empresa pyme</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>hombre parejo cifrar doble país participacion mujer mercado laboral alto brecha salarial genero limitado tender resultado equitativo carrera laboral corta perfil carrera ingreso restringido relacion hombre ayudar explicar promedio pensión mujer menor valor hombre grafico mostrar beneficiario pensión brecha genero pensión inferior estonia dinamarca republico eslovaco</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>descentralizacion dificulto movilidad paciente región complicado procedimiento burocratico resulto caso abuso corrupcion sistema control subdesarrollado comision europeo fondo nacional salud nfz fusion fondo enfermedad hungrio irlanda italia zelanda noruego reino unido tender compartir caracteristica similar ocde</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>proceso permitio comparar forma sencillo alumno inmigrante companero nativo indicador figurar ofrecer vision grafico rendimiento relativo grupo alumno importante destacar area diferencia grupo significativo valor medio alumno inmigrante convertir valor relativo</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>continuar realizar tarea cocinar lavar ropa cuidar nino dedicar hora trabajar agricola trabajo bosnia camboya guatemala carga trabajo mujer aumento drasticamente raiz crimen masivo nino perder padre crimen masivo separado familia conflicto migración forzado</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>alumna sentir especialmente atraida educacion nivel licenciaturo trabajo social periodismo formacion docente enfermeria lenguo literatura medio poppel m chemnitz kleist representacion mujeres aumento considerablemente elección parlamentario miembro elegir candidata partido mujeres partido logro llamar atencion aspecto desigualdades genero faltar candidata partido poppel m</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ayudo región objetivo terminos concreto alcanzabl ejemplo region llego conclusion alumno indigena situacion riesgo obtener qce cerraria brecho esfuerzo oficina central incluir taller sesión liderazgo lider escolar personal regional centrar necesario mejora llevar él cabo</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>medida mujer participar politica probable ignorar silencien derechos prioridad necesidad interés mujer historicamente participacion mujer minimizado representar mitad poblacion mayorio país precisamente nivel implicacion compromiso vida publicar politico clave surgir organización mujeres respuesta participacion mujer vida publicar polarizacion politico surgio grupo lograr mantener él unido presionar preservacion avance derechos mujeres</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>llamado segmento consistir servicio hospitalario precio regulado derivar presupuesto hospitalario global segmento b consistir servicio hospitalario precio negociar libremente aseguradora salud general comprender servicio complejo ejemplo reemplazo rodillo cadero participacion segmento b aumentado reforma descrito continuacion tiempo precio real segmento b disminuido reflejar negociacion asegurador salud cuadro</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>dado cifra argumentar letonia espacio fiscal dedicar inversion sistema salud economia ocde proporcion pib sector publico letonia promedio país europeo ocde excluir turquia ocde d letonia gastar gasto publico salud proporcion pequenar pais ocde figurar extremo espectro participacion superar zelanda suizo país bajo unido</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>paciente elegir medico cabecerar sistema control elegir visitar directamente especialista medico contacto ambulatorio persón gobernanza atencion primaria debil ejemplo falta inspeccion estatal politicas atencion primaria apoyo relativo subdesarrollo fuerza laboral atencion primaria bajo nivel ingreso relacion especialista positivamente juzgado sistema atencion primaria relativamente efectivo eficiente coordinacion integralidad atencion ktingos et kringosetal</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>particularmente importante estudiante entorno desfavorecido escuela principal desarrollar habilidad alcanzar numero cercano promedio ano educacion ocde proporcionar factor protector estudiantes mejoren probabilidad exito academico medida alcanzar promedio ocde ano estudiantes ingresar sistema educativo ano permanecer ano actividad nino padr cuidador principal determinante aprendizaje</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>realidad defensor punto visto buscado socavar derechos mujer simultaneamente adoptado politica erosionar condición permitir familia miembro prosperir trav familia persona compartir recurso viviendar ingreso cuidar enfermo fragil reproducir nutrir cuidar proxima generacion familias lugar amor afecto fundamental identidad pertenencia miembro vida mujer esperar experimentar abuso fisico sexual mano pareja intimo</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>incluir revision reglamento responsabilidad director subdirectores desarrollo conjunto relacionado estandar liderazgo escolar profesional dicho estandar proporcionariar declaracion claro concís elemento central liderazgo exitoso trazar mapa esperar lider escolar saber poder uruguay necesitar reevaluar nivel actual remuneracion director subdirector garantizar liderazgo escolar sostenible futuro docente calificado interesado deseir asumir responsabilidad ver disuadido paso</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>brecho financiamiento capital dificulto capacidad mujer financiar empresa innovadora brecha creacion red generado numero mujer emprendedor industria intensivo innovacion bajo visibilidad mujer innovadora exitoso país tomar medida concreto promover mujer innovadora emprendedora alto crecimiento comision europeo reconocer crecimiento economico bás comercializacion aplicacion continuo idea generado mujer</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>llevarse cabo investigacion accion profesor participar probar evaluar enfoque ministerio deberio explorar embajada país origen posibilidad adaptar programa alfabetizacion lenguaje desarrollado país necesidad aprendizaje joven adulto vivir dinamarca seccion ocupar padre inmigrante ejemplo dán sistema educativo dán bajo nivel educacion vivir barrio inmigrante nivel socioeconomico favorecido antecedente desempleado entender funcionar sistema educativo dán</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>necesidad analisis completo cualitativo completo basado informant implicación politica plazo cubrir país arab perspectiva regional estudio intentar llenar vacio arrojar luz condición estructural contextual permitir ocurrencia matrimonio infantil region tiempos paz contexto crisis humanitario explorar consecuencia matrimonio infantil nina entornos conflicto posconflicto estudio intentar distinguir determinant estructural matrimonio infantil presente tiempo país arab desequilibrio genero arraigado desigualdad institucionalizado determinant contextual matrimonio infantil resultar situación desplazamiento conflicto inestabilidad agravado pobreza extremo objetivo general fortalecer capacidad legislador arab grupo defensar prevenir proteger responder matrimonio infantil formar violencia genero gbv violacion derechos humanos</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>conducir nino discapacitado quedar efectivamente excluido internamente aprendizaje provocar nino abandonar estudio presion particularmente fuerte curriculo nacional politica evaluacion rigido competitivo permitir flexibilidad trabajo colaborativo requisito externo impuesto escuela gobierno abordar él reforma curriculo evaluacion escuela informal brac bangladesh demostrado recientemente maestro capacitado metodo amigabl nino acomodar nina nino discapacitado tasa desercion bajar grupo transferencio escuela secundario inferior estatal escuela primaria estatal escuela</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>dedicado seccion especificar contributiva evolucion mundo potencial solucionar deficiencia existente acceso proteccion persona edad avanzado grupo ingreso genero analizar componente relevante incorporado sistema pensión contributiva proteger mujer seno familia incluido derecho lasmujeresviudasydivorciadás recibiruna pension credito cotizacion cuidador mujer contar historial contributivo limitado esperanza vida superar hombre politica reforzar requisito contributivo hincapie ahorro individual dificultar obtencion prestación adecuado mujer</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>reflejar sistema educativo caracterizar extenso sistema planificacion normas kazajstan utilizar planificacion estrategico nacional establecer ampliamente vision pai regular aspecto sistema educativo nivel central serie estrategia documento planificacion particular programa estatal desarrollo educacion republica kazajstar sped garantizar coherencia guian formulacion politica</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>premio beneficiar auxiliar educacion monto extra promedio anual usd escuela premiado sector municipal sector privado subvencionado escuelas administracion delegado asimismo escuela evaluada sned premiar postulación sned municipio concepcion ejemplo equipo tecnico nivel municipal mantener contacto docente visita escuela observar aula municipio realizar prueba simce probar obtener informacion resultado aprendizaje escuela aula</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>garantizar él decisión claro transparente basado competencia areo fusión asegurador salud basar él metodologia evaluacion fusión publicado competencia asegurador salud restringido precio servicio hospitalario medicamento recetado paciente ambulatorio competencia hospital aumentado entrada numero sustancial clinica independiente zbc gasto atencion salud aumentado fuerte aumento volumen atencion incluido atencion salud mental cuadro</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>afectar proporcion poblacion ejemplo suiza país bajo país coberturo salud principalmente ligado ocupacion politica asegurar acceso universal cobertura salud importante tiempo crisis país asegurar él persona perder trabajo perder cobertura salud tiempo</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>razon selecciona gama indicador capturan desigualdad genero etapa ciclo vida capitulo centrar indicador demostrado importante desarrollo general sociedad p ej banco mundial razon cubrir tema clave afectar bienestar mujer incluido indiz desigualdad genero contemporaneo ejemplo incluir medida ingreso acceso trabajo remunerado factor crucial posicion economico mujer kabeer perder comparabilidad indiz actual compensar perspectiva plazo limitación disponibilidad dato criterio teorico metodologico eleccion variable igualdad genero empleado</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>sistema monitorear progreso nino discapacitado escuela capacito maestro plan individual nino enfasis mostrar logro plan trabajo individual nino incorporar plan anual desarrollo jardin infant primario recientemente fondo fti establecido escuela movil tienda campán sesenta ciento ingresant educacion primario nina tasa finalizacion nina duplicar</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>frente exigencia sociedad conocimiento suponer reto desarrollo sector educativo jensar ejemplo gobierno limitar él encargar curso consultor profesor director centro absorr pasivamente conocimiento cambiar practicar intencion gobierno educacion general desarrollo profesional alumno individuo creativo participar proceso aprendizaje manera prever lillejord</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>preguntar encuestado forma adecuado medir sistematicamente incidencia naturaleza impacto dano paciente atencion primario ambulatorio respuesta país desarrollado presentar figura medicion base mejorar seguridad analizar capitulo elijar opción proporcionada</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>garantizar igualdad oportunidad estudiante inmigrante independientemente escuela asestar vital importancia seccion estrategia financiacion presentar enfoque gestionar desigualdad traves financiacion dirigido area desfavorecido escuela grupo estudiant particular cuidadoso consideracion prioridad educativo finalmente seccion subrayar importancia seguimiento evaluacion garantizar calidad educacion migrantes</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>cabo correctamente proceso sanador fortalecedor minimo informacion violación p ej ejecución extrajudicial desaparición forzado tortura privacion libertad violencio basado genero etc clave determinar especificidad genero violación derechos humanos brindar descripcion preciso experiencia particular mujer nina hombre nino identificar practica ataque potencialmente discriminatorio p ej basado origen etnico religion afiliacion politico orientacion sexual discapacidad etc</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>grundsatze und umsetzung in den kantonen bbt berna identificar alternativa funcionar tarea facil alemania ejemplo sistema transicion cuidar estudiante rendimiento riesgo abandonar educacion convertido jungla opaco medida relacionado siquiera conducir transicion revision politica alemania ocde criticado arreglo costoso ineficiente hoeckel schwartz proxima publicacion</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>plenamente derecho mujer acceso inclusivo economia agencia vida personal traducir articulo constitucional relevante codigo legal asimismo respecta emprendimiento reforma importante elemento legal afectar establecimiento administracion desarrollo empresa ley generalmente considerar neutral genero disposición destinado proteger mujer imponer restricción costo adicional empleador privado</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>debate publico considerable marco contenido apropiado educacion tecnico privilegia integracion educacion tecnicoprofesional educacion academico general enfocar curricular integral fase transicion logra practicar requerirar acción coordinado distinto departamento mec</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>profesor cualificado escuela dificil contratar profesor cualificado indicio reconocimiento importante papel profesor contexto inclusion albertar pregunta adicional encuesta internacional ensenanza aprendizaje ocde relativo comprension profesor lider escolar cuestión relacionado cultura indigena historio trabajar alumno indigena desarrollo profesional pertinente enfocar holistico pueblo indigena hincapie contribuir bienestar general nino demas factor ventaja desventaja material trauma sufrido pueblo indigena trav sistema escuela residencial agudamente sintoma trauma aumentar lugar disminuir paso tiempo exacerbado relación intergeneracional frente panorama amplio comprender él estudio especifico determinado provincia territorio comparacion joven indigena indigena freemar king pickett</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>introducir registro electronico paciente armonizado nivel nacional deposito nacional dato paciente conocido kanta incluir receta electronico obligatorio portal salud permitir ciudadano consultar informacion historia clinico electronico cubrir poblacion septiembre</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>sobreoferta formacion docente inicial calidad desigual oportunidad desarrollo profesional carecer estructura enfoque basado escuela similar lider escolar lider educativo preparado apoyado reconocido rol carecer enfoque mejora educativo emprendido programa aprobado preparacion docente equivalente lugar</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>variedad opción considerar él garantizar efectivo informacion existente actor clave sistema educativo opción simple incluir garantizar dato utilizar efectivo gestion transicion escuela analizar dato nivel oficina regional ministerio educacion mejoras presentacion informe potencial mejorar interconexión escuela escuela jurisdicción regional nacional materia educacion</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>lei da cota plazo gratuito institución publica serar ocupado estudiante acomodado permitir él pagar educacion universitario evidencia internacional sugerir introduccion tasa reducir participacion acompane sistema digno apoyo estudiant brasil forma prouni fies deberiar extender él estudiante asistir institución publica alternativamente andradir argumento sistema cupón focalizado aumentario eficiencia sistema educacion superior brasileno comparacion sistema actual</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>mejorar oportunidad mujer empresa salario equitativo mujer gestion ayudar contratacion fuerza laboral diversar especialmente importante trabajador bajo ingreso luchar encontrar cuidado infantil consistente confiable turno cambiar erratico investigacion campo mexico confirmar empleado reacio abandonar lugar trabajo gerente lugar</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>escuela contar ayuda diputado tratar asunto administrativo asignarl rol liderazgo educativo director pagar recargo maestros asumir tarea ejemplo revisar plan ensenanza participar comite mensual implicar responsabilidad autoridad real liderazgo educativo ojos maestros practica docente recibir retroalimentacion apoyo mejorar practica lider escolar companero numero país ocde creado tal puesto liderazgo fortalecer desarrollo profesional docente nivel escolar basar él investigación mostrar retroalimentacion apoyo docente medio efectivo mejorar estandar ensenanza consulte recuadro</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ambito profesional campo estudiar probabilidad elegir mujer joven humanidad ciencia social atractivo empleador disciplina tecnica cientifica dominado hombre habilidad rara principal barrero participacion economia tiempo poblacion joven expandido vuelto educado empresa nacional extranjero expresado creciente faltar voluntad invertir region escasez general puestos trabajo exacerbar barrera tradicional enfrentar mujer lugar trabajar</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>proporcion menor chica ano chico actividad fisico adulto dinamarca alto mayorio demas país ue adulto informar realizar actividad fisico moderado semana excepcion consumo excesivo alcohol adulto igualmente frecuente grupo socioeconomico tasa tabaquismo persona nivel educativo doble tasa persona educado</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>informe finalizacion resultado proyecto lograr parcialmente objetivo revision implementacion plan estudio general vocacional disponibilidad publicar resultado logro estudiantes distribucion material maestros mejorar habilidades maestros vocacional introduccion sistema informacion carrera line capacitacion equipo gestion escolar plan desarrollo escolar distribucion subvención escuela areas bajo matriculo ley basico educacion nacional ministerio educacion nacional monir responsable sistema educativo dirección general unidad responsable aspecto educacion cumplimiento politica educacion basica educacion secundaria educacion vocacional educacion especial orientacion asesoramiento dirección provincial distrital educacion nacional provincia turco apoyar implementacion politico educativo direccion educacion servicio orientacion inspeccion unidad inspeccion</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>insto país desarrollar sistema educativo inclusivo receptivo resilient satisfacer necesidad unesco posicion refugiado depender país acogido extender derecho internacional educacion identico persona desplazado país origen cuyo gobierno responsabilidad especifico cumplir derecho ciudadano arreglo probar país implementar marco respuesta integral refugiado crrf seguimiento informe abordar tema importante seleccionado relacionado educacion refugiado incluido cuidado educacion infancia enfoque politico educacion terciaria enfoque politico persona desplazado discapacidad enfoque politico papel tecnologia enfoque politico eficacia ayuda humanitario enfoque politico</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>estudio khera nayak demostrado programa traer beneficio significativo mujer incluido mejora seguridad alimentario capacidad evitar trabajo peligroso mostrar cubrir mujer casado edad ano vivir area rural cuyo hogar participar programa nregar mujer mostrar vivir hogar participar programa</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>involucrar parte interesado clave ejemplo sindicato docente universidad asesor pedagogico desarrollo fundamental construir comprension compartido ensenanza garantizar estandar aceptado utilizado costa rico deberio considerar creacion organismo profesional docente apoyar trabajo proporcionar informacion desarrollo politica docente amplio fortalecer formacion inicial contratacion docente</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>brindar asesoramiento comercial capacitacion microfinanciamiento mujer ayudarla iniciar administrar micro pequena empresa brindarl oportunidad participacion feria comercial local regional objetivo fortalecer papel mujer empresaria lider economio palestino traves promocion creacion redes prestacion servicio comercial servir miembro ofrecer programa servicio mujer empresaria aspirante buscar establecer crecer negocio</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>l instauration droits scolarite universels paraleloment des prets remboursabl fonction des ressourz pourrait aporter une solution ces problem ce document travail rapporte vetude economique locde slovenie wwwoecdorgecoetudesslovenie dicho dato ocde perjuicio alto golar jerusalir asentamiento israelies cisjordania termino derecho internacional sistema enfrentar desafio importante</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>proceso participativo revision defensa asegurir pleno participacion hombre mujer segmento sociedad comprension precisar situacion seguridad construir propiedad nacional confianza civil proyecto implementar fuerza armado nacional país benin ecuador madagascar mongolia paraguay ucrania proyecto contener fuerte componente capacitacion concientizacion variedad tema prevencion vihsido salud materno enfoque salud reproductivo punto entrado abordar violencia genero problema igualdad genero</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>proporcionar incentivo padr tomar licencia introducir él legislacion  especifico prohiba discriminacion contratacion remuneracion motivo genero caso ausencia abordar él discriminacion mujer embarazado acceso sistema legal simple costo acción legal mantener él bajo permitir trabajador pobre presentar denuncia abuso discriminacion resultado percepción erronea estereotipo persistente accion afirmativa desempenar papel importante ayudar mujer aprovechar oportunidad laboral demostrar valia diseno conductual cuidadoso ayudar superar sesgo genero profundamente arraigado practica contratacion gestion</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>articulo undrip ilustrativo autonomia establecer pueblo indigena derecho medicina tradicional mantener practica salud incluido conservacion planta animal mineral medicinal vital proceso desplazado tierra alienado recurso natural</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>explicación institucional demografica empleo mujer país ocde journal of marriage and the family international journal of sociology and social policy ingreso mujer desigualdad hogar ocde país acta sociologico n agotado potencial compensar pobreza crecimiento empleo mujeres</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>aumento numero mujer presentar elección postular cargo publico dra fehmido mirza convirtio mujer presidento asamblea nacional historia democratico pakistar inicio red aprovechar capacidad colectivo iniciar dialogo derechos empoderamiento mujer</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>personal contrato permanente falta personal especializado capacidad organizativo limitado banco mundial informar iniciativa reorganizacion debilitar institucion llevar interrupcion función importante ejemplo confirmar liderazgo alto nivel comprometido objetivo igualdad genero acceso posible aliado politico crucial mecanismo eficacio viabilidad plazo areas identificar principal barrera promover igualdad genero país ocde</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>reconocido ampliamente difundido requisito incentivo medico paciente seguir practica analizar capitulo mecanismo monitoreo indicar punto medico medir tratar nivel presion arterial rutinario nivel azucar colesterol sangre parametro clinico paciente alto riesgo evento cardiovascular obstante tasa mortalidad cardiovascular tasa ingreso hospitalario diabet seguir alto ocde</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>alfabetizacion relacionado sistematicamente rendimiento logro escolar productividad vido evidenciar sugerir alfabetizacion centrar él mejorar vocabulario habilidad auditiva desarrollar conocimiento codigo alfabetico introducir imprenta nieer ocde demostrado nino cuyo padre leer frecuencia mostrar puntuación notablemente alto pisa estudiante cuyo padre leer frecuencia ocde</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>país ocde utilizar herramienta analisis impacto genero elaboracion presupuesto perspectivo genero implementar incorporacion perspectivo genero evaluar efecto politica legislacion practicar igualdad genero país emplear algun tipo analisis genero autoridad palestina unico pais region establecido mecanismo evaluacion regular impacto proyecto ley politica cantidad suficiente dato calidad proporcionar base actividad solida medicion seguimiento evaluacion desempeno practica general participacion ciudadano consulta publico limitar esporadico frecuencia involucrar parte interesado gobierno ocde</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>sustancia contexto asumir patron patologico abordar él historia civilizacion humano sociedad mostrado nivel tolerancia permisividad sustancia psicoactiva control sustancia tabaco alcohol regular estrictamente mayorio sociedad</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>asistencia exceso edad resultado repeticion grado ingreso tardio correr riesgo reducir participacion educacion unesco demas país dato disponible proporcion oscilar figurar bl grado educacion secundario inferior proporcion aumentar mayorio país duplico promedio ocde grado educacion secundario inferior argentinar punto porcentual costa rico punto porcentual luxemburgo punto porcentual espana punto porcentual disminuir sustancialmente hungrio punto porcentual destacar alto tasa desercion caido tasa matriculo joven ano</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>brecho resultado general estudiante tailandio país alto ingreso evaluación internacional nacional indicar proporcion significativo estudiante tailandés adquirir habilidad nivel area rural desfavorecido pais luchar tailandia debera mejora estrategica sistema educativo motor eficaz movilidad progreso social economico</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>clase impartido formar unidad aprendizaje previsto portafolio clase contener actividad tema abordado incluir analisis secuencio actividad gestion tiempo interaccion clase requerir maestro llevar cabo analisis progresion aprendizaje estudiante desempeno estudiante clase evaluacion fortaleza debilidad</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>bancario aumentar autonomio mujer hogar facilitar acceso financiacion facilitar creacion empresa autoempleo mujeres infraestructuro determinante positivo importante participacion femenino fuerza laboral regulación mercado laboral reducir participacion femenino</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ministerio seguridad social responsable politico social supervisa institución publica financiar atencion medico licencia enfermedad cuidado plazo ano registro aumento significativo gasto per capita consistentemente alto ue alto promedio ue s figura financiamiento seguro salud bás sistema cobro compartido cotización pagado resto compartido poblacion asegurado empleador mitad fuerza laboral luxemburgo empleado transfronterizo tercio asegurado cn vivir pais recuadro adem igss</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ultimo decado proceso paz continente africano mujer mediador principal maximizar beneficio participacion mujeres prevencion conflicto consolidacion paz exigir pasar inclusion asociacion cambio social ausencia mujer proceso paz explicar él supuesto falta experiencia resolucion conflicto negociación</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>colaboracion docente extendido docente primaria país tercio docente informar participar ensenanza conjunto aprendizaje colaborativo docente país informar intercambiar material didactico colega asistir conferencia equipo capitulo basar base analizar fondo tema especifico relacionado maestro ensenanza analizar evaluacion retroalimentacion recibir docente primario actividad induccion tutorio desarrollo profesional participar</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>correlacion desigualdad esfuerzo redistributivo fuerte especialmente país avanzado mantener país desarrollo nuevamente documento respaldar principio herramienta redistribucion eficient fundamental expansion inversion educacion estudiante familia bajo ingreso empezar escuela atrasado companero familia acomodado</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>factura salarial excesivo representar amenaza tejido social general encuesta senalo aumento salario sector publico contribucion desigualdad particular salario trabajador calificado organismo publico gobierno central ccss ocde senalo seccion ejemplo tasa obesidad alto costa rico mayorio país ocde mayorio sistema salud ocde autoridad presupuestaria central p ej ministerio finanzas establecer limit maximos gasto sector salud anualmente ciclo plurianual</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>probable mejorar creacion general empleo reducir empleo marginal mujer pobre consistentemente negativo nivel educativo región rural comenzar ganar importancia educacion primario región urbano magnitud nivel educativo adicional región urbano zona rural jefe hogar titulo universitario disminuir probabilidad participacion mujer pp frente jefe hogar analfabeto factor disminuir probabilidad pp zona urbano</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>similar corea mexico portugal unido desempeno inferior tratamiento enfermedad infeccioso practicar excepcion dato preliminar mortalidad tratable desarrollado recientemente ocde rara disponer dato comparable país resultado enfermedad medicion insumos costo enfermedad enfrentar obstaculo heijink renaud falta informacion practicas atencion ambulatoria consumo farmaco dificultar documentacion completo episodio atencion actualmente derivar estimación eficiencia país nivel enfermedad excepcion enfermedad especifico</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>trabajar luxemburgo automaticamente asegurado cns comprensiblemente buscar atencion principalmente pais residencia grupo representar paciente transfronterizo grupo pequeno comprender residente luxemburgo buscar servicio salud especializado disponible luxemburgo ejemplo atencion oncologico pediatrica trasplante organo</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>resultado investigar problema brecho genero financiamiento cadena valor utilizar base dato conjunto dato centrar principalmente mercado estadounidense evaluar evidencia país importancia fenomeno crunchbar popular plataforma line conecta capitalista riesgo empresa emergente etapa inicial</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>dificil contemplar especialmente afectar nino aparentemente alimentado recibir suficiente caloria alimentar actividad diario sufrir hambre oculto desnutricion micronutrient deficiencia elemento esencial vitamina hierro zinc  fruta verdura pescado carne consecuencia corto plazo incluido retraso desarrollo mental riesgo enfermedad infeccioso susceptibilidad enfermedad cronica vida adulto país bajo ingreso probable desnutricion infantil consecuencio pobreza caracterizado nivel familiar ingreso ambiente vivienda deficiente acceso inadecuado alimento agua potable orientacion atencion salud cuarto nino urbano menor ano presentar retraso crecimiento indicar habiar desnutrido algun tiempo ingreso factor importante</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>cumplimiento derecho fundamental mujer nina igualdad genero aclamar recientemente estrategia innovadoro promover desarrollo inclusivo reducir pobreza comprender naturaleza alcanzar obstaculo igualdad genero fundamental disenar politica eficaz promover igualdad hombre mujer consecuenciar mejorar resultado desarrollo nivel alto institución discriminatorio país origen dificultar probabilidad migracion femenino reducir proporcion migrant población origen consecuencia bajo cambiar positivamente norma discriminatorio igualdad genero</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>organismo encargado cumplir ley indio incautar kg ketamina disminucion significativo kg incautado incautación indicar trafico ketamina disminuir resultado rigor autoridad siguio reciente enmienda ley mayorio país sur asia realizar regularmente encuesta nacional droga informacion indebido prevalencia provenir fuente cannabi droga abuso comun region</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>belgica desempenar relativamente termi yo nivel resistencia mayorio bacteria vigilancia centro europeo prevencion control enfermedad ecdc tasar incidencia infección estafilococo resistente antibiotico adquirido hospital relativamente alto vrijens et tasas mortalidad tratable belgico encontrar baja país ue bajo decreciente mortalidad enfermedad cardiovascular tipo cancer indicar sistema atencion salud eficaz tratamiento persona enfermedad amenazar vida</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>superior país ue notable disparidad tasar hombre mujer figurar caber senalar grecia programa deteccion cancer basado poblacion sistematicos aceptacion deteccion preventivo bajo dificulto tratamiento oportuno actual sistema atencion primaria orientado actividad promocion prevencion salud existir variación formacion conocimiento medico metodo deteccion precoz positivo recientemente agregado lista examen reembolsabl conjunto prueba diagnostico utilizar deteccion</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>aumento nivel educativo contribuido aumento punto porcentual ultimos ano tasar empleo femenino alemania proporcion alto mujer fuerza laboral remunerado país nordico país ocde mujeres soler trabajar tiempo parcial país bajo aumento participacion fuerza laboral asocio disminucion tiempo dedicado trabajo domestico cuidado remunerado alemania lugar ocde mujeres soportar trabajo remunerado padre pasar tiempo nino madre padre alemán propenso compatriota europeo reportar conflicto trabajo vido aumento reciente tasa fertilidad tfr promedio ocde capitulo mediados decado reforma politico social aumentado oportunidad padr encontrar equilibrio trabajo familia</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>creacion junto directivo abrir camino mejorar transparencia procedimiento presentacion inform nivel escolar rol claro fondo adicional gastar él sabiamente acompanado mejora eficiencia fondo publico inversión priorizar él ano educativo aspecto mejorar equidad calidad prioridad fortalecimiento mecanismo control desempeno rendicion cuentas sistema educativo dotacion presupuestario incrementar él lentamente paralelo aumento capacidad sistema absorber programa enfoque</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>representar mejora nino habiar informado borrachera repetido dato autoinformado tender subestimar prevalencia obesidad adulto portugal obeso representar punto porcentual promedio ue patron país ue nivel obesidad nivel educativo doble nivel educado tasa inactividad fisico adulto joven ano encontrar alto país ue</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>igualdad coeficient hombre mujer rechazado nivel igualdad coeficient hombre mujer rechazado nivel causas violencio pareja intimo violencia sexual investigar estudio longitudinal victima estudio rastrear persona tiempo documentar experiencia violencia experiencia relacionar factor etapa vido desafortunadamente estudio tipo medicion condición social cultural considerar él factor riesgo condicion mujer norma genero plantear serio desafio especialmente país cultura pobrezar estr asociado factor clave contribuir violencia parejo</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>disminucion numero estudiantes traducir descenso eficiencia educativo disminuir proporcion alumno profesor infrautilizar instalación descenso numero matriculación amenazar calidad programa estudio disminuir oferta curso numero instructor descenso numero estudiantes agrava problema escala preexistente enfrentar institución universitario publica lituana numeroso pequena</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>país reportar requisito presupuesto genero nivel central gobierno figurar país informar establecer requisito región egipto jordania autoridad palestina egipto autoridad palestina informar haber él nivel local autoridad palestino requisito implementar nivel expandeir lentamente sector</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>falla mercado implicar competencia suficiente garantizar control costo necesitar medida mejorar funcionamiento mercado oferta demandar reemplazo sistema dual seguro publico obligatorio tercio poblacion tercio dependiar seguro privado voluntario sistema ciudadano pagar primo tarifa plano fijado libremente aseguradora asegurador salud eleccion contribucion relacionado ingreso fondo compensacion riesgo cubrir gasto salud</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>modelo ambulatorio especialista ver seleccion caso preseleccionado medico atencion primario utilizado país ocde tal caso especialista salud mental visitar clinica salud primario revisar personal clinico salud primario pequén seleccion caso incluir reunion clinico paciente general red salud mental reuniria periodicamente coordinar capacitar fin requerir incentivo medico atencion primario cumplir pauta tratamiento protocolo practicar establecido</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>articulo ley familio requerir mujer permanecer alojamiento proporcionado marido mujer derecho aplicar articulo estipular contrato matrimonio probar impedimento sustancial judicial texto pretender abordar responsabilidad esposo proporcionar alojamiento lugar obstaculizar movilidad esposa informacion proporcionado gobierno bahrein tipo custodio bahrein i custodia preferencia padre relacionado asunto financiero matrimonio establecido ley custodio asunto financiero ii custodio preferencia madre relacionado custodia materno lactancia materno establecido articulo ley familia informacion proporcionado gobierno bahrein abuso fisico incluir golpe bofetada punetazo asfixio empujón quemadura tipos contacto resultar lesión fisica victimo</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>edad medio docente ano educacion primaria educacion secundario docente primaria docente secundaria inferior teniar ano cifra significativamente alto promedio ocde respectivamente habilidad cognitiva personal docente determinante significativo diferencia internacional desempeno estudiante hanushek piopiunik wiederhold</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>periodo critico organizacion global mujer aprender llegar continente comunicación internet comprender diversidad fuente fortalezo creatividad crisis continuo forma politica feminista comenzar establecer vinculo conexión tema macroeconomiar ecologia salud derechos sexual reproductivo sdsr sustituto politica tradicional control poblacion capacidad desarrollista responder demanda feminista nivel nacional erosionar medido institución fragmentar ataque neoliberal</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>faltar habilidad general particular alfabetizacion aritmetico problema empleabilidad plazo dificil volver capacitar él adaptar él necesidad cambiant mercado laboral retrasar seguimiento alumno contribuirio paliar falta competencia general acceso escuela general secundario profesional formacion profesional hincapie habilidad practica reagrupar cuarto estudiantes figurar actualmente lugar ano frente ano mayorio país ocde</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>figura mostrar relacion gasto educacion publica pib corea alto promedio ocde pib historicamente gasto educacion estab él gasto gobierno variacion limitado fuerte apoyo gobierno crecimiento nacional estabilidad indicar fuerte compromiso corea educacion mayoria función gubernamental restante mostrar tendencia inconsistente volatil cambio necesidad social prioridad politica desarrollo economico social</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>cantidad maestros lider escolar proporcion  significativo escuela clase pequenar pais estricto norma dotacion personal cantidad personal reducir presupuesto escolar creer rigideces desplazar inversión area gasto escolar escuela rural dedico remuneracion personal significar presupuesto ajustado director margen maniobra limitado administrar recurso eficiente invertir actividad desarrollo escolar particular cantidad personal desalientar mejora remuneracion baja kazajistar complejidad estructura salarial docente dificulto analisis definicion tamano clase compensacion recurrente impacto gasto naturaleza intensivo mano obra educacion clases pequena requerir cantidad docente clase liberar recurso mejorar calidad ensenanza</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>experiencia internacional demostrado importancia atencion primaria enfoque prevencion mejorar resultado salud contener costo gobierno planear expandir atencion primaria areas rural establecimiento hospital nivel condado centro local atencion medica eggleston chino briics país desarrollo sistema salud seguro social enfrentar desafio recaudar contribución seguridad social informalidad mercado laboral problema faltar intercambio informacion fondo escaso tic gobierno lanzado iniciativa abordar problema incluido recaudacion integrado contribución programa seguridad social avanzado tic aiss</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>articulo codigo estatuto personal mujer respetar prerrogativa marido deberar obediencia sustituir disposicion obligar conyuge tratar consideracion solidaridad operar manejo asunto familia efecto conyuges tratar él bondad convivir evitar hacer él dano cumplir deber conyugal correspondo cooperar asunto hogar familiar hijo educacion incluido estudio viaje asunto financiero esposo cabeza familia responsable sustento economico espós hijo medio economico espós contribuir economicamente vida familiar medio economico articulo obligacion constituir reconocimiento papel economico mujer traer orden estatus familia</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>parecerio debilidad estandar acordado actualmente escocia deberio considerar incluir medida informado paciente incluido satisfaccion experiencia paciente sistema salud ocde país nordico canado ejemplo utilizar medida informado paciente marcos responsabilidad contratacion ocde esfuerzo servicio responder necesidad preferencia paciente inclusion objetivo ayuda subrayar necesidad enfocar sistema objetivo rendimiento sistema relacion objetivo entrada impulsor objetivo cumplido exito exito</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>programa mujer liderazgo mwa defender evidencia investigacion demostrar desventaja norma afirmar mwa sesgo inconsciente forma ver evaluamo mujer creer barrera invisible liderazgo mujer mwa relacion norma social descrito anteriormente sesgo inconsciente manifestar comportamiento lider superior responsable tomar decisión cuyo actitud negativo obstaculizar ascenso mujer puesto superior</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>detalle metodo encuesta pregunta encuestado proporcionar anexo atencion primario ambulatorio seguro vital importancia país fortalecido trav politica luchar acceso universal atencion salud informe atencion primario ambulatorio seguro país ingreso bajo lmic sigla ingl país ingreso medio alto alto país desarrollado simplemente hic sigla ingl nación desarrollado ventaja construir estructura institución necesario sistema salud medido construyen establecer nación desarrollado dificil tarea adaptar seguridad sistema completamente formado oms et hallazgo recomendación serar inter proveedor atencion medica organización audiencia principal informe responsable formulacion politica buscar mejorar seguridad paciente atencion primariaambulatoria contexto recurso limitado similar terminologia informe modificar caracteristica prioridad riesgo especifico entorno primario ambulatorio</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>institución mercado laboral politica publica norma social reforzar rol genero tradicional especialmente alemania occidental reforma politico social ultimo decado aumentado oportunidad padr enfoque politico familiar alemán objetivo proporcionar padre hijo tiempo junto fomento asociacion igualitario reparto responsabilidad laboral vida familiar partne rschaftl ichke it mejor practica internacional reforma conducir aumento numero padr ausentar</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="n">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>historia geografio finlandio atrapado poderoso reino oeste imperio obligo priorizar inter nacion permitir politica educativo victimo politico partidista finlandio pequén nacion resto mundo ver lugar extrano idioma entender siglo finlandeses adoptado idea unico sobrevivir nacion pequena independiente educar persona</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>servir marco general orientacion tema especifico diverso areas contener serie disposición importante relacionado participacion mujer vida publicar herramienta condición previo institucional necesario país mena adoptado recomendacion disposición servir guia util accion enfocado cerrar brecha restante region recuadro garantizar nino nina acceso educacion calidad derecho oportunidad completar exito educacion tomar decisión educativo</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>aumentar gasto publico salud alentar participacion trabajador informal dependiente ampliar cobertura seguro salud ayudar aliviar restricción financiero plazo documento organizado seccion brindaremos descripcion general desarrollo sistema atencion medica vietnamita discusion actual desafio financiamiento prestacion servicio</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>dominio administracion evaluar faltar dato indicador seleccionado indicar necesario mejorar capacidad sistema informacion respaldar esfuerzo monitoreo evaluacion hspa servir referencia medir mejora dominio evaluacion tiempo particular prevalencia obesidad alto ue representar importante desafio salud publicar</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>informacion contenido documento relación areo control efectivo gobierno republico chipre andradir ofa contribucion educacion ocupacion actividad estimulacion cognitivo formacion reserva cognitivo dementiar and neuropsychologia vo working paper roarm centro investigacion educacion mercado laboral roa maastricht</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>allo escuela equilibrio vida laboral personal permitirio mujer matricularar curso profesional capacitacion trabajo mujer perseguir aspiración individual profesional mejor satisfaccion laboral ejercer papel protector salud fisico proteger trastorno mental barnay</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="n">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ejemplo sugerido modalidad tratamiento rentable trastorno soler sintoma grave debilitant trastorno mental ejemplo psicotico capitulo excluir deliberadamente caso grave trastorno mental incluir caso grave trastorno común depresion ansiedad gravedad trastorno determinado numero gravedad sintoma grado deterioro funcional duracion sintoma trastorno leve moderado impedir salud funcionamiento diario calidad vida persona afectado requerir diagnostico tratamiento atencion adecuado</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ley destacar necesidad aspecto sistema evaluacion interno transparente general documentacion proceso evaluacion profesorado disenado aplicado nivel escolar proyecto ley presento parlamento marzo actualmente debatir medida profesor avanzar estructura carrera profesional acceso puesto mayor responsabilidad centro escolar</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>definicion establecido presupuesto genero referir evaluacion presupuesto basado genero incorporo perspectivo genero nivel proceso presupuestario reestructurar ingreso gasto promover igualdad genero consejo europa naturaleza calidad enfoque parecer variable declaracion pro formar impacto igualdad genero adjuntar politica presentar gobierno evaluación impacto genero estructurado sistematica país informar igualdad genero transversalizadora responsabilidad recaer ministerio sectorial promover agenda respectivo dominio politica consecuenciar prevar papel particular proceso presupuestario necesario</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>dato referir estonia finlandio francia mexico dato referir australia país bajo reino unido alemania obtener detalle definicion trabajo remunerado trabajo vease miranda v cooking caring and volunteering unpaid work around the world documento trabajo social empleo migracion ocde num</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>objetivo ley contrarrestar discriminacion directo indirecto motivo genero statistics greenland publico recientemente estudio ingreso statistic greenland diferenciar general tercio favor hombre reflejar diferencia genero diferencia educacion posicion jerarquia hombre sobrerrepresentado grupo edad caracterizado mayor ingreso</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>estimación ecuación confirmar vinculo indirecto nivel discriminacion motivo genero institución social ingreso cuadro mostrar fuerte relacion negativo significativo sigi productividad factor fuerza laboral capital humano cualquiera especificacion utilizado anexos f g presentar resultado completo regresion coeficient sigi seguir significativamente negativo introducir variable control adicional controlar endogeneidad realizar verificación robustez</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>orientacion profesional proporcionar imagen completo distinto via sistema educativo abarcar particular opcion formacion profesional orientacion educacion formacion profesional papel importante desempenar ayudar persona identificar utilizar habilidad desarrollado curso educacion formacion construir carrera satisfactorio orientacion profesional universidades respaldar transición efectivo lugar trabajo involucrar empleador trav feria profesional taller empleador brindar oportunidad aprendizaje relacionado trabajo ayudar garantizar habilidad graduado utilizado</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>problema salud mental incluir trabajar parte ministerio allo division bienestar salud mental ejemplo politico empleo prestar atencion problema salud mental areas empleo apoyo regreso trabajo educacion marco legal herramienta clave gobierno central promulgar cambio line direccion politico traves ley analizar detalle capitulo mhlw indicar direccion politico nacional asegurar financiamiento requerido</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>probable invocacion derechos individual inclusivo impacto desecuritizacion reivindicacion derechos exclusivo grupo resultar violacion derechos humanos dimensión individualcolectivo inclusivaexclusivo formulacion derechos importante genero tiempos paz tiempos guerra definicion apuntar interdependencia nivel individualcolectivo reivindicación derechos humanos mujer depender derecho individual identidad colectivo contexto guerrir reivindicación colectivo derechos mujer especialmente invocar exclusivamente impacto seguridad reificar identidad genero jugar estrategia etnopolitica</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>sugerir pagar proveedor funcion cantidad actividad realizar fuerte incentivo hospital extender estadia paciente prestacion atencion plazo hospital aumentar duracion medio estancia jón resultar proveedor atencion primaria incentivo financiero convertir él mini hospital brindar procedimiento quirurgico apropiado seguro</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>sesion organizar septiembre incluir probar conocimiento alumno ultimo lugar abril incluir prueba prueba utilizar forma permitir evaluacion necesidad alumno posterior elaboracion plan actividad formativo adaptado alumno concreto permitir evaluacion progreso alumno curso escolar</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>seccion investigar estrategia promover formacion profesional calidad incluido aprendizaje seccion centrar apoyo estudiant riesgo descripcion detallado evaluacion sistema educativo letonia vease ocde ministerio educacion ciencia moes nacional funcion supervision traves centro nacional educacion subordinado establecer estandar educativo nacional determinar plan estudio procedimiento examen proporcionar marco regulatorio provision educacion vocacional emplear director establecimiento vet mantener registro estandar ocupacional estudiar demanda habilidad mercado laboral</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>seccion explora distribuir responsabilidad evaluacion país interactuan nivel gobierno formar sistema evaluacion coherente incluir alcance evaluacion areas aprendizaje cubre evaluacion caracteristica procesal clave evaluacion estudiantes país combinacion instrumento utilizado sistema especifico evaluacion estudiante formato evaluación tic evaluacion revisa formas diseno evaluación mejorar amenazar justicia equidad educacion incluir tema tal capacidad estudiant necesitar participar aprender evaluacion competencias evaluacion docente adquirir formacion docente inicial desarrollo profesional arreglo moderacion experiencia agencia involucrado evaluacion estudiantes describir estandar calidad formato inform utilizado contexto revisa marcos legal vigente regular informe resultado analizar forma resultado evaluacion utilizar contexto registrar informacion brindar retroalimentacion estudiante tomar decisión desempeno trayectoria educativo posterior</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>importancia capturar multitarea capturar intensidad mujer emplear tiempo estandar internacional medir actividad simultanea base dato tiempo ocde objetivo mejorar comparabilidad país ocde cuadro base metodologia ocde analisis país adicional explorar impacto trabajo cuidado remunerado contexto ingreso bajo medio sudafrico peru etiopio bangladesh anexo</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>numero país contar ley especifico prohir discriminacion pago contratacion motivo genero embarazo wbl databar unico país contar dicho legislacion chile costa rico egipto indonesio federacion ruso tunez evidenciar existente país ocde mostrar publico informado derecho trabajador ocde capitulo</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>tabla ilustrar pedagogia establecido tender conducir tipo experiencia aprendizaje combinacion pedagogia compartir practica común ayudar reducir ventaja desventaja demasiado pedagogia ejemplo escuela estudiantes practicar aprendizaje basado indagacion maestros sentir él seguro combinar enfocar desafio proyecto complejo saber estudiante competente administrar aprendizaje estudiar combinación común pedagogia ayudar identificar practica común pedagogia presentación aprendizaje autoevaluacion estudiantes</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>empresa farmaceutica buscar proteccion patente país cosa percepcion falta tamano mercado país existencia ley nacional patente sustancia farmaceutica permanecer patente poder usar él fabricar él importar él libremente pais inventor original cambiar opinion busca proteccion patente momento posterior solicitud serio rechazado falta novedad sustancia cuestion puesto disposicion publico presentacion solicitud patente</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>superintendencia educacion integrado sistema nacional aseguramiento calidad sistema nacional aseguramiento calidad sac brindar potencial vincular monitoreo recurso calidad educacion sac brindo marco institucional util promover efectivo recurso sistema relativamente complementar mecanismo rendicion cuenta institucional chile desarrollado tiempo incluir sistema evaluacion docente evaluación secretaria haciendo direccion presupuesto dipr dato detallado informacion distribuido publico medido crecer desarrollar plenamente tiempo efecto sac sentiran plenamente</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>supervision eficaz personal fundamental mejora continuo servicio eapi indicar importancia vincular supervision personal desarrollo profesional calidad servicio areo monitoreado frecuencia mejorar nivel calidad servicio informar formulacion politica monitorea desempeno personal identificar necesitar mejora encuesta padr revisión pares prueba personal popular</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>comparable promedio g ocde significativamente alto francia bebedor empedernido consumir mitad alcohol ocde datos australia reino unido unidos lugar disminucion tasa suicidio dato estimado autoridad coreano continuo pasar habitante ministerio salud corea suicidio principal causa muerte adolescente corea</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>tarea administrar infraestructura particularmente dificil capacidad junto escolar capacidad recaudar fondo comunidad local menor area rural edificio escolar mala condición mayorio construido ano cien escuela primario desempeno pais medido nivel repitencia desercion alumno ubicado mayorio zona rural area capital pen indicio estudiante escuela primario pequena probabilidad transicion escuela secundario</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>tasa alfabetizacion adulto medir alfabetizacion persona ano tasar alfabetizacion joven medir alfabetizacion persona ano calculo agregado tasas alfabetizacion adulto ui recopilado registro escolar tasa supervivenciar encuesta censo escolar censo nacional poblacion encuesta hogar fuerza laboral dato obtenido mayo junio</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>impacto directo capacidad mujer acceder recurso controlar él país incluido marrueco republico corea turquia comenzar periodo amplio disposición discriminatorio avanzado significativamente ley familia igualdad genero país argelio bangladesh egipto republica islamico iran jordania malasio pakistar arabia sauditar mantenido ley altamente discriminatorio ejemplo respaldar autoridad hombre mujer matrimonio hombre mayor derechos propiedad limitar capacidad mujer solicitar divorcio país abarcar región aplicar interpretacion conservador ley familia islamico llevar cabo reforma menor ley familio resistir cambio importante</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>tasa participacion mujeres fuerza laboral mantener ciento norte africa asia occidental ciento sur asia ciento caribir americo central brecho tasas participacion mujer hombr reducido ligeramente ultimos ano considerable brecha genero pequena encontrar ano edad adulto amplio edad laboral optima economia desarrollado mano obra especialmente mano obra femenino emplear predominantemente servicio</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>articulo parrafo convencion adopto principio inadmisibilidad contenido convencion viena derecho tratado establecer permitira reserva incompatible objeto convencion instado sistematicamente parte retirar aseguren sistema juridico ajustir convencion general articulo particular comite enfatizado articulo central objeto proposito convencion reserva impactar negativamente disfrutar derecho mujer reserva articulo contradecir principio fundamental convencion igualdad hombre mujer socavar esfuerzo país lograr igualdad genero</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="n">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>universidad maastricht aplico pbl programa objetivo generar estudiante independiente emprendedor resolver problema universidad emplear versión pbl modelo educativo simular entorno trabajo orientado investigacion brindo estudiante habilidades llevar carrera ejemplo facultad salud medicín ciencia vida maastricht primero universidad europa implementar pbl estrategia educativo dominante educacion medica escuela negocios economio universidad maastricht utilizar pbl programa grado ano</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>revista politico economia salud mental vol jahrhunderts exclusion social persona trastorno mental equilibrio perspectivo psiquiatria comunitario principio siglo xxi fortschritte der neurologiepsychiatrie vol repper empleo inclusion social salud mental journal of psychiatric and mental health nursing vol</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>poner adicional vicepresidente upazilar parishads pais exclusivamente candidata candidato elegido voto directo cargo reservado mujer the daily star vicepresidenta upazilar parishads pai poder comenzar función elección gobierno emitio circular puesto recien creado</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>alto tasa analfabetismo mujer indigena analfabeta sep tasa ido mejorar cohorte mujer ano analfabeta dato inmujer proporcionado ocde mexico desempeno inferior lectura puntaje promedio mexico punto promedio ocde porcentaje nino nina rendimiento mexico doble porcentaje promedio ocde materia cifra ocultar diferencia mayor joven ano desfavorecido abandonar escuela captado estadistica</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>barrera social incluir falta conocimiento derechos analfabetismo faltar informacion dependencia familiar varón recibir asistencia recurso filipino cometer eliminacion discriminacion mujer comunicacion comite fallo desprender claramente evaluacion credibilidad version hecho autora influido serie estereotipo autoro situacion seguir esperar victimo ideal racional juez considerar respuesta ideal racional mujer situacion violacion ordenar pago indemnizacion adecuado comite ordeno garantizar procedimiento legal caso relacionado delito violacion delito sexual imparcial justo estir afectado prejuicio noción estereotipada genero</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>actividad operativo relacionado educacion vocacional formal formal responsabilidad gobierno distrital municipal idealmente distrito amalgamar provision vocacional smk super ofrecer variedad materia escuela smk revisado equipo permanecer medida enfocado oferta historica materia dado alto inversion capital requerido educacion vocacional escuela visto limitada curso ofrecer instalación equipo heredado innovacion adoptado ministerio introduccion iniciativa escuela modelo vocacional establecer super escuelo smk escuela modelo recurso actuar centro escuela satelitir actualmente escuela tipo intencion crear</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>tasa tea impulsado oportunidad uruguay chile plurinacional bolivia peru ecuador brasil colombia argentina kelley emprendimiento mujer global entrepreneurship monitor gem dato pai indicar participacion mujer empleadora fuerza laboral oscilo minimo argentino republico bolivarián venezuela ecuador uruguay maximo paraguay empleador grupo heterogeneo operar empresa tamano composicion origen mayorio empresa mujer empresaria emplear trabajador oit d momento</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>medida urgente consistir marcha infraestructura informacion integrado permitir decelerar disfunción garantizar libre circulacion informacion prestatario paciente estructura au niveau des cabinet medicaux participacion paciente medida notificacion disfonctionnements est essentielle reussite des esfuerzo permanente ceuvre pour ameliorer securitir passe par une culture active securitir axee sur lamelioration colectivo et travail dequipe</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>estrategia nacional desarrollo sostenible incluir gama adicional actividad buscar reducir riesgo ambiental mejorar salud bienestar rumaniar nivel alto resistencia antimicrobiano ue dato vigilancio mostrar infección torrente sanguineo klebsiella pneumoniae resistent carbapenemico importante clase antibiotico ultimo linea tratar infección bacteriana porcentaje alto mediano ueeee alto ueeee ecdc b</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>asociación incluir organismo comunitario local empresa institución cultural incluido museo biblioteca socio extraido educacion superior fundamental ampliar horizonte aprendizaje estudiantes personal ofrecer experiencia adicional proceso constante desarrollo igualmente importante asociación escuela entornos aprendizaje traves red aprendizaje profesional</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>brecha hombre mujer diferir considerablemente raza brecha alto hombre mujer estudiant afroamericano mujer graduar brecha estudiante nativo alaska mujer nativo alaska graduar hombre hombre nativo alaska teniar tasa graduacion bajo grupo etnico genero brian laurent comunicacion personal noviembre</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>argumento solido fortalecer infraestructura informacion calidad torno hospital desarrollar orientación politica impulsar mejora resultado atencion hospitalario planificar especializacion diferenciacion claro funcion camos hospitalaria paso fundamental asegurar adecuado recurso hospitalario mejorar resultado eficiencia asistencial base indicador ocde relacionado estimacion supervivencia ano cancer japon desempeno</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>identificado caso fuente brote incierta informar caso hepatitis viral transmitido agua uvurkhangai aimag comparacion observo disminucion caso sifili congenitar registrar caso sifili congenitar caso registrar ulaanbaatar disminucion caso sifili congenitar atribuyo control embarazo</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>correlación innovacion equidad oportunidad aprendizaje debil figurar particular distribucion puntaj innovacion sistema educativo equidad termino oportunidad aprendizaje contrastar notablemente medido igualdad rendimiento lectura descrito anteriormente sistema educativo equitativo hong kong corea singapur promedio terminos innovacion general</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>escuela interesado mejorar reputacion enviar cantidad graduado institución prestigioso conducir miriado tecnica mejorar rendimiento mantener flote industria innovador productor proveedor dispositivo trampa curso tutorio preparacion examen costo adicional proporcionado prospero sector privado</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="n">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>bwf organizar capacitacion especializado alentar mujer integrarse sector empresarial desarrollar habilidad dirigir empresa fortalecer creacion red empresaria palestino contrapart extranjero representar defender interés miembro autoridad correspondiente organizar seminario taller diverso tema tratamiento entorno normativo legal bwf coopero proyecto global bidnetwork realizacion proyecto competencia plan negocio mujer empresaria mercado emergente autoridad palestino papel principal brindar capacitacion mujer palestino plan negocios poder competir</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>dato país bajo referir diferencia suizo estadistica tabular sexo unico fundador empresa lugar sexo propietario unico país ordenado izquierda derecho orden ascendente cambio nacimiento empresa propiedad mujer politica estimular espiritu empresarial mujer basar él analisis exhaustivo factor impedir desalientar emprender</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>escuela autoridad local rayons flexibilidad invertir recurso humano aumentar plantilla salario profesor necesario invertir recurso fisico edificio escolar equipamiento escolar pizarra inteligente existente insuficiente anticuado general gobierno local regional discrecionalidad gasto norma determinar asignar él recurso transferencia intergubernamental efecto igualador limitado motivo preocupacion faltar consultar parte interesado significar estrategia educativo reflejar plenamente rico diversidad pai cantidad dedicado educacion escolar pib considerablemente inferior medio ocde ultima engloba gasto postsecundario terciario</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>respuesta nacional escasez atraer estudiante estudios ciencia tecnologia educacion obligatoria tendrar beneficio particular politica cambio climatico aprendizaje vida desempenar papel importante proporcionar trabajador edad avanzado habilidad basica clave carecer contribuir mejorar conciencia ambiental eficiencia recurso habito consumo poblacion general formacion aprendices tipo experiencia practica considerar particularmente valioso aumentar adaptabilidad trabajador mercado laboral cambiant país operar sistema dual educacion formacion profesional austria alemania particularmente posicionado</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>esfuerzo mejorar situacion mujer nina indio cont ejemplo ley nacional garantia empleo rural india nregar objetivo promover participacion mujer fuerza laboral establecimiento cuota explicita participacion femenino plar establecer salario igual hombre mujer permitir proporcionar instalación cuidado nino lugar trabajo exigir provision trabajo cerca hogar participante ocde programa lograr otorgar mujer salario alto empleo rural privado holm jón criticar alto costo bajo eficiencia niehaus sukhtankar corrupcion liu deininger falta guarderia lugares trabajo cerca bhatty hombre probabilidad mujer institucion financiero formal hombre mujer mayor ano demirguckunt klapper</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="n">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>sucursal pequena estudiante brindar educacion estudiante sexto grado región geograficamente remoto ciudad tamano escuela superar alumno educacion obligatorio alumno ano ofrecer denominado escuela basica organizar estructura unico distincion primario secundario inferior actualmente escuela esloveno emplear cantidad personal apoyo profesional personal retenerlo independientemente tamano escuela sistema costoso</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>tasa persona ano educacion terciaria generalmente linea poblacion general país acercar tasa persona ano diferenciar persona ano nivel educativo alto particularmente hungrio polonia espana ocde usuario educacion terciaria realizar promedio actividad educacion secundaria inferior inferior realizar actividad</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>tendencia variable examinar dato comparable disponible estudio caso examinar reforma politica adoptado país mejorado pisa destacar volumen proporcionar justificacion evaluar habilidad resolucion problema describir desempeno país volumen destacar fortaleza debilidad relativo sistema escolar examina relacionar caracteristica individual estudiante genero origen inmigrante estatus socioeconomico</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>posibilidad matrimonio poder terminar divorcio mujer buscar obtener empleo remunerado permitir independiente caso ruptura union marital hassani sjograr ordenar parte garantizar base igualdad hombre mujer derecho responsabilidad padr independientemente civil asuntos relacionado hijo d derecho responsabilidad tutela tutela tutela adopcion nino institución analogar concepto existir legislacion nacional f agregar ambos clausula caso interés hijo serar primordial marido general tutor legal hijo menor matrimonio caso disolucion madre conservar custodio hijo alcanzar edad pais tendra ceder padre mayorio decisión principio tutela</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>encuesta realizado oms suhrcke et discusion satisfaccion paciente proporcionar informacion dimension calidad caracteristica atencion clinico cancer establecido seguir pauta clinica basado evidencia estimar tercio caso curar él atencion oportuna deteccion tratamiento adecuado ocde resultado tratamiento cancer servir medida calidad sistema salud</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>actual profesor programa ite exito recomendar apoyo formacion continuo antiguo alumno profesor licenciado resultar dificil influir estructura practica desigual relacionado diversidad norma intercultural escuela forma mejorar creacion alumnado diverso programa ite mayorio estudiantes finlandeses nativo defensa contenido ite formacion general profesorado universidad oulu alasuutari jokikokko ii contrario cohorte anterior aferrar él enfoque crucial profesor actual adaptar él entorno continuo cambio driel darmody kerzil p ij programa desarrollo profesional continuo incluir apoyo estudiante magisterio transicion cuerpo docente provision oportunidad practicar estrategia gestionar diversidad profesion</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>rebecca kadagar mujer presidento parlamento uganda necesario centrar él allar aumentar numero mujer gobierno aumentar eficacia cargo politico impacto tomar decisión nivel siguiente estrategia resultar exitosa aumentar representacion mujeres tomar decisión commonwealth respaldo partido politico estudiar proceso politico país seleccionado ascenso incremental mujer país atribuir él directamente partido politico especialmente partido gobernante tomar decision firme institucionalizar mecanismo favorable acceso mujer posición autoridad estructura partido gobierno nivel tomar decisión</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>mauricio ejemplo plan pension social universal pension basica jubilacion ascender mes equivalente line pobreza medido mujer depender hombre prestación contributiva adecuacion prestación motivo preocupacion perspectivo igualdad genero combinacion pensión vejez contributiva contributiva forma efectivo avanzar piso proteccion social nacional</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>reforma presupuesto federal principio orientacion resultado considerar oportunidad elaboracion presupuesto perspectivo genero promover politica igualdad genero austria objetivo utilizar fondo existente equitativo lograr igualdad efectivo mujer hombr presupuesto nacional base clave gestion presupuestario sensible genero autoridad publica constitucion federal austria federacion laender municipio aspirar igualdad condiciones mujer hombre gestion presupuestario</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="n">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>alumno noruego quinto grado poblacion principal obtener puntuacion medio superior finlandia dinamarca nuevamente puntaj noruego significativamente bajo principalmente menor edad cambio poblacion principal grado puntuacion noruego ciencia ligeramente puntuacion sueco estudiante noruego noveno grado obtener puntuacion medio matematica puntuacion medio ciencia estudiant edad estudiante sueco octavo grado mostrar figura país nordico finlandio resultado variación pequena promedio ocde periodo</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="n">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>contexto amplio proyecto desarrollado modelo microsimulacion prevencion enfermedad cronica cdp modelo epidemiologico cdp capaz simular dinamicar poblacional factor riesgo orientado estilo vido enfermedad cronica seleccionado impacto salud intervención junto costos produccion conjunto necesariamente aditivo</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>mujer ano bishkek conto historia entrevista acosado hombre kirguís conocia viajar taxi registrado conductor uzbeko conto historia companerar trabajo kirguisa camarera cafe companera trabajo perseguir hombre kirguís tenia relacion romantico cocinero uzbeko mujer reflexionar influencia episodio elección considerario relacion hombre kirguis gustario temor acoso grupo patriot kirguistar probable lugar trabajo hacer mujer hombre migrant conexión mixto actividad ocio alojamiento entorno probable mujer familiaricir persona país distinto pai origen</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>calidad dejado demostrar marco gestion desempeno recientemente introducido medico atencion primaria seguirar sistema similar hospital grupo paciente informar involucrado formulacion politica acordado memorando cooperacion intersectoriales industria tema clave salud publicar educacion medica excelente facultad medicina letonia mantenido reputacion mejor mundo exsovietico</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>elemento intervencion mercado mujer disenar él torno barrera clave atenuar efecto acceso financiero fortaleza direccion estrategico mandato institucion financiero encuesta global país commonwealth cubierto incorporo respuesta banco requerir documento ciento país cgap banco mundial requisito documentacion soler combinacion prueba identidad probar direccion residencial bancos camerun sierra leona uganda zambia exigir forma documentacion incluir documento identidad pasaportir carta recomendacion recibo sueldo prueba domicilio requisito previo abrir corriente punto entrada acceder servicio bancario formal</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>atencion salud publicar principio ofrecer servicio basico atencion salud gratuito sistema salud mayorio sufrir gasto insuficiente deficiencia gestion dejar atencion insuficiente resultado mayorio persona recurrir proveedor privado atencion medico variar dramaticamente calidad cobrar servicio esfuerzo salud publicar ultima decada contribuido mejora demostro recientemente reciente erradicacion poliomielitis ambicioso campán inmunizacion esperanza vida mayorio país ingreso medio resultado salud fuertemente influenciado factor socioeconomico genero educacion geografia balarajar et</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>país bajo servicio hospitalizacion gratuito alcanzar deducible general anual paciente privado hospital publico privado medicare cubrir proporcion reducido costo costo restante pagar seguro salud privado bolsillo paciente publico representar ingreso hospitalario paciente cubierto seguro salud privado instituto australiano salud bienestar</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="n">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ccss establecio recientemente programa monitoreo calidad atencion primario seccion plan desarrollar programa similar hospital suficiente calidad resultado atencion costa rico iniciativa importante marcha marco monitoreo desempeno atencion primario calidad emerge idea rector dominante atencion salud costarricense pensar calidad termino limitado tipicamente tiempo esperar significar persistir brecha importante infraestructura informacion sistema salud observatorio nacional cancer ejemplo autoridad poder producir dato estadio cancer momento diagnostico vital comprender eficacia programa deteccion prevencion solicito</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="n">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>reducción tasar mortalidad diabet disminución enfermedad renal mejor resultado salud estudio demostrar rentabilidad fortalecer atencion primario salud zhao et areas volumen paciente inviable hospital especialista lugar percibido profesional salud atractivo vivir</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="n">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>centro educacion basica alternativo ebo ofrecer ano plan estudios alternativo sustitucion ano durar ciclo ordinario primario nivel secundario constar ciclo ano completar ano escolaridad acceder ciclo preparar él ensenanza superior ingresar centro eftp recibir formacion empleo productivo vear figura</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="n">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>coeficiente presentado figura proceder regresión separado incluir control edad sexo nivel educacion nivel educacion padre barra rayado indicar coeficiente estadisticamente significativo nivel coeficient estimar modelo probabilidad lineal variable ficticia sobrecualificacion basado medida normativo desajuste</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="n">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>compromiso promover cohesion familia ver él aislado elemento critico ods realizacion derechos humanos logro igualdad genero empoderamiento mujer nina agenda preambulo ods comprometer explicitamente garantizar acceso universal planificacion familiar ods promocion responsabilidad compartido familia ods impacto enfermedad particularmente país africano vear ejemplo mokomane undg western and central africa</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="n">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>propagacion  vihsido invierte proceso medido organización experimentar trastorno disminucion ingreso socavo logro obtenido anteriormente especializacion division trabajo caido potencial ingreso persón derivado gasto relacionado vihsido provocar disminucion ahorro reorganizacion patrón consumo hogar ver obligado redirigir fondo educacion atencion medica general miembro familio infectado alimento tratamiento atencion persona vivir vihsido pvvs</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="n">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>nivel violencia vario país revision refirio nivel violencia perpetrado pareja intima afectar dato mujer ciento kiribati ciento mujer canado revisara dato disponible nina ano reportar sexo forzado cumplir experiencia nina casado vivir pareja enfrentar violencia emocional fisico sexual cometido pareja intimo ultimos mes</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="n">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>participar trabajo cuidado remunerado ejemplo trabajador hogar remunerada enfermera educadora cuidadora enfrentar condición trabajo precaria menor nulo acceso seguridad proteccion social salario bajo probabilidad caer pobreza participar sector economiar cepal b mujer seguir reconocer remunerada nivel economico politico social amplio situacion consecuencia bienestar hogar persistencia pobreza cepal mujer asumir costo personal funcion social crucial garantizar reproduccion sociedad sostenibilidad politica publica particular politica social</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="n">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>requerir esfuerzo impulsar estrategia economica base empoderar mujer unidad familiar introduccion apoyo programa microcredito mujeres promocion derechos laboral territorial propiedad mujer traves reforma legal integracion mujeres transformacion gestion instituciones seguridad posguerra cerramos recomendación actor estatal local internacional incluido naciones unidas organización regional donant bilateral gobierno nacional organización sociedad civil comunidad investigacion nacional internacional mujer retratada complejidad simplemente victima indefenso inocente victima agent activo cambio reflexión parte mundo llaman atencion dinamica participacion desarrollar escenario local nacional internacional</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="n">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>economia desarrollado via desarrollo mujer alcanzar igualdad hombr medida tal logro educativo salario empoderamiento politico participacion economico ernst young p mujer rezagada ligeramente hombre resultado salud foro economico mundial ano foro economico mundial wef producir indice medir brecha relativo hombre mujer area clave subindices salud educacion economia politico realizar seguimiento progreso tiempo</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="n">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>curso financiado tasa regulado elevado crecido numero seguir representar relativamente pequén educacion terciaria aumento porcentual numero estudiante nivel superior medio ocde figurar panel proporcion estudiante matriculado nivel educativo relacion poblacion alta comparacion mayorio país ocde figurar panel b</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="n">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>dato estudio caso indicar mitad municipio luchar implementacion afl trabajo esfuerzo asegurar exito actor gobernanzar lider escolar requerir capacitacion apoyo adquisicion conocimiento investigacion desarrollar competencia areo permitir él facilitar cambio necesitar conocimiento contenido proceso cambio funcionar supuesto teorico subyacer paradigma ensenanza</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>dar infraestructura dato integrado completo hospital seguridad entorno potencialmente atractivo investigador dificultad serie estudio innovador examinado seguridad atencion primaria ambulatorio faltar dato consistente variedad metodo utilizado medir dano arrojado resultado variado revisión sistematica sugerir falla seguridad ocurrir consulta atencion primariaambulatorio hann comunmente provenir error diagnostico retraso posterior tratamiento terapiar evento adverso medicamento adir</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>excelente atencion medica fundamental lograr él atencion medica japonés desempeno esperanza vida largo anos comparacion promedio ocde ano gasto salud usd ppa per capita ano ligeramente superior usd promedio caracteristica llamativo sistema salud japón aperturar flexibilidad</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>abril lugar estocolmo mision exploratoria incluyo reunión funcionario ministerio educacion investigacion agencia nacional educacion representante institución formacion profesorado municipio escuela independiente sindicato profesor director investigador anexo seccion describir politica actual analizar situacion ofrecer suecia ejemplo prometedor país homologo nivel politico aula escuelo universidad caso municipio region sistema pretender subrayar responsabilidad compartido nivel sistema educativo integracion alumno inmigrante refugiado ofrecer sugerencia politica orientar suecia responder actual reto integracion ambito</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ejemplo republico eslovaco espán paciente pagar producto farmaceutico innovador proporcionar forma gratuito demas país canado paciente pagar producto farmaceutico utilizado tratar enfermedad afección distinto cancer paciente cancer menor ano utilizar hospital dinamarca suecia utilizar sector privado portugal dinamarca suecia limit maximos pagar paciente enfermedad cronica permanente alto medicamento allar medicamento proporcionar forma gratuito</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>director escuela recibir cuestionario minuto cubrio sistema escolar entorno aprendizaje país economia distribuir cuestionario opcional padre pidio proporcionarar informacion percepción participacion escuela hijos apoyo aprendizaje hogar expectativa profesional hijo particularmente matematica país elegir cuestionario opcional estudiante preguntar estudiante familiaridad tecnologia informacion comunicacion buscar informacion educacion fecha incluido interrupción educacion preparar educacion futuro carrera</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>dato tabulado penso perspectiva mujer academica mejorar proximos ano mayoria penso politica mujer promover excelencia educacion superior conjunto tener él derecho hombre minoria comenzar operar legislacion hombre sentar desventaja</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="n">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>usado longitudinalmente escala hono deberiar medir resultado paciente tiempo departamento salud encontrar fideicomiso usar hono servicio implementar hono servicio informe reciente sugerir registro conjunto minimo dato salud mental incluir informe hono the centro informacion sanitaria social herramienta hono formado base herramiento cluster salud mental mecanismo evaluacion pago resultado pbr salud mental seccion</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="n">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>belgico italia cuota empresa cotizar bolso alcanzar mujer directorio factor impulse aumento suecia reglo voluntario codigo gobierno corporativo distribucion equitativo sexo objetivo mujer ocupar medio escano camara baja unica parlamento representacion mujer camara baja unica parlamento aumentado país ocde reino unido mexico portugal espán sufrido retroceso país finlandio grecia dinamarca uip</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="n">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>docente desempenar papel importante vida joven mundo maestros vital desarrollo habilidades estudiantes preparacion estudiantes empleo futuro participacion activo comunidad gobierno mayor esfuerzo apoyar desarrollar profesion docente promover docencia carrera profesional atractivo</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="n">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>brecho participacion laboral mujer pobre pobre cambio inicio decado desigualdad socioeconomica genero estrechamente vinculado reduccion tipo desigualdad requerir abordar conciliacion vida laboral familiar trav politica publica politica promover igualdad socioeconomico genero simultaneamente</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="n">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>docente necesitar apoyo participar activamente transformacion exigir alto estandar estudiantes creciente diversidad aula mayorio país docente recibir formacion previo servicio seguido proceso seleccion formacion continuo posterior proporcionar principalmente travser curso taller evidencia muestra proporcion maestros certificado mayorio formas desarrollo profesional impacto debil desempeno estudiante reforma apuntar mejorar calidad formacion docente exigente procedimiento seleccion desarrollar forma desarrollo profesional elevar estandar curricular</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="n">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>docente optar alinear ensenanza conocimiento habilidad evaluado prueba estandarizado descuidar areas curriculo evaluada problema ensenanza probar enfatizar habilidad tomar examen concentrar él contenido evaluado puntaj inflarar reflejar aumento comprension concepto estudiante hamilton stecher hout elliott</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="n">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>docente actor clave creacion contexto aprendizaje crecimiento ayudar establecer entorno aprendizaje efectivo medido avanzar futuro necesitarar forma provision educativo reconocer papel esencial desempenar docente transformacion aula apoyar esfuerzo capitulo explorar implicación transformacion digital sistema educativo explicar docente responsable politico trabajar junto aprovechar potencial</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="n">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>docente capacidad influir capa disenar pedagogia convertir tarea complejo potencialmente gratificante vital importancia poder evaluar evaluar pedagogia posicion autenticar lugar pretender pedagogia apuntar objetivo relato establecio pedagogia centrado disciplina centrado estudiante fundamental lograr proposito educacion estudio desarrollar pericia carga cognitivo destacar ensenanza explicito conocimiento habilidadser aspecto vital educacion</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="n">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>documento politica nacional directriz curricular nacional eapi escuela primario seguimiento transición inspección respaldar calidad practica transicion garantizar calidad uniforme entorno escuela encuesta padr herramientar comun seguido metodo seguimientir nino ejemplo carpeta informes desarrollo infantil evaluación desarrollo</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="n">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>conclusión informe mundial droga ano dejar comunidad internacional intensificar respuesta frente desafio crisis opiaceos americo norte recibir atencion razon comunidad internacional tomado medida marzo comision estupefacient programar analogo fentanilo incluido carfentanilo contribuir numero muerto basa decision comision periodo sesión someter fiscalizacion internacional precursor quimico utilizado fabricacion fentanilo analogo</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="n">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>entorno aprendizaje deficiente generar resultado negativo infancia cuadro comienzo desfavorable impacto duradero futuro nino recibir adecuado atencion cuidado educativo temprano edad riesgo repeticion curso incompleto titulo escolar desempleo bajo salario barnett heckmir leseman</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="n">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>mujer cambiar trabajo tiempo parcial reducir hora reanudar trabajo querer pasar tiempo hijo enfrentar limitación cuidado nino probable promedio hora trabajar mujer caer hombre introduccion extension licencia relacionado parto politica licencia consecuencia plazo tasa total empleo mujer actitud normativo empleo femenino cambiar consecuencia</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="n">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>estudiante podrar frente revolucion tecnologico digital curso sistema educativo mejorar calidad conducir desempeno estudiante resultado equitativo adquisicion conjunto habilidad conocimiento importante ensenar tiempo motivar estudiante exigir alto estandar estudiantes diferencia requerir actualizar continuamente conocimiento generar integrar tecnologia digital incorporar habilidad horizontal socioemocional fomentar trabajo equipo pensamiento critico resolucion problema complejo</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="n">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>incluir aumento edad contraer matrimonio reconocimiento social legal diversidad formas parejo descenso tasa natalidad medido mujer elegir querer hijo autonomia economico mujer transformación causa consecuencia cambio demografico escala cambio drastico acceso mujer nina educacion empleo cambio normativo idea reforma legal impulsado inspirada activismo mujer esfuerzo concertado retroceder logro decada trabajo igualdad genero negar mujer derecho tomar decisión envuelto recientemente retorico valor familiar</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="n">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>estudiante primaria lituanos estudiante primario país nordico vecino recibir punto maestro registrar diario educacion primaria estudiantes evaluacion sumativo nivel logro estudiantes plan estudios previsto quinto grado periodo adaptacion resultados aprendizaje estudiantes evaluan escala punto validar entrada aprobada aprobada</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="n">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>estudiante obtener puntaj promedio ocde lectura ciencia promedio ocde matematica plan estudiantil destinado fortalecer base planificacion organizacion educativo respaldar evaluacion actual estudiante individual fortalecer colaboracion hogar escuela evaluacion lingistico nino clase jardin infant obligatorio especialmente fortalecer metos lectura matematica ciencia natural ingl objetivo recomendación objetivo vinculante escuela siguierar</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="n">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>importante superar barrera necesario involucrar familia comunidad acción sistematica nivel distrital nacional mejorar acceso adolescente servicio atencion calificado país encontrar etapa desarrollo sistema salud acceso atencion establecimiento</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="n">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>patrocina concurso plan negocio mujer empresaria the women in business challenge generar inter mujer desarrollar idea negocios recibir capacitacion asesoramiento plan negocios existiar distinción significativo genero profundidad necesidad identificado forma brindar servicio desarrollo empresarial efectivo limitación tiempo movilidad socioculturales mujer forma enfoque contenido logistico fundamental provision exitoso sde mujer recuadro</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="n">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>espana presentar informe impacto genero parlamento acompanar presupuesto general marco legal informe inicio ley acción introducir evaluacion impacto genero regulación gubernamental gobierno espanol aprobo guia metodologica elaboracion informe incluir guia impacto genero país nordico brindado liderazgo sustancial psg</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="n">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>economia impulsado conocimiento global competencia velocidad innovacion gobierno particularmente economia desarrollado infraestructura institución establecido priorizar desarrollo completo conjunto habilidad disponible poblacion rara alentar nina dedicar él matematica ciencia probable presentar campo estudiar nino importante matematica ciencia ensenir contexto interesante nino nina actitud positivo materia relacionar relación positivo docente alumno ocde</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="n">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>mayorio persona necesitar adaptar él vida diario desequilibrio pronunciado hombre mujer formar lograr equilibrio grado libertad disponible tomar decisión conducir oportunidad resultado marcadamente desarrollo humano</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>hallazgo sugerir proporcionar identificacion temprano alumno rendimiento apoyo especifico estudiante riesgo quedar él abandonar escuela completo brindar apoyo adicional escuela desfavorecido asignacion adecuado recurso garantizar estudiante recir educacion capacitacion alto calidad necesario participar plenamente sociedad presupuesto escolar priorizar él contratacion mantenimiento recurso humano calificado lider escolar maestro desempenar papel fundamental reduccion desigualdad educativo escuela particularmente estudiante desfavorecido experiencia preescolar</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="n">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>trabajo tiempo parcial frecuente trabajo mayoritariamente ocupado mujer vinculado obligación familiar cuidado desempenar papel segregacion horizontal dato país bajo equivalente tiempo completo dato suizo puesto secretaria incluir puesto tecnico variación importante país ocde suiza unidos comision igualdad oportunidad empleo ee uu polonia mujer ocupar sistematicamente mitad servicio publico puestos tomar decisión promedio representar alto directivo país ocde medio país ocde mando intermedio mujer variación importante país país estonia eslovenia portugal polonia alcanzar paridad genero mayorio mujer categorio ocupacional</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="n">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>desempleo disminuido hombre mujer trimestre ocde tasar desempleo hombre mujer oit ocde b brecha tasa empleo hombre mujer reducir considerablemente nivel educativo promedio tasar empleo mujeres educacion terciaria punto porcentual bajo hombre grafico diferenciar tasa empleo hombre mujeres educacion terciaria particularmente marcado chile republico checo japon corea mexico hirkey llegar punto porcentual</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="n">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>contrastar modelo incluir explicitamente cambio tecnologico incluir costo administracion infraestructuro necesario satisfacer demanda atencion salud proyectado similar modelo impacto ingreso nacional presupuesto salud demanda servicio salud</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="n">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>consagrar principio discriminacion igualdad hombre mujer constitución legislacion laboral desigualdades genero marco legislativo amplio practica continuan afectar acceso efectivo mujer empleo desarrollo profesional sector mujer representar mayorio mano obra regulado protegido disposición legislacion laboral quedar desafio garantizar mujer disfrutir igualdad oportunidad participar influir tomar decisión parlamento gobierno consejo local</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="n">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>informe calidad basar él dato disponible almacir nacional dato informacion referir él serie indicador numero profesor competencia docente materia impartir resultado relativo rendimiento academico bienestar relacion indicador establecido reforma folkeskole nota medio correlacionada origen socioeconomico tasas transicion educacion secundaria superior tasa inclusion alumno necesidad educativo especial efecto seguimiento informe calidad revelar informacion municipio centro escolar individual cumplir objetivo rendimiento evolucionar rendimiento tiempo municipio visitado equipo revision ocde informar disponer procedimiento garantizar control calidad escuela soler implicar reunión anual director centro debatir resultado alumno basado evaluación nacional municipal encuesta alumno personal centro</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="n">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>pareja mujer ano edad hijo ingreso mujer alemania representar promedio cuarto ingreso hogar encontrar patrón similar austria suiza eusilc figura panel b contrario francia suecia dinamarca pareja femenino aportar ingreso hogar promedio capitulo excluir pareja miembro parejo trabajar</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="n">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>maestro soler disfrutar ayudar nino desarrollar él contribucion sociedad motivo rehuir desafio ensenar estudiante desfavorecido probable docente querer trabajar escuela desfavorecido sentir contar apoyo director colaborar colega contar recurso adecuado abordar problema enfrentar lider escolar apoyar empoderir docente atraer docente calificado trabajar escuela desfavorecido impacto positivo clima escolar general</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="n">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>matriculado educacion vocacionaltecnico institución comercial tecnica constituir papel sector manufacturero penang bajo proporcion inscritar institución ultimo estadistico necesitar atencion planificador educativo ultimo decado trabajadora ano educacion comparacion ano trabajador masculino kharas et expectativo trabajador alto nivel educativo pasar trabajo pagado necesariamente</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="n">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>municipio responsable cumplir derecho lugar jardin infancia nino ano edad institución terciaria mayorio autonoma decisión incluido asignar recurso noruego financiacion generoso nivel sistema educativo institución educativo publica privado nivel obtener financiacion fuente publica educacion publica gratuito nivel preescolar padre pagar tasa</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="n">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>periodo coincidir distinto fase politico poblacion programa planificacion familiar republica islamico iran abbasishavazi mcdonald hosseinichavoshi ningun programa activo planificacion familiar fecundidad alto periodo inicio disminucion fecundidad comenzo seguido introduccion programa planificacion familiar</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="n">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>prevalencia tabaquismo doble persona nivel educacion dramaticamente nivel obesidad poblacion nivel educacion alto nivel educacion alto cns responsable financiacion seguro atencion plazo ministerio seguridad social ministerio salud corresponsabl gobernanza sistema salud ministerio salud desarrollar politico legislacion sanitario organizar prestacion atencion autorizar inversión hospital cofinancia directamente programa salud publicar</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>estandar docente vease recomendacion guiar revision examen garantizar evalua competencia docente necesitar aula rumanio considerar agregar pregunta abierto orientado practica examir medido competencia docente futuro rumania reducir peso examen favor medida autenticar competencia docente inspeccion basado desempeno docente aula</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>objetivo intervencion docente rubrica herramienta pedagogico practica relacionado general equipo implementar sesion unico creatividad pensamiento critico implementar pedagogia exclusivo maestros estariar acompanado consultar capitulo discusion detallado pedagogia exclusivo capacitacion valioso consistio sesión realizado intervalo regular siguio incluir enfocar creatividad pensamiento critico material proyecto</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>lograr construir resiliencia economico social ambiental mujer hombr mejorar productividad acelerar ritmo transformacion economico estructural region informe exploro logrado progreso igualdad genero acelerar ritmo avance genero africa enfoque igualdad genero llegar momento cambio tremendo continente incluido dinamica reciente transformacion social economico resultado avance significativo desarrollo humano africa</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>finalmente desigualdad genero paraliza crecimiento economico reducir contribucion mujer esfera economica social politico bandiero natraj analisis genero perspectiva genero formar politica afectar hombre mujer conferencia mundial mujer nairobi participant acordar desarrollar reorganizar sistema nacional informacion recopilar difundir estadistica mujer hombr abordar cuestión genero</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="n">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>lección aprendido experiencia facilitar acceso persona indigena sistema salud indigén facilitar dialogo sabiduria hombre mujer practicante sistema salud experiencia salud intercultural lugar mecanismo coordinacion sistema salud indigena oficial compartir instalación coordinacion bás acuerdo referencia contrarreferencia</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="n">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>padre tender convencido estudiante escuela contribuir bienestar emocional padre indigena convencido brechaber padre indigena estudiant k padre estudiante k albertar invertido alumna reportar nivel problema emocional hombre territorio noroeste mujer resto canado estudiante masculino femenino informar nivel bajo comportamiento prosocial satisfaccion vida promedio nacional</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>país enfatizar institución cuidado infantil preescolar exhibir nivel bajo desigualdad oportunidad sugerir efectividad politica intervencion temprano reducir persistencia resultado educativo generación asociacion positivo desigualdad oportunidad desigualdad ingreso consecuenciar regresión país sugeririar politica redistributiva ayudar reducir desigualdad oportunidad educativo asociado entorno socioeconomico persistencia resultado educativo generación</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>asegurar acceso equitativo financiacion mujer hombr empresario trav acción influir oferta demanda financiacion facilitar acceso financiacion negocio viable propiedad hombre mujer tomar medida mejorar conocimiento actitud institución financiero aumentar conocimiento fuente herramienta financiacion mujer empresaria animar mujer unir él red inversor informal empresa capital riesgo ejemplo especifico practica garantizar igualdad genero discriminacion constituciones mena cont ejemplos brindar referencia incorporar principio igualdad hombre mujer protege familia maternidad infancio cultura valor social cumplir declaracion universal derechos humanos articulo pacto internacional articulo cedaw</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>desafio orientar sistema salud ayudar persona multipl enfermedad cronica investigacion biomedico enfermedad cronica generalmente enfocar enfermedad cronica unica diabet ignorar condición coexistent diabetico persona multipl afección cronica excluir ensayo clinico aleatorio dificulto creacion base evidenciar guiar atencion</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>profesor crear mayor conexión comunidad general anciano explicitar aprender influir familia comunidad tierro profesor activador alumno participar activamente diseno aplicacion medicion experiencia aprendizaje asociación gozar alto grado equidad transparencia beneficio mutuo responsabilidad</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>opresivo explotador obstaculizar oportunidad disfrutar derechos cuidador economista feminista diane elson trabajo cuidado remunerado hacer amor significar encante financiar brindar forma apoyo deber garantizar apoyo disponible accesible calidad adecuado tiempo mujer infinitamente elastico estrategia afrontamiento producir resultado deseado contexto crisis salud nina faltar escuela tiempo dedicar buscar agua cuidar familiar postrado camar</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>divergencia derecho estatutario formal derecho consuetudinario religioso abordar él alto nivel protección constitucional politico nacional tierra ugando borrador comprometer reformar derecho consuetudinario modificar norma transmision derechos tierra virtud tenencia consuetudinario tierra garantizar igualdad equidad genero garantizar decisión institución tradicional gestion tierra respetar derecho constitucional derechos obligaciones materia igualdad genero politico gobierno uganda comprometer especificamente proteger derecho acceso herencia propiedad tierro mujer nino abordar desigualdad genero existente garantizar hombre mujer disfrutir derechos tierro matrimonio matrimonio matrimonio sucesion discriminacion</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>aprobacion convencion desarrollado ningun plan accion estrategia implementar él requerir plataforma accion beijing isla salomon presentado informe comite cedaw corrin constitucion otorgo mujer derechos igualdad oportunidad actividad politica economica social empleo educacion atencion salud derecho representar isla salomon organización internacional corrin mujer subrepresentada puesto alto rango</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="n">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>habran despejar obstaculo bloquear camino edad adulto desafio considerable deber honrar compromiso marco sonar hueco futuro pender helar invertir nina punto visto financiero contrario frustrar inversion pobreza planificado brucir</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="n">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>mujer hombr nino red parentesco comunidad importante contribuyente tiempo remunerado reproduccion social mujer realizar trabajo domestico remunerado participar trabajo remunerado budlender charm folbre concentrar desigualdad genero division trabajo mujer hombr eventualmente mujer centrar analisis</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="n">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>tabaquismo obesidad conocimiento sustancial riesgo salud atencion medico consecuencia productividad eficacia rentabilidad prevencion primario secundario tabaquismo conocido contrario evidencia actual riesgo salud asociado nutrient particular caso ambiguar grasa saturada carbohidrato alcohol</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>salario estatutario anual docente referir salario bruto promedio programado ano docente aula tiempo completo escala salarial oficial ocde b calificacionser minima requerido ingresar profesion docente calificación común fuerza docente sistema educativo maestro tipico certificado calificado alla requisito minimo alcanzado posicion determinado escala salarial denomina formacion tipica docente tabla il vario pais sistema escolar ocde b indicador d</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="n">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>sistema escolar publico empezar escuela primario ensenanza secundario decado universidad australiano establecer mediados siglo xix educacion infantil aparte servicio ofrecido guarderia comunitario proveedor privado mejorar relativamente reciente oferta educativo australiano duodecimo curso ensenanza secundario estudio soler orientar él obtencion titulo estatal territorial reconocido universidad institución formacion profesional australiana universidad internacional</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="n">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>valor modelo pronostico radicar capacidad predecir futuro tarea ningun modelo mediano plazo lograr realista modelo basado tendencia actual predijerar precision futuro indicar falta innovacion desarrollo politica afirmar informe reciente ministerio salud asuntos social suecia pronostico efectivo cambiar futuro significar probar probar equivocado ministerio salud asuntos social figura presentar pronostico crecimiento gasto publico modelo país tomar medida politica</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="n">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>supervisor destinado visitar supervisar funcionamiento escuela asesorar escuela autoridad diverso tarea administrativo pedagogica tarea administrativo ocupar tiempo antiguo director escuelo optar puesto supervisor nombramiento atp conceder antiguo profesor solicitud evaluada puesto asignado comisidn nacional mixto escalafn compuesto secretarfa educacidn publicar sep representante sindicato nacional trabajador educacidn snte mecanismo influido criterio sindical politico actualmente realizar esfuerzo cambiar proceso transparente</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="n">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>objetivo incluir indicador proporcion mujer empleo asalariado sector agricola parlamento nacional punto referencia plazo abordar tema critico violencia mujer ley discriminatorio desafortunadamente reunion plenario alto nivel asamblea general objetivo desarrollo milenio revelo desviado objetivo conocimiento herramienta disponible embarazo parto experiencia seguro mujer secretario general lanzo estrategia mundial salud mujer nino establecer acción clave mejorar salud mujer nino mundo</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>trabajador habilidad general educacion experimentar mejor resultado mercado laboral incluir periodo desempleo breve rutkowski programa formacion profesional corto duracion atractivo futuro estudiante sistema educativo centrar él proporcionar estudiante habilidades general facilmente transferible</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>indicar numero reforma realizado tasa empleo hombre constante cercano pleno empleo mujer tasar empleo menor variar valor indicar laboral particular reforma laboral parecer afectar empleo cuello blanco servicio</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ausencio acceso efectivo anticoncepcion esperar embarazo notificar deseado proporcion significativo interrumpir él abbasishavazi hosseinichavoshi joven nivel educacion mala situacion economico menor acceso metodo anticonceptivo eficaz contribuir incidencia embarazo deseado khatiwado fracaso anticonceptivo principal causa directo embarazo deseado accidental blumenthal voedisch gemzelldanielsson generar demanda aborto estudio país indico fallo anticonceptivo razon informado embarazo interrumpido prematuramente banko él singh haas black</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>apoyario atencion continuo coordinado permitirio calculo indicador calidad grupo paciente especifico p ej tasa control glucemico adecuado diabetico control glucemico adecuado diabetico mencionado anteriormente ejemplo aplicar incentivo financiero desarrollar ejemplo manejo enfermedad cronica basado experiencia país ocde apoyaria prestacion atencion medica preventivo promocion salud basado poblacion sentario base especialista atencion primaria asumir rol liderazgo sistema salud local nacional</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>mujer solicitar recibiar tierra mujer joven desconociar derecho enfrentar desafio unico lider tradicional entrevistado estudio expresar renuencia asignar tierra comunal mujer joven soltera mujer joven tradicionalmente hogar general permanecer casa padr casar</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>examina educacion formacion profesional suecia centrar él programa formacion basado lugar trabajo orientacion profesional escuelar finalmente vision general servicio social ofrecido escuela coordinacion servicio edad ano estudiant aprender junto escuela integral seguimiento repeticion grado</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>necesitar evaluar continuamente desempeno estudiante utilizar diverso tecnica evaluacion brindar apoyo correctivo estudiante dificultad obec utilizar tecnologia informacion comunicacion tic mejorar aprendizaje incluir estudiante necesidad especial origen esperar preparen estudiantes participacion activo comunidad asociacion naciones sudestir asiatico aseir mercado global competitivo tiempo promover valor cultura tailandés docente lider escolar fundamental lograr objetivo general tendrar posibilidad exito tailandiar esfuerza fortalecer preparacion docente apoyar desarrollo continuo docente permitir docente concentrar aula mejorar liderazgo escolar administrar eficiente fuerza laboral escolar</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="n">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>red causal evento enfermedad influenciado factor riesgo directo indirectamente definicion factor riesgo umbral utilizado identificar persona riesgo basar medida dato proporcionado publicacion cuantificacion comparativo riesgo salud oms ezzati lopez rodgers murray modelo factor riesgo proximal presion arterial alto colesterol alto glucemia alto influencia directo probabilidad desarrollar dicho enfermedad cronica explicar efecto mecanismo fisiopatologico conocido contrario factor riesgo distal consumo fruta verdura alto consumo grasa actividad fisico insuficiente influencia indirecto enfermedad cronica</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="n">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>inmigrante tayikistar uzbekistar mujer hombr ganar rublo mes figura salario mensual hombre rublo mujer figurar tarifa medio hora hombre rublo mujer rublo</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="n">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>indicio universiti sains malaysia utilizar asistencia financiero estudiant alto prioridad garantizar acceso estudiantes bajo ingreso penang region economico corredor norte fecha plan desarrollo sector realizar separado ejemplo consejo consultivo educativo penang pecc gobierno estatal proporcionar mecanismo vision coherente sistema educativo nivel regional consejo institución privado educacion superior</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="n">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>importante documentar utilizar estudio caso presentar mujer hombr pyme exitosos rol economico tradicional convencional ejemplo encontrar país avanzado atender mercado mujer empresaria cuadro destacar ejemplo unido canado gobierno apoyado red centro empresarial mujer practica apoyo empresarial liderado gobierno alemania suecia turquio clienta informar centro ofrecer entorno seguro calir enriquecedor</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="n">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>escenario contencion costo asumir disminucion gradual crecimiento anual gasto salud relacionado precio tecnologiar politica institución atencion salud cero escenario contencion costo asumir disminucion gradual crecimiento anual gasto salud relacionado precio tecnologiar politica institución atencion salud cero factor demografico incluir estructura edad poblacion salud demografico incluir ingreso tecnologiar precio relativo</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="n">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>beneficio universal basado pension reforzar autonomia economico mujer fortalecer voz agencia hogar elevar estatu social contrario pensión basado recurso requerir hogar lugar individuo fuente ingreso significar excluir mujer vivir hogar umbral ingreso accesir ingreso personal suponer ingreso conyug cohabitar miembro familia compartirar justo caso</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="n">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>especificar actividad dominio relacionado aumentar conciencia publicar desarrollar capacidad profesional efecto cambio climatico salud actualizar sistema informacion conjunto indicador relevante politica identificar evaluar riesgo salud relacionado clima efectividad acción mejorar vigilancia control enfermedad infeccioso vector seleccionado monitoreo calidad aire etc describir tarea capacidad sector salud actividad intersectorial coordinado emergencia relacionado evento climatico extremos planificacion respuesta programa contener serie herramienta facilitar curso capacitacion desarrollo capacidades areo gestion emergencias salud publicar nivel</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="n">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>caracteristica positivo presupuesto quinquenal brindar suficiente flexibilidad ajuste presupuesto educativo anual documento presupuestario soler proporcionar objetivo educativo acción meta resultado previsto claramente definido solicitud presupuesto presentado anep mef tipicamente presentar vision sistema escolar conjunto establecer claramente prioridad gasto publico</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>objetivo comprender explicar ocurre reaccionar concepto mujer desaparecido relación poblacion femenino cabrio esperar hombre mujer recibir atencion similar salud medicín nutricion definitivo concepto representar deficit mujer nina muerto prematuramente distribucion poblacional referencia</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="n">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>prescripcion analgesico asocio riesgo medico opioid recetado predictor hallazgos inform reciente estudio medicina union europeo mostro compra opioid recetado farmacia line figurar fuente hallazgo policonsumo droga particularmente drogar ilicita usuario opioid recetado fin medico ano comun país europeo ciento usuario ano espán ciento reino unido obtener opioid recetado trav robo falsificación consulta medica teniar doble probabilidad consumir droga ilicita habiar</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="n">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>examina programa iniciativo incluido estructura apoyo especifico establecido gobierno actor gubernamental ayudar mujer obtener informacion economico regulatorio mercado clave tomar decisión informado etapa establecimiento expansion negocio analizar forma apoyo mujer empresaria medida mejorar acceso mujer mercado formacion empresarial gestion servicio desarrollo empresarial proporcionado organización gubernamental ong proveedor sector privado asociación empresarial</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="n">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>factor reforma escolar decado ayudo mejorar significativamente resultado educativo reflejar resultado alfabetizacion aritmetico estudiante ano programa evaluacion internacional estudiantes pisa ocde polonia necesitar ascender escala valor especializar él actividad intensivo conocimiento valor agregado actualmente polonia país ocde contenido tecnologico exportación figurar producto innovacion patente principal publicación investigacion cientifico competir principal economia ocde figurar</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="n">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>historio igualdad genero convirtio prioridad nivel nacional aplicar progresivamente cuota pertenecer marco complejo narrar partido politico desempenar papel primordial liderazgo capacidad construir alianza partido mujer mexicano funcionar catalizador cambio generar debate fructifero partido legislatura nacional opinion publicar mujer partido fuerza impulsoro alto funcionario figura poderoso usar influencia reunir apoyo partido impulsar cuota apoyo partido</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="n">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>estudiante inmigrante hauptschulir clase abolido formalmente glenn jong analisis areas captacion escuela primario distrito mostro escuela inscribio doble estudiante origen inmigrante viviar areo consecuencia padre eludir asignacion oficial escuela primario escuela ofrecer forma clás separado basado eleccion padre instruccion religioso idioma extranjero atraer estudiante nativo mejor maestros fincke and lange open society justice initiative mantener gymnasien seleccionar alumno adicional reservado hermano dejar seleccionado sorteo basteck et</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="n">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>cambio ayudar atraer retener trabajador salud serar necesario suiza continue brindar mejor cuidado mundo ciudadano arreglo pago servicio sector hospital ambulatorio subsidio cantón hospital publico recompensar hospital brindar incentivo debil moderacion costo ayudar explicar reducción ultimo decado estancia hospitalaria suizo larga promedio ocde caso diario porcentajar caso hospitalario general suizo país</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>junta nacional sueco salud bienestar desarrollado marco calidad multidimensional good care monitorear desempeno atencion medica marco cubrir dimensión atencion incluido eficacio seguridad atencion centrado paciente puntualidad equidad eficiencia marco utilizo indicador proceso resultado comparar calidad atencion psiquiatrico región grupo paciente</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>corea país bajo asigna proporcion gasto cancer salud mental respectivamente promedio enfermedad cardiovascular representar gasto hospitalario australia japon porcentaje observado japon sorprendente dado bajo tasa mortalidad incidencia ecv observado pai</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>estudio excelente ejemplo metodologia modelar efecto genero impuesto indirecto impuesto directo rentar impacto genero depender efecto presentacion conjunto individual presentacion conjunto conducir tasa impositiva marginal alto ingreso mujer ganar hombre desalientar participacion fuerza laboral examinar codigo tributario perspectivo equidad genero sentar base reforma codigo tributario igualitaria genero</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>resultado brecha genero desempleo reducir inmediatamente crisis trav proceso nivelacion hombre perder trabajo mujer asia mujer visto afectado hombre perdido puesto trabajo concentracion sector manufacturero orientado exportacion visto especialmente afectado persistencia precio mundial alimento alto volatil subida precio afectado derecho millón persona alimentacion nivel vida adecuado gasto prestación hijo ejemplo alcanzado punto maximo europa volvio caer nive él objeto violencia ejemplo violacion dignidad bienestar fisico mental conducir falta vivienda pobreza</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>espán experimento ligero aumento mujeres parlamento ano introduccion ley regimar electoral general requisito obligatorio presencia equilibrado mujer hombr minimo ciento sexo listo candidato mecanismo igualdad genero organos gestion electoral organos gestion electoral emb sigla ingl desempenar papel fundamental promocion participacion politico mujer supervisar organizar proceso electoral incluir registro candidato divulgacion educacion votante encuestado indico organo electoral designado asesor genero punto focal incluido consideración genero procedimiento politica operativo ogar enfatizado equilibrio genero composicion ogir comisionado funcionario mesa electoral</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>punto debil tope cargo enfermo cronico ampliar tope poblacion general reducirio potencialmente riesgo hogar bajo ingreso particularmente vean disuadido acceder sistema salud finalmente copago servicio nhi unico enfocar pago directo vinculado shar seguro comercial significativo hogar gastar sustancial ingreso servicio atencion medica enfocar basar elegibilidad individuo hogar recibir beneficio apoyo ingreso instituto nacional seguro nils suplemento ingreso caso pensionista criterio elegibilidad apoyo estricto significativo hogar bajo ingreso recibir beneficio claramente acceso atencion salud fortalecerio ampliar acceso sugerido analisis ocde ocde b b</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>bangladesh generalmente aceptar hombre dirigirar ministerio importante mujer designado puesto experiencia conocimiento competencia capacidad evitar percepción negativo gente calidad participacion mujer mujer incidido implicación social politica servicio salud cuidado nino alivio pobrecer problema dotar violencia mujer nina desarrollo comunitario planificar desarrollo ciudad mujeres tomar consideracion entorno fisico comunidad calidad vido excluir arte cultura diverso comunidad</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="n">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>signo alentador iniciativa estigma hjarnkoll estudio encontro medido mejora ejemplo opinión mejorado frente opinion publicar persón enfermedad mental vecino persona inicialmente expresar desaprobacion cambiado opinion numero cama psiquiatrica habitante reducido mitad ultima decada pasar aumento financiacion servicio ambulatorio ayudar explicar disminucion</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="n">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>variación país proteccion derechos mujer tendencia general region revela discriminacion violencia mujer disminuir respaldar referencia religion origen cultural tendencia factor incluido barrera legal faltar aplicacion ley crisis economica social país aumento movimiento religioso radical exigir retroceso logro derecho mujer particularmente ambito familiar particular país experimentar cambio politico revolución ultimos ano testigo aumento discurso religioso tendencia retrograda tender amenazar derecho mujer</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="n">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>paciente condición cronica severo requerir visita servicio especializado tercer nivel caso costo transporte prohibitivo cambiar resultado npph mayorio centro medico alto tecnologia concentrar europeo federacion ruso precisamente moscu san petersburgo</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="n">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>ayudar costo estudio gobierno anuncio recientemente estudiante cuota recibiran estipendio brl mes souza bolso permanenciar beco quedar él aumentar brl mes indigena estudiante quilombocr rio janeiro bahia introducir sistema cuota evaluacion esquemas universidad brasilia francis tannuripianto encontro aumento proporcion estudiante negro universidad estudiante desplazado proveniar promedio familia nivel socioeconomico tema clave sistema educacion superior brasileno altamente regresivo universidad publica gratuito altamente selectivo atendido principalmente estudiante rico estudiante pobre ver obligado asistir institución privado pago</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="n">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>economia emergente cultura componente orden estrategia desarrollo literatura musico video pelicula industria modo gastronomiar importante creer hijo aprendar disfrutar arte divertir pintura escultura musico etc apreciacion implicar juicio valor entender gusta gusta</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="n">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>escuela estudiante inmigrante municipio alentarlo cooperar compartir recurso docente dsl trav red formalizada investigacion internacional indicar ninos desarrollar habilidad lingistica comunicativa relativo rapidez tiempo dominar lenguaje academico utilizar entorno escolar cummin resultado prueba lectura realizado escuela nivel local brecho nino nativo inmigrante amplio convertir barrero exito folkeskole allo</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="n">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>exigir intercambio conocimiento debat relacionado genero llevar él cabo enfoque practico necesidad genero ejemplo proporcionar espacio educativo herramienta practica permitir mujer accedar educacion conducir cambio estrategico plazo educacion perspectiva especialmente util contexto país desarrollo moser</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="n">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>nino pequeno beb ninos pequenos capacitacion especializado practica fuertemente asociado calidad pedagogico resultado cognitivo social educador infancia encontrar entorno social complejo encontrar multiplicidad antecedente experiencia familiar factor crear imperativo adoptar pedagogia practica organizacional acomodar pluralismo elliott</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="n">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>cuestion contenido incapacidad reconocer abordar adecuadamente trabajo remunerado mujer cuestion aplicacion remedio medido organo creado virtud tratado aplicar igualdad sustantivo exigir nivelar situación desigualdad genero presente lograr resultado transformador preambulo cedaw responsabilidad compartido hombre mujer sociedad conjunto poner practica cuerpo convencion referencia apoyo padr lugar trabajar</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="n">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>promover docencia carrera particular estudiante alto rendimiento calidad trabajo importar salario transformacion organizacion trabajo escuelas participacion docente tomar decisión escolar mejorar responsabilidad liderazgo promocion ensenanza profesion exigente satisfactorio palanca politico prometedor</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="n">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>resultado proporcion general generico farmaceutico francia mantener torno tercio tasa sustitucion cercano clase autorizado medicamento panel b serio util adoptar lista amplio medicamento generico sustituir general permitir genericos cour des compt c autoridad planear expansion limitado lista dings generico sustituir ministere des affair social sante et des droit des femm participacion mercado farmaceutico reembolsado</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="n">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>guia sección dedicado consideración evaluación impacto genero gasto publico implicación faltar dato desagregado genero explicar claramente tal concepto establecer caso valido aplicacion importante aumentar conciencia publicar proporcionar servidor publico instrucción documento referencia respuesta pregunta frecuente presupuestacion perspectivo genero obligatorio ley herramienta necesario implementar él inteligente incorporacion amplio perspectiva genero existir mandato legal evaluación impacto genero formulacion politica psg recopilar dato desglosado genero herramienta generalmente subutilizar pasar alto</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="n">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>campo alto crecimiento ciencia tecnologia ingenieria seguir dominado hombre brecha salarial genero persistir mujer subrepresentada liderazgo corporativo necesitar politica asequible cuidado nino favorable familia incluir licencia paternidad pagado abordar limitación tiempo mujer</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="n">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>mayorio contrato objetivo llegar paciente hora cumplir estandar calidad especificado encuesta nacional salud ejemplo poblacion reporto obtener servicio salud sector privado ano independientemente cobertura ccss encuestado afirmo preferio proveedor privado atencion medica gutierrez</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="n">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>razon descubierto metodo confiable acreditacion dificil estudiante convertir experiencia mooc calificación relevante mercado laboral holm keller exvicepresidente universidad leuphana alemania desarrollo interesante variante colaborativo mooc pisa llamado pisau pidio posible alumno mayorio educador profesional suscribierar curso agraber funcion algoritmo miembro grupo compartir aspiración común objetivo educativo diverso practicamente demas aspecto diverso grupo identificar trabajar problema colaboracion individuo apoyado mentor line grupo apoyado tutor experimentado</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="n">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>trabajo crucial implementar eds practico educativo cotidiano plan escolar visto instrumento implementar enfocar institucion operación escolar particularmente nivel educacion preescolar primaria secundario definido grupo trabajo ece eds plan escolar planificacion escolar eds allo concienciacion sostenibilidad participar activamente ciclo continuo planificacion implementacion revision enfoqu sostenibilidad escuela s operación unecir ft grupo trabajo identifico serie dimensión central dicho plan incluido arreglo gobierno escolar plan estudios ensenanza aprendizaje instalación operación asociación cooperacion particular comunidad circundante autoevaluacion</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="n">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>evidencia investigacion apuntar claramente importancia garantizar oportunidad aprendizaje profesional sostenible darlinghammond et respaldado comunidad aprendizaje profesional literatura relacionado rosenholtz louis kruse et stoll et sistema educativo alto rendimiento singapur japon institucionalizado practica puesto mayorio recurso desarrollo profesional cerca punto singapur ejemplo docente derecho hora desarrollo profesional ano desarrollo profesional brindar escuela trabajar maestro dirigido meta problema especifico maestro lider escolar abordar escuela</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="n">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>obstante dato disponible país analizado capitulo algun momento ultima decado unico excepcion india ultimo encuesta disponible imagen emerger consistente país analizado hombre soler dedicar tiempo mujer trabajo remunerado india dedicar medio hora trabajo remunerado hora dedicar mujer</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="n">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>primar otorgado garantia historial crediticio experiencia comercial estrategia comercial posible prestatario constituir obstaculo acceder financiacion presentar problema oferta termino producto adecuado disponible mujer sacar provecho resultado preliminar encuesto investigación areo mujer soler nivel educacion financiero general contar habilidad conocimiento necesario acercar él exito banco buscar financiacion</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="n">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>persona ver candidata profesión sentir atraida condición trabajo disfrutar profesional encontrar buscar escuela utilizar gestion burocratico dirigir trabajo docente campanas medio mejorar imagen profesion resaltar importancia nacion sofisticacion complejidad entusiasmo intelectual generar ayudar país deseir ampliar gama antecedent experiencia docente concentrar él promover beneficio carrero docente grupo subrepresentado fuerza docente hombre persona perteneciente minoria objetivo garantizar escuela acceso maestros efectivo equilibrio maestros experimentado principiant autoridad educativo local decidir asignacion maestros escuela regla exacto seguir diferir</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="n">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>participacion femenino empleo puesto gerencial gobierno central aumentado ultimos ano apuntar tuberio persistentemente fuga figura país marcado asterisco habiar legislado cuota cuota implementada trav proceso legislativo vigor país union europeo dato disponible mujer ocupar puesto administrativo alto gobierno nacional aumento minimo punto porcentual nivel alto mujer representar puesto pequeno aumento punto porcentual cifra promedio variación pai particularmente nivel alto funcion publicar eigir obtener detalle nota especifico pais consulte ocde figurar anexo d</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="n">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>zelando declaración impacto genero requerir documento cometer politico social gabinete programa nacional igualdad genero grecia exigir evaluación sistematica impacto genero proyecto ley aplico analisis genero gasto publico determinar presupuesto impacto diferencial mujer hombr consejo europa definir psg aplicacion incorporacion perspectivo genero proceso presupuestario significar evaluacion presupuesto basado genero incorporar perspectiva genero nivel proceso presupuestario reestructurar ingreso gasto promover igualdad genero deficit</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="n">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>momento reforma sistema salud principio decado esperar sistema seguro conduciria acceso atencion dato disponible sugerir nivel agregado gasto privado ido aumento capitulo senalo tal problema surgir ejemplo necesitar nivel minimo provision areas rural costo calidad atenderiar hospital unidad policlinica</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="n">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>ejemplo educacion preescolar primario inspección brindar informacion decisión central distribucion puesto personal escuela decidir distribucion programa especifico escuela individual preocupación necesidad infraestructuro transmitir él escuela trav inspeccion nivel central inspección jugar papel importante implementacion decisión organizacion operacion escuela tomado nivel central</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="n">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>japar council for quality health care jcqhc organizacion independiente participar serie actividad calidad notificacion evento medico adverso acreditacion hospital departamento prevencion evento adverso jcqhc recopila analizar sistematicamente dato evento medico adverso objetivo general promover seguridad paciente compartir informacion institución medica usuario emitir informe trimestral anual evento medico adverso organizar taller publicar advertencia guia</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="n">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>ejemplo país ocde estudiante informar maestros aprender leccion estudiante maestros pregunta leccion verificar estudiante entender aprender estudiante practica ocasionalmente estudiante país ocde informar maestros practica frecuencia lección figurar mostrar frecuencia informado estrategia ensenanza matematica dirigido maestro orientado alumno</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="n">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>participacion laboral femenino particular trabajo tiempo completo aumentar ingreso familiar mejorar perspectiva carrera mujer mayor ingreso mujer fomentar independencia financiero reducir riesgo pobreza individual familiar infantil mejorar resiliencia frente perturbación financiero adverso aumentar derecho jubilacion riqueza modelo basa marco contabilidad crecimiento permitir ajuste parametro estructural reflejar cambio equilibrio vida laboral personal mujer hombr transicion modelo equilibrado doble ingreso doble cuidador recuadro resultado sugerir probable empleo tiempo completo mujer beneficie gasto licencia subsidio nacimiento gasto servicio cuidado infantil general aumento cobertura instalación formal cuidado infantil nino ano particular</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="n">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>ejemplo descripción competencia profesional escuelo relacion serar evaluado indicador calidad evaluacion escuela reflejar objetivo aprendizaje sistema escolar pretender alcanzar implicar garantizar marco evaluacion evaluacion capture amplio gama objetivo aprendizaje estudiantes serio util iniciar investigacion desarrollo fortalecer gama instrumento disponible evaluar ejemplo competencia amplio estudiante resolucion problema razonamiento comunicacion capitulo probable individuo grupo aceptar cambio entender razón cambio papel desempenar estrategia nacional general</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="n">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>estrategia igualdad genero paises mena cont estrategia nacional combatir violencia mujer mowa egipto marruecos tunez autoridad palestino establecer responsabilidad claro gobierno baluain egipto marrueco autoridad palestino componente abajo desarrollo plan garantizario participacion mujer hombr pai</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="n">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>ejemplo aprendizaje actuar mejorar integracion refugiado grupo desfavorecido mercado laboral local implicar combinacion aprendizaje teorico aula capacitacion trabajo generalmente conducir certificacion formal otorgo individuo estatus jornalero sistema aprendizaje marcos gobernanza integrado sistema nacional regional especifico educacion mercado laboral relación industrial pais ocde</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="n">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>ejemplo joven lograr adquirir habilidad basica solida reto correr riesgo abandonar escuela reto depender beneficio social reto malo resultado mercado laboral reto encontrar trabajo faltar habilidad basica disuadir empleador invertir capacitacion desafio resumen ningun desafio habilidad forma aislado ve afectado impacto pilar</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="n">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>ejemplo brecha genero generalizado disciplina stem particularmente relevante emprendimiento innovador emprendedor experimentado probabilidad exito proxima empresa emprendedor primerizo gompers et mecanismo adicional contribuir diferencia observado financiacion incluir diferencia genero formacion red diferencia innata mujer hombr preferencia riesgo aptitud negociacion etc imposible controlar habilidad innato preferencia individual analisis presentado seccion permitir desentranar mecanismo importante incluido propension titulo stem experiencia profesional impulsar brecha genero</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="n">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>reciente iniciativa politico continuan enfatizar papel primordial escuela proceso evaluacion mejor programa escuela iniciativa school aan zet enfatizar papel liderazgo escuela determinacion estrategia mejor parte interesado entrevistado equipo revision ocde idea plar b caso mecanismo garantiar calidad escuela funcionar satisfactorio</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="n">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>dato comision economico americo latino caribir cepal basado encuesta tiempo mujer realizar trabajo remunerado necesitar hogar cepal b p mujer ano uruguay salvador respectivamente mercado laboral motivo familiar cepal b p lugar requerir cuidado recibir él trav servicio calidad acceso cuidado mercado intensificar pobreza hogar trabajo cuidado crear barrera educacion empleo igualdad condiciones hombre mujer</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="n">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>red pares tenc sistema americo latino oriente escala tablo indicar docente determinado docente beneficiario practica comparacion beneficiar importante tabla mostrar puntaje docente profesionalidad docente esperar clasificar beneficio practica ocde identifico tercio inferior profesión entorno laboral</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="n">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>país requisito cuota respaldado mecanismo implementacion efectivo salvaguardia estructura solida rendicion cuenta ayudado impulsar representacion mujer ultimos ano mecanismo supervision comit parlamentario beneficiar él expansion experiencia genero gobierno rendir cuenta lograr objetivo nacional igualdad genero utilizar frecuencia mecanismo analizar presupuesto gasto perspectivo genero parlamento responsable implementar medida tribunal responsable supervision</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="n">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>tasar recuento multidimensional hombre caso mujer cuadro indecir alkire foster mujer frente hombre indecir sesgo genero llego indicar mujer privación hombre cambio estructural poblacion incluido proporcion sexo tasa natalidad reducido aumento edad promedio contraer matrimonio longevidad envejecimiento progresivo poblacion</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="n">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>mayorio trabajador rural empleado agricultura tradicional mujer trabajar probabilidad hombre clasificar trabajador familiar lugar trabajador mujer nina seguir nivel educativo significativamente limitado contribuir segregacion ocupacional brecha explicar medida diferencia variable capital humano educacion formacion experiencia</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="n">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>grupo país comportamiento femenino polarizado mercado laboral madre trabajar tiempo completo trabajar probabilidad trabajar tiempo completo lugar tiempo parcial aumentar hijo menor ano país madre soler trabajar tiempo parcial mujer trabajo tiempo parcial plazo grupo país probabilidad trabajar tiempo completo aumentar hijo menor ano caso país brecho genero relativamente estrecho hora trabajo ejemplo francia país nordico grupo país país europa grupo país numero nino hogar impacto significativo probabilidad madre empleada trabaje tiempo completo lugar tiempo parcial</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="n">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>hombre tratar mantener control dispuesto cambiar condición conservar jerarquia genero reducir responsabilidad necesidad deseo mujer pierotti lake lewis intervencion cambiar totalidad sociedad necesidad trabajar individuo red social habitar familia companero prevencion violencia genero especialmente vpi violencia domestico pareja hombre familia general participar</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="n">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>país acceso atencion basica salud promocion salud estrategia central reducir mortalidad morbilidad asignar recurso suficiente servicio primario salud alcanzar cobertura poblacion gobierno fortalecer actividad informacion educacion comunicacion salud nutricion permitir persona aumentar control salud mejorar</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="n">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>ejemplo evidencia muestra distribucion equitativo propiedad familia variedad beneficio aumentar participacion femenino fuerza laboral mejorar educacion nina ejemplo familia recurso nino ver él obligado trabajar lugar escuela nina ver él obligado casar él negar educacion familias pagar él ejemplo derecho igualitario mujer hombr decidir libremente numero espaciamiento hijo p ej art exigir garantizar mujer hombr derecho tomar decisión relativo reproduccion libre discriminacion coercion violencia</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="n">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>dar fruto sector salud infraestructuro maternidad integraro establecimiento salud nivel distrital rural punto entrada garantizar gasto publico sensible genero beneficiar mujer hombr país informar indicador contar sistema rastrear publica asignación igualdad genero pnudocde país adicional sistema seguimientir asignación publica</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="n">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>revelo ofsted control directo objetivo respecta disposición legal identificar monitorear escuela control regulatorio cuidado infantil hallazgo indicar proveedor administrado causar preocupacion propenso beneficiar él inspección estudio proporcionar mirada detallado calidad entorno infancia inglaterro reino unido</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="n">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>analizar necesidad desarrollar competencia frente escasez actual previsto area emergente modos mecanismo compromiso institución promover desarrollo regional capitulo explorar condición previo necesario promover exito compromiso local relacion institución concluir recomendación organismo nacional subnacional institución ensenanza superior</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="n">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>necesitar planificacion protocolo cuidadoso garantizar pregunta formulir adecuado mujer sentar seguro responder honestidad lugar país deberiar recopilar regularmente dato servir linea base medir progreso país multipl oleada encuesta pregunta acoso sexual violencia mujer observar cambio tiempo</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="n">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>publicar informe genero resumir programa acción materio igualdad genero plan accion integracion enfocar genero politica rural ministerio elaborado estrategia especifico ministerio marco estrategia general genero revision ministerio planificacion desarrollo administrativo mopad</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="n">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>convencion registrar hc consumidor adquirir vendedor minorista soler identificar proposito incluir preparado medicinal medicamento marcar generico farmaco medicamento patente suero vacuna anticonceptivo oral liquido necesario dialisis gas utilizado atencion salud oxigeno incluir él paciente familiar adquierar directamente</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="n">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>luxemburgo mexico país bajo brecha genero favor hombre reducir nino desempeno nina mantener estable comparación desempeno estudiante ano pisa ocde desempeno cohorte nacimiento ano encuestar competencia adulto piaac sigla ingl ocde sugerir brecha genero matematica ampliar medida adolescente pasar edad adulto figura país ocde dato disponible brecha genero promedio estandarizado punto edad ano punto ano pequena canado austria noruega brecho genero estandarizado ano superior punto finlandia unidos superior punto grafico</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="n">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>realizar esfuerzo integral aumentar atractivo efp incluido cambio gobernanza escuela efp fortalecerar participacion comunidad colaboracion empresarial mejora fuerza laboral capacitacion vocacional traves educacion profesional continuo inversión escala red nacional centro capacitacion practico sectorial proporcionar instalación ultimo generacion formacion profesional informacion mejorado resultado mercado laboral traves sistema informacion recurso humano esfuerzo aclarar base legal aprendizaje proporcionar subsidio empleador empleador poder crear oportunidad aprendizaje evidenciar preliminar sugerir avance aumentar atractivo efp estudiante empleador implementar sistema seguimiento recurso humano recientemente autorizado utilizar él proporcionar evidencia beneficio vet futuro estudiante aumentar capacidad escolar incentivo formacion aprendices aclarar alcance incentivo empleador creacion contrato aprendizaje</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="n">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>agrupado opción politica alcance estudiante ano país ocde alcanzar nivel minimo habilidades funcionar sociedad actual diferencia rendimiento estudiante entorno socioeconomico país adoptado opción politica responder desafio equidad</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="n">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>beneficio registro visibl sustancial necesitar extracción dato original conjunto dato disponible ejemplo estadistica fuerza laboral publicado ocde oit brindar informacion distinto trabajador empleado desagregacion relevante diferencia genero generalmente marcado clase empresario empleado asalariado autonomos empleado empleador empleador femenino masculino incorporado incorporado incluir figura informacion disponible</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="n">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>implicar tiempo mujer mercado laboral ver afectado negativamente responsabilidad cuidado hijo probable marido par tiempo lugar trabajo presenciar padre mayor disminuir participacion esposa hogar sugierar probable ayudar tarea domestica efecto negativo participacion marido mercado trabajo explicar él practica cultural padre mayor vivar familia hijo incentivo marido par tiempo casar</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="n">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>indicar mejora constante prescripcion grupo brindar asesoramiento evidencia clinico rentabilidad considerar tecnologia existente grupo trabajar estrecho colaboracion junta asociacion innovacion salud optimizar camino innovación salud resumir piloto tecnologia medico innovadoro imto ejemplo tomar semana lugar ano evaluar tecnologia proporciona informacion temprano naturaleza presupuesto potencial impacto servicio tecnologia sanitario desarrollo nfp representado junto nh gobierno escoz parte interesado</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="n">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>asociación mujer empresaria país mena brindan algun tipo apoyo comercial tutoria feria comercial seminario limitado recurso financiero humano tecnico proporcionar cantidad informacion limitación comercial necesidad apoyo miembro papel promocion politica limitado excluido dialogo politica nacional wbf red interregional representante gubernamental sector privado sociedad civil trabajar gobierno mejorar politica legislacion impactar integracion economico mujer trabajar empresa ong mundo academico facilitar intercambio experiencia practica brindar apoyo concreto mujer empresaria</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="n">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>tasa fecundidad bajo reducir carga trabajo remunerado mujer facilitar participacion fuerza laboral medido disminuir tasa fecundidad poblacion edad trabajar crecer ritmo rapido poblacion general reducir tasa dependencia ayudo impulsar ahorro inversión incluido inversión nino efecto positivo crecimiento per capita llamado regalo demografico reducir brecha genero empleo generar externalidad positivo</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="n">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>legislacion aprobado junio allanar camino establecer sistema nacional salud cobertura universal tendra profundo efecto formar financia organizar atencion poblacion reportar gozar salud notable desigualdad socioeconomica aumento esperanza vida principalmente menor numero muerte enfermedad cardiovascular seguir principal causa muerte</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="n">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>migracion masivo poblacion ulaanbaatar generar dificultad ciudad acomode poblacion conducir formacion distrito ger alrededor ciudad condición sanitario ambiental social degradado propenso desarrollo enfermedad proporcion poblacion anos alcanzar fines comparacion fin</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="n">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>introducido estandar proveedor aseguren nivel minimo calidad curriculo establecerar objetivo educativo nino menor ano desarrollar importante herramienta planificacion identificador unico nino base dato georreferenciado centro atencion orientar servicio necesitado costa rico rezagado mayorio país ocde país americo latino termino acceso calidad equidad provision infancia</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="n">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>dicho dato ocde perjuicio alto golar jerusalir asentamiento israelies cisjordania termino derecho internacional cerrar brecha generario mejor bienestar mujer individual sociedad conjunto opinion respaldado estudio basado muestra pequena respuesta autoinformada ocdecir saridakis et tal diferencia explicar él motivación sector operar mujer empresaria</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="n">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>esencial garantizar mandato claro poderoso recurso suficiente liderazgo politico institución coloquir consideración genero efectivo superior agenda politico mitad país ocde ocupar cuestión genero cartera amplio ministerio ejemplo republico checo finlandia alemania grecia irlanda noruego republico eslovaco espana suecia suizo argelia institucion principal genero centralizado administrativamente coordín sección geograficamente descentralizada nivel local oficina sección social wilaya provincia argelia mejorar situacion familia mujer</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="n">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>medida empoderar mujer llegar generación mujeres esperar desempenir papel politico importante senalo jefa agencia cooperacion europea participacion mujer desarrollo politica sector agricola comercial financiero participacion diseno politica desarrollo economico local ayudariar garantizar acceso mujer medios produccion mercado finanza conexión politica ayudariar desarrollar negocio entrevista director organizacion regional africano paridad areo implico introduccion modulo liderazgo curso escolar universitario aumento concienciar lider opinion papel politico desempenar mujer limitación enfrentar entrevista</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="n">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>frecuentemente relacionado matrimonio precoz maternidad responsabilidad cuidado ingresar mercado laboral probable mujer ver confinada trabajo vulnerable frecuencia sector informal sugerir abordar barrera limitar acceso nina mujer educacion oportunidad empleo probablemente tendrio efecto positivo reduccion brecha genero educacion financiero mejorar empoderamiento financiero mujer bienestar</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="n">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>seguridad paciente implementa traves mecanismo acreditacion cultura seguridad paciente implementacion politica seguridad variar iniciado asociacion danés seguridad paciente establecido programa importante garantizar seguridad paciente estudio dán evento adverso sociedad danés seguridad paciente dsfp programa dán hospital seguro sistema nacional notificacion evento adverso</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="n">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>medido comunidad mundial definir objetivo desarrollo sostenible ods posterior balance extraer lección experiencia politica mundir trazar agenda accion vision futuro informe basar experiencia evidenciar analisis diverso contexto nacional regional responder pregunta revisa logro mujer obtencion igualdad ley acceso educacion servicio social aumento visibilidad actor politico participacion trabajo remunerado beneficio reconocimiento publico escalo gravedad violencio sufrir experiencia preguntar progreso garantizar disfrutar practico variedad derechos economico social mujer lento desigual país grupo social</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="n">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>informar nivel escuela comparar promedio nacional municipal ajustar caracteristica estudiantes gestion mejor escuelo amplio margen mejorar recurso evaluacion desarrollado lituania incluido ampliado director maestro escolar mejorar gestion escolar practica instruccion autoridad escuela responsable evaluacion externo seguro calidad lituania establecido participacion universal efectivo evaluacion nacional basado criterio grado concluir encuesta nacional rendimiento estudiantil incorporar sistema evaluacion componente encuesta nacional cuestionario docente alumno brindar informacion docente director escuelar parte interesado considerar valioso</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="n">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>flexibilidad garantia elemento importante mujer bién particular tierra tradicionalmente propiedad hombre banco comercial development finance company of uganda ifc asociacion mujer empresaria ugando lanzar programa mujer empresaria enfocar especial pyme proporcionar prestamo mujer empresaria requerir tierra garantiar</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="n">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>acceder texto recomendacion htlnwwwunorgwomenwatchdawcedawrecommendationsgeneralrecommendalionenglishndf proporcion mujer parlamento region arabe aumentado general cuadro alcanzado ciento argelia irak mauritania sudar tunez mostrar aumento significativo adopcion cuota genero país seguir existir disparidad participacion mujer region presencia mujer parlamento nulo país comora egipto kuwait libano omar qatar yemar</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="n">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>especialista incluir medico general farmaceutico enfermero trabajador social alguien tratamiento incluir tratamiento especialista especialista resultado aplico proporcion busco algun tratamiento independientemente proveedor especifico proporcion busco ayudo especialista salud mental p ej psiquiatra</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="n">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>lugar remesa beneficio hogar comunidad beneficio emigracion femenino evidente creer incentivo aumentar capacidad mujer migrar mejora acceso mujer oportunidad recurso ejemplo mujer enviar remesa ganar respeto familia comunidad jolly reev probable padre depender remesa hija obligar regresar casa casar él temin et</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="n">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>principalmente mujer aprovechar politica favorable familia arreglo laboral flexible perpetuo idea responsabilidad familiar asunto mujer mujer negocio llegar cima tanto simplemente dejar intentar él teletrabajo trabajo tiempo parcial temporal parecer atractivo corto plazo forma malabarismo trabajo compromiso familiar eleccion resultar costoso plazo termino salario pensión seguridad laboral practica laboral favorable familia facilitar combinacion trabajo vida familiar hombre mujer aprovechar empleador facilitar hombre mujer compartar responsabilidad domestica familiar lugar trabajar</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="n">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>lanzo piloto sector moda mecanico automotriz evaluacion formal resultado ministerio formacion profesional empleo apoya inclusion social permitir adulto educacion formal limitado obtener reconocimiento competencia adquirido trabajar ayudandolo avanzar carrera finalmente funciona herramientar premiar aprendizaje habilidadser adquirido entorno informal</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="n">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>desarrollo estadistica genero concretar él marco legal sistema estadistico oficial naciones unidas crucial importancia mejorar disponibilidad estadistica genero especificacion  requisito formal desg él él sexo incorporacion perspectivo genero legislacion estadistico nacional regula produccion difusion estadistica oficial ampliar gama informacion disponible analisis genero necesario establecer requisito estadistica recopilado oficialmente oficina nacional estadistico fuente dato particular dato administrativo recopilado difundido organismo gubernamental organización sector publico privado naciones unidas</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="n">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>reforma laboral legislacion combatir violencia mujer ley igualdad discriminacion ejemplo resultado concreto facilitado traves trabajo institución nacional genero johan region mén ejemplo institución genero egipto presionar parlamento cambiar ley nacionalidad ley pension ley exencion impuestos ley fondo pension alimenticio ley familia jordania edad legal contraer matrimonio elevo reforma legal apoyado institución nacional genero ibid</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="n">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>gasto farmaceutico reducir él eficaz practica contratacion publicar fomentar prescripcion generico hungrio informar tasa mortalidad alto cancer prevenibl p ej cancer pulmon cancer tratabl p ej cancer mama cuello uterino colon programa nacional promover deteccion periodico cancer mama cuello uterino tasas deteccion mujer grupo edad objetivo seguir baja</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="n">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>forma danina alcohol motivo preocupacion gobierno empleador privado impacto negativo empleo salario reducir productividad trabajo demostrado abuso alcohol resultado negativo mercado laboral resultado mixto patrón bebido genero consulte seccion prevencion nocivo alcohol enfermedad cronica relacionado conducir ganancia sustancial produccion economico traves fuerza laboral sano activo hallazgo presentado informe exento limitación</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="n">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>patron mostrar impacto hijo participacion mercado laboral ingreso mujer consecuenciar beneficio pension tipo sistema pension vincular beneficio empleo ingreso anterior beneficio tender reflejar desventaja acumulado mujer participacion vida mercado laboral sesgo genero comision europeo derechos proteccion social asociados trabajo remunerado mecanismo insuficiente reconocer recompensar tipo contribución persona realizar sociedad trabajo remunerado desigualdad genero mercado laboral transmitir sistema proteccion social razavi</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="n">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>largo tiempo esperar servicio cubierto impedir gravemente acceso atencion empeorar salud paciente requerir procedimiento tiempos esperar medido país ocde necesariamente homogeneo siciliani et calidad atencion multipl dimensión ocde proponer conjunto indicador dominio utilizar pai sistema informacion apropiado proporcion costo cubre</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="n">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>pauta nacional fumar consumo alcohol actividad fisico dieta espera personal atencion primaria aconsejar paciente habitos estilo vida ofrecer asesoramiento apoyo remisión paciente requerir atencion plazo responsabilidad paciente transferir municipio desarrollado plan atencion responsabilidad arreglo atencion primaria contexto atencion plazo anciano variable</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="n">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>movilizo red actor competente administradores caso apoyar estudiante tarea conducir calificacion postobligatorio completo apoyo disenado personalizar empoderador incluir apoyo elegir camino encontrar lugar aprendizaje terminar educacion obligatorio volver educacion desercion gamar medida apoyo adicional joven problema educativo social general duracion gestion caso variable depender necesidad individual teniar desarrollar propuesto proyecto concreto aprobado gobierno federal bundesamt fur berufsbildung und technologie bbt financia iniciativa</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="n">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>necesitar maestro tiempo preparacion tamano clase mantener constante consultar capitulo obtener detalle indecir ensenanza adaptativo hirt comparacion eficacia docente personal docente enfermeria clinico tiempo parcial tiempo completo perspectiva educacion enfermeria vol orgl</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="n">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>suecia inicio consejo nacional prevencion suicidio convirtiendose país mundir establecer estrategia nacional integral prevencion suicidio decision parlamentario conducir creacion centro nacional investigacion suicidio prevencion enfermedad mental nasp red coordín cooperacion actor involucrado incluido proveedor atencion medico servicio social escuela iglesia ong objetivo facilitar esfuerzo prevencion suicidio integrar trabajo salud publicar nacional nivel local</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="n">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>general mujer zona rural desconocer proceso concesion licencia complicado economia mena negocios hogar registrar él obtener licencia ejemplo emirato arab unido municipio requerir prueba ubicacion comercial arrendado otorgar licencia comercial impedir mujer iniciar empresa hogar evidenciar serio eleccion mujer emirati tradicional</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="n">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>dato tercio nino nigeriano pobre ano habian ingresado escuela primario momento correcto nino hogar rico habiar figura brecha continuo ampliar él comienzo nivel educacion medida proporcion nino pobre abandonar estudio comienzo educacion secundaria superior ciento nino pobre ingresar escuela comparacion ciento nino rico</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="n">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>dato ministerio infancia educacion igualdad genero numero pedagogo folkeskole aumento ministerio infancia educacion igualdad genero dinamarca b maestro escuela privado organizado sindicato separado tomar negociación maestros trabajar folkesko él historicamente condición laboral docente folkeskole determinado negociación sindicato docente lgdk</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="n">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>esfuerzo frente lista esperar incluido asignación presupuestaria adicional financiar trabajo hora extra sector publico cupón paciente obtengan atencion sector privado proyección asumir continuacion bajo prioridad actualmente salud probablemente suficiente plazo nivel gasto suficiente brindar cobertura poblacion largo tiempo esperar servicio particularmente evidente reciente crisis economico</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="n">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>percepcion sistema justicia penal victima excluir proceso judicial aplicacion ley etapa temprano victima tratado insensibilidad falta simpatio decidir continuar proceso victima querer terminar violencia estir seguro protegido creer sistema justicia penal ayudar él cooperar país adoptado ley politica responder prejuicio mujer nina mundo continuan experimentar violencia discriminacion dificultad acceder justicia</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="n">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>ejemplo negociacion representado brecha edad afectar positivamente cantidad tiempo esposo dedicar trabajo mercado esposa dedicar trabajo domestico efecto tiempo esposo dedicar trabajo domestico esposa trabajo mercado proxy brecha educativo afectar negativamente cantidad tiempo esposo dedicar trabajo domestico cuidado afectar positivamente tiempo espós esposo dedicar trabajo mercado afectar significativamente tiempo espós dedico trabajo domestico sugerir division trabajo hogar particular tiempo trabajo domestico cuidado mujer sujeto negociacion</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="n">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>segregacion campo genero efecto negativo ingreso futuro progresion profesional mujer profesión dominado hombr stem tender ofrecer salario lucrativo profesión dominado mujer mujer mexico obtener mitad titulo terciario campo stem ciencia vida figurar brecha genero expectativa campo trabajo</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="586">
-      <c r="A586" t="n">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>ejemplo proyecto ley liderado wpc prevencion acoso laboral abuso domestico permitido cambio division publicoprivado influido positivamente experiencia informal violencia abuso mujer debate discusión papel practica sociocultural mantener intacto brecha genero traves intercambio regular conocimiento organización internacional monitoreo implementacion efectivo politica inclusiva wpc servir especie perro guardiar parlamento asegurar cumplimiento medida institucional inclusion mujeres</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="n">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>pacto mundial migracion seguro regular posiciona migracion internacional responsabilidad compartido educacion ocupar lugar destacado agenda naciones unidas papel docente lucha segregacion escolar merecer reconocimiento capitulo destacar desventaja enfrentar inmigrante reflexionar politica practica ampliar acceso educacion</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="n">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>universidades region ver desarrollo galilea clave mision enfocar educacion ciencias social construir investigacion vinculo comercio industrio base bajo tel hai academic college ort braude establecido proveedor unico ingeniero tecnico interior region socio industria regional cuadro universidad forjado fuerte vincu él centro conocimiento alta galilea migal centro investigacion desarrollo propiedad privado ubicado parque industrial kiryat shmoneh comprender grupo investigacion agrociencia ecologia terapeutico quimicar analitico desarrollar actividad investigacion laboratorio avanzado</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="n">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>evidenciar solido mostrar igualdad genero mercado laboral educacion contribuir crecimiento economico felicidad nacional bienestar ocde confianza institución ingrediente clave clima inversion favorable desarrollo empresarial depender medida medido tomador decisión reflejar composicion sociedad termino genero finalmente lograr resultado inclusivo justo requerir proceso politica inclusivo integrar diverso perspectiva hombre mujer</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="n">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>grupo describir grupo persona caracteristica similar paciente evaluado periodicamente monitorear necesidad cambiant reasignado grupo necesario cerrar brecho prioridad cambio esencial salud mental incluir compromiso continuar desarrollar sistema nacional pago salud mental inglaterra país comenzar proceso cerrar asilo psiquiatrico centrar atencion salud mental comunidad</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="n">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>matriculacion educacion primario región desarrollo alcanzo frente matriculacion neto nina educacion primaria alcanzar region frente promedio mundial proporcion matriculacion primario mujer hombr region frente mundo tasas alfabetizacion adulto joven aumentar brecha genero reducir país particular ccg participacion mujer joven educacion superar rapidamente hombre qatar emirato arab unido tasa matriculacion universitario mujer hombr alto mundo familia extremadamente conservador logro educativo mujer joven alentado apreciado</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="n">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>significar capacidad lingistica estudiant identidad personal social cultural acogerla herramienta aprendizaje comprension holmen ayudar ninos cerrar brecho hogar escuela asegurar origen cultural lingistico valore mayoria brind et formar validar senalar dominio idiomir disenar estrategia apoyo adecuado aprendizaje idioma nino particularadema reconocer estudiante idiomir dán paso otorgar valor conocimiento</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="n">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>diferenciación discriminación legal hombre mujer vinculado vida privado acceso institución propiedad obtencion trabajo provision incentivo trabajar creacion credito juicio perjudicar gravemente mujer participacion esfera publicar alentar país considerar desarrollo principio regla poligamia institución efectivo proteger derecho parte involucrado particularmente mujer nino necesitar salvaguardia adicional proteger mujer divorcio arbitrario</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="n">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>desafio abordar junto razón disminucion inter programa corto educacion secundario vocacional faltar acceso directo educacion terciaria graduan programa formar abordar problema alinear elemento central pista secundario superior</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="n">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>disposicion privo mujer derecho electoral participar elección distrito electoral general candidata independiente partido politico mujer ocupar ciento esca yo parlamento actual ciento esca yo reservado ciento ocupado mujer miembro elegido directamente mujer parlamento nacional ciento ministro gabinete mujer portal web nacional bangladesh</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="n">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>trabajador tiempo completo ganar par masculino grafico brecha salarial genero ajustado calcular diferenciar ingreso medio hombr mujer relacion ingreso medio hombr estimación ganancia utilizado calculo referir ganancia bruto trabajador asalariado tiempo completo</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="n">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>reconocer caracteristica importante desarrollo funcionamiento impacto sistema educativo evaluar él comprension resultado aprendizaje relación insumos proceso nivel individuo institución nino adulto joven encontrar educacion formacion inicial adulto seguir programa aprendizaje vida indicador resultado examinar efecto directo resultado sistema educativo empleo beneficios obtener educacion superior indicador impacto analizar efecto indirecto plazo resultado conocimiento habilidad adquirido contribución crecimiento economico bienestar social cohesion equidad social dicho instrumento politico relacionar recurso invertido educacion incluido recurso financiero humano maestros personal escolar fisico edificio infraestructuro</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="n">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>dato gasto sanitario reciente mostrar aumento gasto bolsillo porcentaje gasto sanitario mayorio país europeo declaracion necesitar calificar país provision servicio determín nivel local proveedor sujeto limitación recurso medido ajustar presupuesto país cambio coberturo dificil cuantificar seccion documento define cobertura salud sección siguiente</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="599">
-      <c r="A599" t="n">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>actualidad institución administracion publica federal intensificar esfuerzo disenar politica orientado reducir brecha genero sector gobierno esfuerzo arraigar lograr impacto duradero fundamental maximizar sistematicamente herramienta politica evaluación impacto genero elaboracion presupuesto perspectivo genero recopilacion dato desglosado genero respalden formulacion politica basado evidenciar consecuencia capitulo examina herramienta mecanismo utilizar mexico actualmente busquedar objetivo igualdad genero referencia recomendacion ocde igualdad genero vida publicar brindar orientacion mexico garantizar politica inclusiva sostenible sensible genero reconocer igualdad genero objetivo transversal apoyar pais lograr meta nacional desarrollo mexico comprometido incorporar perspectiva genero acción politica ley gubernamental</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="600">
-      <c r="A600" t="n">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>administracion solicitar us millón us millón haiti us millón guyán saldo solicitud país traves financiamiento asistencia exterior supervivencia salud infantil csh caribe usaid brindo asistencia vihsido trav programa bilateral regional miembro activo asociacion pancaribena vihsido programa regional caribir usaid iniciado programa centrado paises caribe contar presencia permanente usaid trinidad tobago surinam san cristobal nieve santo lucia san vicente granadinas granada antiguo barbuda dominico barbado</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="n">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>austria eslovenia ejemplo mujer ocupar puesto secretario figura tendencia coherente segregacion laboral tradicional mujer ocupar puesto menor categoria remunerado nivel educativo mujer llevado aumento representacion esfera profesional mayorio país ocde</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="n">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>sistema proporcionar estimulo debil mejora continuo calidad prestacion atencion mayorio profesional pagado unicamente traves salario fijo vinculacion evaluacion desempeno caso contrato temporal incluir beneficio seguridad social evidenciar escenario nacional concluido alejar él mecanismo salarial profesional salud estrategia exitoso aumentar eficiencia asignacion ejemplo fortalecimiento sistema atencion primario mejorar experiencia usuario remuneracion ligado desempeno prevencion cuidado costoso incluido hospitalización evitabl morenoserrir proveedor tender concentrar él medida areas densamente poblado aumento notable numero proveedor privado localidad ultimos ano</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="603">
-      <c r="A603" t="n">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>redistribucion trabajo remunerado pilar lograr igualdad genero america latino caribe bidegain ponte capacidad colocar nino pequeno guarderia depender medida adquisitivo hogar programa atender mujer hogar pobre vulnerable caso servicio regulado estricta supervision estatal condición calidad atencion centro mixto</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="604">
-      <c r="A604" t="n">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>particular sistema informacion instituto sp s seguir incompatible registro censo nacional paciente requisito minimo permitir interoperabilidad trabajo cercano atencion medica mexico recurso país ocde actualmente mexico gastar pib salud promedio ocde equivaler usd ppa per capita ano promedio ocde usd ppp</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="n">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>general implementacion solido sistematico estrategia participacion paciente programa alfabetizacion salud reducir dano agregado retorno inversion problema seguridad medicamento adir entorno sorprendente intervención dirigido dispensacion administracion medicamento ocupar lugar comparativamente opción proporcionada encuesta estudio util destacar valor enfocar interprofesional seguridad medicamento</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="606">
-      <c r="A606" t="n">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>municipio financiar atencion edad atencion domiciliario atencion social región responsable atencion medica primario psiquiatrico especializado impuesto local regional complementar gobierno central cargos usuario subsidio medicamento recetado pagar trav subvención estatal designado región</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="607">
-      <c r="A607" t="n">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>país alc tender ratificar convencion país región actitud discriminatorio variar región persón declarar hombre mejor lider politico mujer alc tercio país ssa ocde eap eca actitud sesgada genero liderazgo politico extendido sa mena poblacion respectivamente subestimar liderazgo politico mujer abordar pregunta comenzamo investigar relacion discriminacion genero institución social capturado sigi ingreso per capita medido pib per capita</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="608">
-      <c r="A608" t="n">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>ganancia esperanzo vida ano mujer estonia anos ano vidar hombre ano mortalidad cancer causa muerte representar mujer hombr causa externo ocupar tercer lugar representar muerte hombre periodo mortalidad cancer disminuyo mantener medio ue politica combatir tabaquismo consulte seccion cancer pulmon causa comun mortalidad cancer</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="609">
-      <c r="A609" t="n">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>pais fortalecer desarrollo profesional docente escuelas investigacion confirmar desarrollo profesional docente efectivo colaborativo integrado practica aula cole particular sistema evaluacion docente fuerte informar progresion diferenciacion carrera costa rico asignacion subsidio docente</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="610">
-      <c r="A610" t="n">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>calidad general entorno eapi efecto ingreso adulto país proporción personal nino regulado proporción alto personal nino pequeno proporción bajo nino mayor nichd falta investigacion exactamente proporcion favorable mejorar satisfaccion laboral docente calidad eapi resultado nino</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="611">
-      <c r="A611" t="n">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>implementacion ensenanza ciencia basado indagacion plagado desafio ejemplo descubrimiento minimamente guiado aprendizaje basado proyecto aprendizaje indagacion agrupar titulo nivel participacion maestro diferir practica resultado aplicacion criticar general estrategia practicar hmelosilver duncar chinn</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="612">
-      <c r="A612" t="n">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>extremo inferior encontrar camboyo turquia azerbaiir país asia pacifico ministra botar brunei darussalam nauru papua guinea singapur isla salomon vanuatu hong kong chino ocaber lugar seguido chino malasio zelanda singapur indio mitad directorio examinado teniar directora absoluto chino lider mundial proporcion puesto directivo ocupado mujer seguido filipino georgia tailandio viet nam respectivamente federacion rusia ciento</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="613">
-      <c r="A613" t="n">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>gobierno decidar recientemente establecer formacion especializado enfermera cuidado cronico hospital enfermera probablemente empleado practica medico general servicio salud municipal región invertir centro especialidad multipl llamado casa salud incluir medico cabecerar actuan coordinador atencion especialista fisioterapeuta surgir dificultad contratar medico cabecera consulte seccion sistema atencion primario resistir reducción actividad atencion agudo descrita anteriormente hospitalización evitabl afección alto promedio ue consulte seccion s</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="614">
-      <c r="A614" t="n">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>servicio local salud mental brindar diverso nivel intervencion apoyo entorno comunitario objetivo evitar atencion residencial punto considerar absolutamente necesario apropiado tratamiento salud mental moldeado significativamente nacimiento nhs convirtio principal proveedor atencion medica inglaterra cambio lento detencion persona trastorno mental prevencion tratamiento comenzo decado continuo nhs recien formado medida comenzo cambio institucionalizacion atencion basado comunidad</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="615">
-      <c r="A615" t="n">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>toutefois quils soient homm ou femmes emprendedor pariente raro indir par rapportir dautr pays  comparable et ont tendance travailler dans petit entreprís souvent situees dehors leconomie formelle bon nombre des obstaculo creation dentreprise sont communs aux deux sexes acz aux financements et aux reseaux economiques formacion adecuado locaux femm emprendedora heurtent des prejug sexist qui trouvent leur origine dans des facteurs socioeconomiques ou dans certains partis consacr par droit notamment par droit fheritage flexibilidad tiempo espiritu empresarial facilitar equilibrio trabajo obligación familiar mujer empresario hombr mujer relativamente escaso india comparacion país tender trabajar unidad pequena sector formal</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="616">
-      <c r="A616" t="n">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>situacion mejorar particularmente escuela programa tecnicoprofesional desfavorable dato referir promedio mostrar pisa significar diferencia significativo nivel confianzo error estandar estimación disponible fuente original</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="617">
-      <c r="A617" t="n">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>sequia inundación contaminacion deforestacion suponer carga importante mujer ver aumentar tiempo recoleccion agua frustran esfuerzo recoleccion lén forraje ver afectado desproporcionado capacidad mantener familia frente desastre contrario mujer nina negar derecho oportunidad progresar inevitablemente flaqueara agenda conjunto estar peligro incorporacion sistematico perspectivo genero implementacion seguimiento objetivo desarrollo sostenible ods crucial unica excepcion enfoque ods cubrir integral nivel meta utilizar indicador correspondiente dato disponible</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="618">
-      <c r="A618" t="n">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>resultado empirico sugerir obtener recurso educativo aumentar equidad trav politica proporcionar senal pertinente escuela docente ejemplo brindar incentivo financiero docente calificado resultar herramienta eficaz dirigir él estudiante desfavorecido areas tercer lugar trabajo lleno vacio investigacion empirico proporcionar evidencia país diferencia país especifico importancia politico intervencion temprano atenuar desigualdad socioeconomica intergeneracional oportunidad educativo sugerir politica cuidado infantil intervencion temprano efectivo alcanzar objetivo finalmente analisis país intentar descubrir papel jugar politica social mercado laboral influir igualdad oportunidad educativo dado relacion positivo desigualdad intergeneracional transversal ingreso</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="619">
-      <c r="A619" t="n">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>país iniciado programa objetivo reforma mejorar inclusion social persona trastorno mental situacion actual calidad vido paciente trastorno mental grave comparable situacion vida precario centro largo estancia decada desinstitucionalizacion llevado general mejora inclusion social empleo</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="620">
-      <c r="A620" t="n">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>similar bebedor danino actual convirtio bebedor bebedor danino bebedor danino proporcion bebedor nocivo vario edad grupo edad ano ano ano a yo hallazgo sugerir adulto joven ver afectado conducta consumo alcohol daninas comparacion grupo edad figura mostrar tasa general poblacion hombre mujer figurar mostrar tendencia hed hombre mujer grupo edad dato nhán mostrar aumento hed grupo edad ano dato nsduh mostrar aumento significativamente leve nulo limite semanal bebido semán mujer hombr</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="621">
-      <c r="A621" t="n">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>país vincular resultado evaluacion recompensa sanción economica territorio australiar francia nivel cenar director subdirector escuela recibir incremento salarial permanente recompenso desempeno sobresaliente francia nivel cine desempeno excepcional director subdirectores escuela recompensar él bonificacion financiero unico chile evaluacion desempeno lider escolar destacado recibir incremento salarial periodo fijo tiempo</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="622">
-      <c r="A622" t="n">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>base importante base conocimiento politica comparativo sectorial disponible ocde serie dar lugar publicacion bienal volumen desarrollar perspectiva comparativo politica educativo proporcionar analisis contexto desafio politica educativo pais perfil politica educativo tendencia internacional yb vision comparativo politica reforma tema seleccionado destinado llamar atencion politica especifico prometedor mostrar resultado positivo relevante país apoyo editorial cargo lyndo hawe susar copeland</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="623">
-      <c r="A623" t="n">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>responsable autoridad federal general preocupado desarrollo nacional compromiso regional local país institución educacion superior malasia mision regional explicitar dejar iniciativo institución individual universidad intensivo investigacion principal impulsor excelencia cientifico</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="624">
-      <c r="A624" t="n">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>bahreinir libano ejemplo jurisdiccion sunita chiita ley codificada caso bahrein ley familio referir secta sunitar promulgo virtud ley ley menor egipcia modifico elevar edad minimo matrimonio nina ano</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="625">
-      <c r="A625" t="n">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>esfuerzo profesional seguir forma moderno educacion medica continuo infancia mitigar esfuerzo impulsar ganancia calidad servicio atencion medico implementar sistema seguimiento localizacion dispositivo medico rastrea ubicacion dispositivo medico paciente resultado</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="626">
-      <c r="A626" t="n">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>trabajo consistir mantenimiento laboratorio preparacion experimento asistencia profesor realizacion clase laboratorio estipular categoria profesional apoyar funcionamiento diario escuela ejemplo contador psicologo enfermero bibliotecario oficinista secretario reparador guardia portero anexo numero puesto categorio depender tipo nivel educacion numero clase consolidado escuelar normas maestros proporción estudiant maestro condición sanitario escuela significar escuela suponer mayorio estudiant encontrar condición comparable</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="627">
-      <c r="A627" t="n">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>general sistema informacion salud valor alto terminos disponibilidad madurez dato encontrar dinamarca finlandia islandia israel corea zelanda noruego singapur suecia reino unido escocia gal conjunto dato nacional salud personal informado país tender cobertura alto población objetivo basar extraccion automatico dato registro clinico administrativo electronico incluir codigo estandar terminologia clinico razón clave aprobar vinculo incluir desarrollo indicador rendimiento sistema calidad atencion medica medir coordinacion atencion resultado via atencion utilizacion costo recurso cumplimiento pauta nacional atencion medico</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="628">
-      <c r="A628" t="n">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>tercer lugar tendencia brecha genero pago hora capturar discriminacion salarial directo mujer trabajar tiempo parcial largo periodo empleo brecha ingreso genero vida seran mayor ultima decada mujer aumentado educacion superar hombre ampliado permanencia empleo ingresado ocupación medicina derecho sugerir accion mujer suficiente lograr igualdad contexto institucional mujer desarrollar carrera cambiar fijacion salario contratacion promocion tema central informir cambio mano politica reconocer valor trabajo cuidado remunerado mujer hogar ampliar apoyo social trabajo cuidado cuestión abordar resumen politica tipo reforma esencial reducir brecha salarial genero brecho ingreso vido mujer definición internacional considerar salario ciento salario nivel salario minimo soler proporción</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="629">
-      <c r="A629" t="n">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>cuidado asegurar participacion nina mujer ambient separado deporte especifico reforzar división social genere resistencia inutil miembro sociedad hayhurst et consideración senalar importancia adoptar enfoque descentralizado sensible norma cultural local involucrar miembro familia comunidad kay spaaij incluido nino hombre iniciativa dirigido especificamente nina mujer desigualdad estructurado prioridad mujer joven particular experiencia liderazgo adquirido trav iniciativa basado deporte contribución distintiva empoderamiento esfera social economica politica lindsey et</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="630">
-      <c r="A630" t="n">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>practica patriarcal sistema dot matrimonio precoz preferencia hijo varón purdah segregacion mujer menstruacion chhapaudi seguir extendido perjudicar mujer nepal ocupar puesto país indecir desarrollo humano idh ubico categorio desarrollo humano informe brecha genero global foro economico mundial ubico nepal puesto paisser bangaldesh sri lanko indio codificar analizar estudio caso mujer migrant retornada alojar casa acogida organizacion gubernamental ong pourakhi katmandu periodo comprendido julio junio</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="631">
-      <c r="A631" t="n">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>dicho servicio atencion medica esencial minimizar morbilidad asociado tal evento implicar acceso financiero costo imponer barrera innecesario atencion acceso fisico garantizar atencion oportuna sistema salud brindo atencion alto calidad analisis informe examina via país ocde ofrecer programa servicio relacionado enfermedad cardiovascular diabet promocion salud salud publicar atencion primaria atencion agudo</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="n">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>invertir desarrollo profesional educador recurso aprendizaje digital abordarar capitulo llegar región pais tailandia seguir utilizar television proporcionar contenido educativo obstante necesario soportar inversion inicial hardware</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="n">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>implicar medida proteger derechos pension mujer divorcien enviudar compensar costo distribucion trabajo remunerado arreglo familiar derecho pension implicar promover esquema pensión combinir riesgo longevidad mujer hombr evitar castigar vivir implicar establecer mecanismo regular indexacion beneficio pensión evitar perdido adquisitivo edad mujer sufrir longevidad</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="n">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>persistir limitacion produccion estadisticas genero sexo utilizar variable desg él él dato presentado explicar capitulo i mostrar capitulo ii estadistica genero analisis genero significativo normalmente requerir desg él él sexo caracteristica tiempo ejemplo segregacion genero mercado laboral parcialmente determinado brecha genero educacion dato ocupación desglosar él nivel educacion alcanzado</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="635">
-      <c r="A635" t="n">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>apuntar direccion evidencia asociacion positivo país ocde participacion transferencia social ingreso persona vejez nivel pobreza vejez oit fig womens tasar pobrezar edad avanzado alto hombre mayorio país ue cifra incluir elemento crucial bienestar particular acceso vivienda atencion medico servicio social cuidado anciano hogar ejemplo servicio particularmente importante mujer mayor senalo anteriormente vivir hombre promedio probabilidad enviudar vivir mayor costo vivienda carecer asistencia cuidado miembro familia cohabitar necesidad servicio cuidado ancianos</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="636">
-      <c r="A636" t="n">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>preocupacion particular tasa obesidad aumentar rapidamente traer consecuencia enfermedad potencialmente devastador costoso diabet proporcion poblacion empleo informal red seguridad social desarrollado frente desafiante constelacion circunstancia mexico necesitar sistema salud responder necesidad cambiant persona capaz ofrecer atencion continuo personalizado orientacion proactivo preventivo rentable sostenible inversion considerable financiado fondo publico sistema salud traducir mejor resultado salud</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" t="n">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>dejar escuela desfavorecido necesitar apoyo poder comenzar considerar diferencia etnica recurso aprendizaje lugar obstaculo aprendizaje ocde b identificar relacion educacion preescolar desempeno escolar posterior desafio asistencia educacion preescolar correlaciona ventaja socioeconomico nino desfavorecido ingresar preescolar zagar nino favorecido probable oportunidad jugar casa explorar patrón forma relación espacial comparar magnitudes contar objetos</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" t="n">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>espiritu ods dicho politica adoptar él evaluar él perspectivo equidad genero inversion publica herramientar lograr pleno empleo promover medio subsistenciar mujer tiempo reducir competencia genero trabajo maritimos n mujer inversion publicar soler estimular empleo empresa contratar trabajador satisfacer aumento demanda agregado dirigido inversion publicar promueve acumulacion capacidad reducir vulnerabilidad generar resiliencia pnud</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" t="n">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>necesario reflexion alla enfocar paridad organizacion llegar imagen completo relación dinamica genero jugar dato encuesta anual personal global mostrar consistentemente brecha experiencia hombr mujer empoderamiento crecimiento profesional apertura equidadrespeto equilibrio vida laboral personal gestion oficinar paridad genero generalmente informar nivel agregado nivel regional sede oscurecer imagen diferenciado situacion oficina unidad pais pnud relacion historicamente estrecho colaboracion onumujer madurado medida onumujer reorganizado presencia organizativo nivel mundial espacio aclaracion acuerdo asociacion</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640" t="n">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>botswán ejemplo ministerio salud moh registro porcentaje persona ano asistir anc infectado vih disminuyo ciento ciento disminucion ciento mujer embarazado moh particular prevalencia grupo edad ano disminuido moh</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="n">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>mujer escolaridad obligatorio probabilidad alto ingreso bajo edad ano trabajar ingreso bajo lugar obtener educacion alla escuela secundario rentable hombre obtener titulo universitario profesional suponer diferencia significativo evidenciar rendimiento margen mujer termino empleo ingreso anual probable diferencia resultado mercado laboral deber hombre mujer categoria educativo encontrar campo educativo enfrentar mercado laboral</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" t="n">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>base dato actualizo anualmente motivo internacional mujer estimación provenir encuesta nacional tiempo basado muestra representativo nivel nacional persona categoria actividad primario actividad simultanea secundario excluir mejorar comparabilidad país etiopio ejemplo hombre dedicar doble tiempo trabajo remunerado estudio mujer ocurrir contrario trabajo cuidado remunerado</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="643">
-      <c r="A643" t="n">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>planteado duda exogeneidad tal instrumento parecer asociado crecimiento economico taylor sachs warner klasen klasen utilizar tasa fertilidad crecimiento gasto publico educacion instrumentar brecha genero educacion documento asumir influencia deberio operar retraso</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="644">
-      <c r="A644" t="n">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>efecto desglosar componente tasa empleo mujer intensidad trabajar mujer proporcion mujer trabajo calificado rendimiento general empleo femenino efecto salario figura mostrar proporcion hogar mujer trabajador permanecido mediados decado desigualdad ingreso hogar habrio aumentado promedio país ocde punto adicional aumento gini lugar impacto igualador aumento empleo femenino país belgico país bajo espana reino unido proporcion hogar edad trabajar trabajadora aumento considerablemente contribuyo reducir desigualdad punto gini paises</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="645">
-      <c r="A645" t="n">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>confianza excesivo prueba estandarizado sistema tomar decisión afectar vida persona educacion formal obligatorio ano sistema educativo educacion formal puramente voluntario aprendizaje informal influenciado padre cultura trabajar junto poderoso necesitar programa preparacion universidad ejemplo estudiante cuyo escuela secundario apoyar adecuadamente aprendiz independiente</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" t="n">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>presentar responsabilidad individual significar exito equipo depender aprendizaje individual producto grupal considerar plan estudios diferencia individual significativo capaz ampliar alumno allo capacidad autodefinido dumont istance benavides dado variacion país responsabilidad curriculo dificil proporcionar direccion politico claro curriculos nivel escolar metodo aprendizaje cooperativo implicar maestro colocar estudiante clase pequeno grupo temporal habilidad mixto enfocar tarea requerir confien habilidad dema tender funcionar igualmente tipo estudiante slavin</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" t="n">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>encontrado estudio grupo revision pares apoyo maestro util japon grupo maestros trabajar junto planificar ejecutar evaluar lección individual estrategia instruccion lograr objetivo aprendizaje especifico visitar aula demas comprender practica docente colega finlandio docente disponer semana planificacion conjunto desarrollo curricular barber mourshed</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" t="n">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>opinion tribunal demandado organismo administrativo universidad fijado promedio minimo aceptar departamento medicina hombre kuwaities mujer kuwaiti grupo situacion juridico superar ano fundacion centro ciencia medica considerar viola principio igualdad estipulado articulo constitucion tribunal anulo politico aceptacion basado discriminacion genero excepcion educacion terciario nivel educativo mujer incrementado</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="649">
-      <c r="A649" t="n">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>necesario ampliar formacion desarrollar conocimiento contenido materia especializado senalado anteriormente administrar escuela barrio ingreso bajo medio santiago dotado nivel recurso similar escuela privado subvencionado escuela sip lograr sistematicamente puntaj alto prueba simce varianzar menor robusto controlar antecedente socioeconomico desempeno escuela sip cercano escuela privado pago atender estudiante alto ingreso recurso mayor resultado alto tarifa proceso seleccion ingresar basado entrevista padr prueba habilidad departamento pedagogico centralizado desarrollar prueba escuela sip evaluar sistematicamente progreso alumno</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="650">
-      <c r="A650" t="n">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>seria util considerar dicho programa orientar él atender necesidad prioridad region experimentacion modelos aprendizaje experiencial basado problema entorno grupal proporcionar solucion traeria beneficios grupo amplio estudiante necesidad aumentar mejorar agresivamente educacion empresarial</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="651">
-      <c r="A651" t="n">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>similar dar representacion desproporcionado mujer vivir pobreza plan prestamo gobierno comprar tierra inaccesible mujer costo plar abierto hombre mujer vease entidad naciones unidas igualdad genero empoderamiento mujer onumujer progreso mujer mundo buscar justicia informe oficina alto comisionado naciones unidas derechos humanos derecho practica esfuerzo dirigido prevenir violencia mujer ahrc vear grupo trabajo cuestion discriminacion mujer ley practico disponible wwwohchrorgenlssueswomenwgwomenpageswgwomenlndexaspx consultado noviembre</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="652">
-      <c r="A652" t="n">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>team academy ofrecer flujo educativo especial ano estudiante recibir formacion intensivo liderazgo marketing miembro equipo traves trabajar proyecto vida real team academy abierta estudiante negocios base experiencia desarrollado conjunto curso promover emprendimiento estudiante titulo camino emprendedor naciente brindado educacion empresarial graduado bba origen empresa cooperativo operar tiempo estudio graduado team academy empresario activo especialmente sector servicio consultorio team academy recibido serie premio nacional metodo aprendizaje innovador trayectoria comprobado mejora espiritu empresarial</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="653">
-      <c r="A653" t="n">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>establecer claramente sistema tenencia tierra garantizar seguridad tenencia corregir disposición constituir discriminacion mujer ley reforma tierra comunal namibio otorgar conyug sobrevivient residir area rural derecho permanecer tierra asignado conyug fallecido derecho ver afectado matrimonio</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="654">
-      <c r="A654" t="n">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>tendiar informar trabajo equipo mejora eficiencia preferir trabajar equipo trabajar pensar equipo tomar mejor decisión individuo escuela lograr desarrollar actitud diseno entornos aprendizaje colaborativo involucrar estudiante desfavorecido manera empezar padre</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="n">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>hombre probabilidad mujer negocio empleado mujer rara propietaria empresa ingreso medio trabajo bajo hombre norma cultural estereotipo faltar modelo seguir mujer estir interesado carrera empresarial confianzo capacidad empresaria obstaculo escasez tiempo composicion red profesional llevar mujer emprender negocio relativamente pequeno bajo nivel capital inicial financiamiento bancario obstaculo establecer desventaja competitivo empresa propiedad mujer traducir nivel productividad laboral inferior empresa propiedad hombre documento presentar ejemplo iniciativa politica dominio creditir capacitacion concientizacion desencadenar doble dividendo espiritu empresarial mujer empoderamiento mujer empresa productivo</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="656">
-      <c r="A656" t="n">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>estilo negociacion abarcador incluir tema afectar hombre mujer nina nino mujer aprovechado debidamente espacio politico promover interés mujer nina empoderamiento politico desarrollo socioeconomico mujer lider tender presionar enmienda iniciacion ley nacional politica local mejorar infraestructura reforma constitucional legislativo derogar ley repugnant ratificacion resolución internacional derecho mujeres</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="657">
-      <c r="A657" t="n">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>capitulo ofrecer variedad marcos comprender genero tipo violenciar mujer capacidad rol mujer constructor paz basar él campo biologiar sociologia teoria politico practica construccion paz ejemplo mundo brindar instantanea complejo dinamicar genero violencia consolidacion paz lente sensible genero consolidacion paz destacar necesidad urgente ampliar programacion incluir empoderamiento mujer atencion violencia mujer entorno publico privado</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="658">
-      <c r="A658" t="n">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>solicitud publico comercial derechos traduccion enviar él rightsoecdorg presento descripcion general país ocde asignar tiempo instruccion desarrollar modelo comprender efectivo tiempo instruccion asignado examina país ocde comparar documento confirmar valor tiempo instruccion suficiente recurso educativo clave conclusion clave importante forma utilizar tiempo asignado</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="659">
-      <c r="A659" t="n">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>brecha genero empleo seguir amplio brecha genero educacion evidencia segregacion laboral genero nivel mundial disminucion participacion mujeres sector industrial ultimos ano idrc seguino proxima publicacion factor principal igualdad medio vido mujer hombr generar negociacion influir distribucion recurso nivel hogar</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="660">
-      <c r="A660" t="n">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>feminizacion fuerza laboral asociado reduccion brecha tasas participacion laboral masculino femenino generar crecimiento pib medido valor contemporaneo rezagado indicio efecto potencialmente positivo mediano plazo aumento numero hora trabajado intensidad laboral guardar relacion inversar crecimiento senal impacto negativo reduccion tiempo dedicado trabajo cuidado deficit compense sustitucion servicio publico privado cuidado asuncion tarea miembro hogar verificar intuicion serio necesario analisis trabajo ahorro hogar ver influido cambio oferta laboral femenino condicion subyacente viabilidad crecimiento impulsado demanda consonancia conclusion salario bajo presente impulsar crecimiento salario tendran tender alza tendencia crecimiento mantenga sostenido</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="661">
-      <c r="A661" t="n">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>brecha genero generalizado variar país región mundo paisser desarrollado nina mujer sufrir acceso desigual bien economico educacion instalación basica atencion medica mayorio país desarrollado desigualdad genero persistir formar institución social discriminatorio creencia rol genero socavar oportunidad mujer inhibir pleno participacion actividad economica social politica reducir calidad vida país desarrollo resultado salud infantil estrechamente relacionado acceso mujer recurso país mujer carecer derecho propiedad tierro promedio nino desnutrido mujer acceso creditir numero nino desnutrido promedio ocde país alto ingreso demostrado nivel educacion madre efecto rendimiento academico hijo ocde b</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="n">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>promedio ocde tasar reemplazo poblacion hijo mujer estancamiento tasa fertilidad temo particularmente importante alemania satisfaccion personal derivado crianza hijo bebes significar trabajador futuro consecuencia perniciosa economia mujer alemán nivel educativo probabilidad hijo mujer realizar trabajo remunerado especialmente mujer realizar trabajo remunerado tiempo completo mujer ingreso alto probabilidad hijo mujer ingreso bajo mujer ingreso bajo vivir sostir economico masculino diferencia rol genero dramatica francia probabilidad luz realidad aumentar ingreso mujer capitulo</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="663">
-      <c r="A663" t="n">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>obesidad frecuente persona nivel educativo prevalencia factor riesgo grupo desfavorecido contribuir medida disparidad salud esperanza vida regulacion supervision planificacion seguimiento calidad funciones gobierno nacional prestacion servicio responsabilidad región municipio región responsable definir administrar servicio salud municipio responsable prevencion enfermedad promocion salud rehabilitacion atencion domiciliario atencion plazo seccion</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="n">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>vincular enfoque abierto consultivo desarrollo politica servicio publico prestacion ocde aumento inversion educacion vital satisfacer necesidad economio rapido modernizacion describir capitulo aumento gasto costa rico visto mejora significativo finalizacion escuela aprendizaje estudiantes indicador esperar beneficio inversion educacion alentadores productividad aumentado mercado laboral fragmentado dualidad subsector informal escasez habilidades evidente desigualdad crecer ocde</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="n">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>requerir inversión adicional mayorio país mena incorporar presupuestacion genero ciclo presupuestario principal gobierno practica arraiguir seria importante garantizar parte interesado pertinente incluido parlamento participar activamente proceso practica país ocde mena p ej marruecos ayudar formulador politica mena implementacion presupuestos genero sistematico sostenible permitirio incorporacion perspectivo genero forma estrategico garantizario aceptacion nivel gobierno aumentar concienciacion incorporacion perspectivo genero</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="666">
-      <c r="A666" t="n">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>portal dán salud electronico portal oficial servicio publico danés atencion salud permitir paciente profesional salud encontrar informacion comunicar pai publicar informe anual basado base dato clinica nacional informe variacion regional resultado salud programa folkesundheds public health  program incluyo serie metas reduccion desigualdad salud</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="667">
-      <c r="A667" t="n">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>economia suicidio estudio serie temporal ee uu pobre seguro tratar hospital designado medicamento generico prescrito aumento cargo usuario instalación publica ambulatoria eliminar cargo usuario grupo vulnerable liberalizacion farmacia financiacion basado produccion hospitalario utilizado presupuesto hospitalario</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="668">
-      <c r="A668" t="n">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>país dinamarca país bajo noruego depender medida personal hungrio papel limitar reflejar cifra comparativamente bajo mil habitante consonanciar tendencia general disminucion numero cama hospital numero cama hospital mil habitante hungrio reducir politica contencion costo dirigido exceso capacidad sector hospitalario advenimiento tecnologia medica permitir dependencia atencion diurno lugar largo hospitalizacion obstante numero cama hospitalaria mantener promedio ocde mil ocde figura duracion medio estancia cuidado agudo hospitalizacion bajo ocde</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="669">
-      <c r="A669" t="n">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>mujer trabajar hogar necesitar adquirir variedad servicio incluido cuidado nino cocina sastrerio probablemente realizariar tarea remunerada demanda servicios resultado creacion empleo oportunidad economica empleo femenino conducir aumento adquisitivo hogar amplio reserva talento disponible economia facilitar entrada formal mujer economiar trabajador consumidora inversionista aumentar produccion economico potencial riqueza estudio abarco país arab encontro perdido pib brecha genero ascender ciento recurso mano mujer implicar gama resultado positivo capital humano capacidad hogar utilizar él mejorar salud educacion hijos</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="670">
-      <c r="A670" t="n">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>promedio ano dato mayorio país basar umbral minimo semana gestacion gramo peso nacer eliminar impacto practica registro beber extremadamente prematuro país observar numero cama per capitir grupo región tasa hospitalizacion relativamente bajo numero cama per capito promedio numero alto cama per capito escasez personal medico zona rural servicio transporte deficiente largo tiempo viaje centros atencion salud socavar acceso servicio zona remoto pai oms</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="n">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>resultado numero cama situo torno medio ue duracion medio estancia medio comparacion hospital regional pequeno sugerir espacio racionalizar red hospitalario mejorar eficiencia oposicion publicar probablemente genere seccion cirugiir catarata exito particular porcentaje alto caso ambulatorio ue amigdalectomia contrario realizar exclusivamente entorno hospitalario figurar</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="n">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>butler baso idea describir genero actuacion repeticion estilizado acto lugar categoria estable masculinidad hegemonico encarnar formo masculinidad honrado dominante requerir dema hombre posicionir relacion masculinidad complice describir hombre promulgar masculinidad hegemonico beneficiar masculinidad subordinado referir hombre oprimido masculinidad hegemonico ejemplo hombre homosexual beneficiar hombr lugar mujer</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="n">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>equipo intervencion temprano aceptar referencia medico cabecerar equipo salud mental comunidad equipo local intervencion temprano aceptar autorreferencia referencia amigo familiar persona necesidad complejo requerir apoyo continuo incluir enfoque programa atencion cpa recibir plan atencion revisión periodica</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="n">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>parterar profesional capacitado realizar visita domiciliario atencion madre incluir intervención observar flujo sanguineo medir temperatura proporcionar suplemento hierro acido folico metodo anticonceptivo madre adolescente carecer conocimiento educacion experiencia ingreso relacion madre mayor cultura soportar efecto actitud critica situacion dificil provision atencion continuo posterior parto brindar apoyo adicional necesario madre recien nacido</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="n">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>país coberturo pension contributivo bajo estratificado mujer bajo ingreso ver doblemente excluido carecer beneficio pension jubilacion trabajo remunerado informal vida pension derivado esposo casado convivir trabajador informal resultado país coberturo incompleto estratificado beneficio derivado terminar aumentar transferencia familia empleo formal mayor ingreso beneficio recortado reducido significativamente eliminar restringir duracion someter elegibilidad probar medio saraceno keck país adoptado sistema pension ndc seguido cubrir viuda plar beneficio definido payg separado eliminado beneficio sobrevivient completo james suecia pension viudedad abolio mujer nacido reemplazo beneficio reajuste durar ano mujer hombre menor ano</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="n">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>ces  obligación doivent etre respectees dans tout lois politiques et intervención lien avec famille grace aux objectifs development durable odd et ses cibl program development durable ihorizon semploie realiser droit ihomme tous et parvenir iegalitir des sexes et iautonomisation tout femm et fill preambulir parrafo outre dans cadre ce program dirigeants mondiaux sont involucrar promouvoir cohesion des family parr familys ont change au fil du temps questcequune famille</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" t="n">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>ejemplo mujer tender gastar ingreso hombre sabidurio convencional nino madre controlar recurso hogar evidenciar provenir economia desarrollo lundberg poliak apoyar trabajo remunerado mujer diriar modelos negociacion dario discrecion gastar recurso familiar nivel educacion mujer joven igualar superar hombre mayorio país ocde hombre mujer asociar alguien estatus socioeconomico similar perdido sustancial mujer quedar casa</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" t="n">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>turquiar prioridad abordar incluido mejora equidad región area urbano rural abordar necesidad estudiant desfavorecido preparar maestro lider escolar calidad mejorar acceso finalizacion educacion secundaria superior educacion formacion profesional vet educacion terciaria fortalecer vinculos mercado laboral financiar adecuadamente sistema educativo programa educacion basico proyecto secundario banco mundial teniar objetivo mejorar calidad educacion nivel plar maestro implementacion incluyo multipl proyecto unicef mejorar equidad calidad sistema educativo desarrollado iniciativa vet educacion terciaria union europea mejorar alineacion estandar europeo</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" t="n">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>incluir reevaluacion necesidad usuario servicio derivacion proveedor necesario estandar asegurar calidad minimo atencion apoyo persona recibir vivir hogar establecer prestacion minimo servicio requerido necesitar enfasis alentar persona necesitado vivir casa lugar hogar anciano</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="680">
-      <c r="A680" t="n">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>acceso informacion complementar él apoyo padr interpretar informacion seleccionar escuela adecuado hijo informacion disponible idioma extranjero seleccionado accesible padre alfabetizacion limitado ocde ii implicar capacidad tomar decision informado individuo gusta valor eleccion relacionado grupo sociedad padre clase medio allen reay allen necesidad gestionar admision estudiante nivel socioeconomico economico criterio admision selectivos ocde requerir garantizar adoptar criterio equidad escuela dar prioridad estudiante desfavorecido arreglo financiacion hacer estudiante desfavorecido atractivo escuela alto rendimiento ocde</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" t="n">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>interdependencia importante factor ambiental salud social investigado recientemente retraso fortalecimiento legislacion control tabaco acordado finalmente principio ejemplificar desafio seccion obstante documento estrategico salud publicar establecio meta plazo expandir salud publicar tradicional incluir enfermedad transmisibl</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="n">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>fortaleza encuesta monitoreo claridad proposito nemp intencion brindar imagen nacional resultado aprendizaje estudiantes etapas clave ano lugar informar estudiante maestros escuela individual estudiante escuela seleccionado azar ano participar evaluación participacion escuela seleccionado voluntario participar</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" t="n">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>país ocde medir calidad atencion salud mental entornos atencion primaria utilizar variedad indicador suecia supervisa atencion somatico hospitalario paciente diagnostico trastorno mental haber él evitar atencion primaria prevencion primario secundario suficiente finlandio realizar seguimiento visita salud mental atencion primaria incluir visita especialista enfermera psiquiatrico psiquiatrar trabajar atencion primaria visita relacionado salud mental medico atencion primaria</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" t="n">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>prestacion nacional hijos proporcionar ingreso complementario familia bajo ingreso elegibl provincia territorio quebec  acceso familia elegibl bajo ingreso acceso gratuito eapi regulado programa nacional universal child care benefit emitir pago mensual imponible familia nino menor ano ayudar cubrir costo cuidado infantil educacion primario secundario publico brindo forma gratuito estudiantes cumplir requisito edad residencia provincia territorio ampliado duracion educacion obligatoria ano</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="n">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>mortalidad tratable muerte evitar él atencion medico oportuna eficaz proporcionar medido impacto atencion salud salud poblacion esperanza vida ver afectado prevalencia enfermedad logro medico gay et tás mortalidad tratable finlandio hombre alto pais nordico mujer bajo islandio resultado variar ampliamente enfermedad enfermedades sistema circulatorio cancer junto representar mortalidad tratable finlandia ocde</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="n">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>ocupar caso tercio puesto directivo publico figura representado necesariamente nivel superior departamento blando educacion ambiente turismo figura discrepancia numero mujer cargo publico alto rango proporcion mujer poblacion calificación educativo ocuparlo incluir cultura larga hora trabajar faltar arreglo trabajo flexible servicio cuidado infantil inadecuado practica discriminatorio acoso sexual</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="n">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>marco genderwork desarrollado colaboracion internacional ayuda organización construir cultura igualdad justicia analizar cambio termino concienciar concienciar acceso recurso oportunidad politica formal ley arreglo institucional cambio cultural informal estructura profundo aplicar tecnica cualitativa codificacion tematico categorizar resultado genero capitulo detalle</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="n">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>proponer acción concreto establecimiento banco africano inversión mujeres implementacion estandar certificacion sello igualdad genero africa capitulo anterior examinar tipo avance desventaja social economico enfrentar mujer voz politico papel tomar decisión interaccion norma legal social expandir obstaculizar derecho oportunidad mujer capitulo reviso politica respuesta institucional gobierno utilizado abordar desigualdad genero</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="689">
-      <c r="A689" t="n">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>reforma fin decado fortalecio formacion docente altamente selectivo formacion docente paso colegio profesor universidades profesor primario debiar titulo maestrio actualidad formacion docente cargo universidad contar escuela formacion docente</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="690">
-      <c r="A690" t="n">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>etapa seguimiento ocurrir ano gimnasiir ano estudiante grupo edad relevante matriculado via strakova et estudiante seleccionado via examen admision pruebas aptitud rendimiento academico alto generalmente optar via general gimnasio liceo</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="691">
-      <c r="A691" t="n">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>estudiante comenzar comprender él ser cultural volver receptivo aceptar cultura razar origen etnico estudiantes gay programa etutor tenia objetivo crear entorno futuro maestro poder interrogar cultura seguro solidaria inclusivo desafiante atractivo carr experiencia interactuar nino multipl cultura entorno line resulto actitud positivo cambio mayorio participant maestros formacion habiar comenzado vision etnocentrico terminar vision etnorrelativo demostrar empatiar cuidado nino cultura</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" t="n">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>usar enfoque basado computadoro registrar sentimiento reacción decisión estudiant curso tarea aprendizaje evidente software interactivo brindar potencial investigacion educativo investigar profundamente formar estudiante interactuan tareas estudio demostrar capacidad tic proporcionar informacion secuencia seguir estudiante completar tarea</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693" t="n">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>cambio punto visto explicar identificacion divulgacion numero caso lugar aumento real problema salud mental proporcion dramatico caso recomendar desarrollar plan prestación discapacidad persona menor ano hacer hincapie rehabilitacion profesional reemplacir derecho prestacion discapacidad joven escolaridad prolongado beca estudiar reducir tendencia dependencia temprano prestación invalidez sugerir implementar politica medida laboral impulsar demanda laboral fomentar contratacion jovenes ocde b sistema salud suecio financiado principalmente trav impuesto general altamente descentralizado caracterizar cobertura universal acceso equitativo servicio</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="694">
-      <c r="A694" t="n">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>apoyo politico practico garantizar mujer incluido organización mujeres sociedad civil estir incluido proceso paz punto entrada crucial garantizar necesidad seguridad mujer hombre nino nina fundamental equipo negociacionmediacion aprovechar experiencia genero comienzo proceso paz proporcionar sesión informativo cuestión genero equipo negociacionmediacion persona decision organizaciones sociedad civil incluido organización mujer incluir él proceso via desempenar papel importante seguimiento implementacion acuerdo paz</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="695">
-      <c r="A695" t="n">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>mayorio país respaldado principio igualdad mujer dotado universalidad normativo tal conflicto surgen contexto religión cultura tradicional basar norma practica social formulado interpretado contexto patriarcal momento derechos humanos individual general derecho mujer igualdad particular convertido imperativo mundial barrera derechos mujer especificas region religion formo gravedad variar región religión</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="n">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>naturaleza descanso comido cuestión genero perder principalmente cuestion vida cotidiano supervivencia presente westman desegregacion division mercado laboral funcion genero temo actualidad politica igualdad genero ano</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="n">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>utilizar estrategia evaluacion consistente objetivo aprendizaje materia impartido marco curricular nacional permitir estudiantes demostrar aprendido docente conocer comprender principio concepto fundamental involucrado materia disciplinado impartida elella mostrar alto expectativa posibilidad aprendizaje b crear mantener norma coherente aula b</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="698">
-      <c r="A698" t="n">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>utilizar formacion proyecto cortar duracion centrosinvestigacion herramienta desarrollo profesional conducir cambio curriculolar ensenanza aprendizaje empresas region sufrir escasez personal calificado habilidad inadecuado ofrecer mercado laboral habilidad estudiant universitario actualizar él habilidad transferible blando comunicacion trabajo equipo pensamiento analitico</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="699">
-      <c r="A699" t="n">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>dar él baja llamar xxxxxxx visitar www ensayo controlado aleatorizado similar ano duracion hombre indio asiatico prediabet encontro mensaje telefono movil metodo aceptable brindar asesoramiento apoyo modificacion estilo vida prevenir diabetes tipo ramachandrar ensayo mostrar beneficio tecnologiar prevencion diabetes reduccion riesgo relativo comparacion atencion estandar ano estudio piloto ano duracion paciente diabet tipo clinico mostro mensaje telefono movil principio control diabet ayudar mejorar resultado atencion medico</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="700">
-      <c r="A700" t="n">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>considerar establecer fortalecer capacidad institución independiente comisión independiente entidad fiscalizadora superior oficina ombudsmar organo asesor p ej consejo gobierno monitorear implementacion estrategia igualdad genero integrar cuestión genero formulacion politica facilitar informe regular auditoria medición eficaz dicho supervision llevar él cabo equilibrado evitar enfoque prescriptivo fomentar mejora continuo tiempo permitir seguimiento progreso igualdad genero ejemplo base practica correspondo medida incluir requisito divulgacion cuota meta voluntario ley paridad alternancia sexos listo partido vinculacion proporción genero partido politico acceso financiacion publicar promover contratacion basado merito considerar politica practica positivo garantizar representacion equilibrado hombre mujer grupo ocupacional empleo sector publico desarrollar medida concreto garantizar eliminacion efectivo barrera implicita proceso contratacion dotacion personal apropiado necesario</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="701">
-      <c r="A701" t="n">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>lider escolar habiar decidido tema aprendizaje profesional escuela ejemplo aprendizaje visible basado trabajo john hattie escuela planificar taller maestro debiar participar desafio tipo aprendizaje profesional incluir falta diferenciacion basado necesidad maestro faltar propiedad maestro aprendizaje faltar conexion necesidad aprendizaje estudiantes terminos general sugerir entrevista realizado estudio ocde dato internacional desarrollo profesional planifico sistematicamente nivel escolar basar evaluación solida docente conocimiento necesidad desarrollo docente satisfacer necesidad docente necesidad estudiant continuacion carecer vinculo solido planificacion amplio desarrollo escolar</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="n">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>frecuencia traficante droga utilizar numero registro aeronave robado falsificado transportar envio ilicito via aerea mayorio país americo central caribe producir nivel significativo hierba cannabis jamaico productor cannabis caribir cultivo planta cannabis estimado autoridad local</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="n">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>municipio describir trabajar lider escolar colaborativo apoyar capacitacion trabajo areas elaboracion presupuestos planificacion mejora escolar seguimiento evaluacion iniciativo mejora escolar municipio utilizar gestion objetivo director escuelar contrato resultado acuerdo director escuela formas contratacion servir definir objetivo escuelo individual director escuelar generalmente periodo ano consecuenciar sistema seguimiento desempeno utilizar evaluar continuamente escuelar desempenar objetivo establecido</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
         <v>4</v>
       </c>
     </row>
